--- a/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="280">
   <si>
     <t>Variable</t>
   </si>
@@ -990,9 +990,6 @@
     <t>transfout_se</t>
   </si>
   <si>
-    <t>HHNUM</t>
-  </si>
-  <si>
     <t>intermediate inputs share</t>
   </si>
   <si>
@@ -1002,9 +999,6 @@
     <t>AqFBg</t>
   </si>
   <si>
-    <t>AqAq</t>
-  </si>
-  <si>
     <t>AqLL</t>
   </si>
   <si>
@@ -1051,6 +1045,12 @@
   </si>
   <si>
     <t>savsh_se</t>
+  </si>
+  <si>
+    <t>AqAg</t>
+  </si>
+  <si>
+    <t>HHNum</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1857,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2703,38 +2703,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2754,72 +2820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3209,7 +3210,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -3223,7 +3224,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -3237,7 +3238,7 @@
         <v>73</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -3251,7 +3252,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -3279,7 +3280,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -4682,12 +4683,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4696,6 +4691,12 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4956,14 +4957,14 @@
       <c r="K1" s="459"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="489" t="s">
+      <c r="N1" s="493" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="490"/>
-      <c r="P1" s="490"/>
-      <c r="Q1" s="490"/>
-      <c r="R1" s="490"/>
-      <c r="S1" s="491"/>
+      <c r="O1" s="494"/>
+      <c r="P1" s="494"/>
+      <c r="Q1" s="494"/>
+      <c r="R1" s="494"/>
+      <c r="S1" s="495"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4987,18 +4988,18 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="492" t="s">
+      <c r="N2" s="514" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="493"/>
-      <c r="P2" s="493" t="s">
+      <c r="O2" s="515"/>
+      <c r="P2" s="515" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="493"/>
-      <c r="R2" s="494" t="s">
+      <c r="Q2" s="515"/>
+      <c r="R2" s="516" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="496" t="s">
+      <c r="S2" s="518" t="s">
         <v>125</v>
       </c>
       <c r="T2" s="8"/>
@@ -5044,8 +5045,8 @@
       <c r="Q3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="495"/>
-      <c r="S3" s="497"/>
+      <c r="R3" s="517"/>
+      <c r="S3" s="519"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5089,10 +5090,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="499" t="s">
+      <c r="L4" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="500"/>
+      <c r="M4" s="487"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input_old!F8</f>
         <v>0</v>
@@ -5160,8 +5161,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="499"/>
-      <c r="M5" s="500"/>
+      <c r="L5" s="486"/>
+      <c r="M5" s="487"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input_old!F9</f>
         <v>0</v>
@@ -5229,8 +5230,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="499"/>
-      <c r="M6" s="500"/>
+      <c r="L6" s="486"/>
+      <c r="M6" s="487"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input_old!F10</f>
         <v>0</v>
@@ -5298,8 +5299,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
-      <c r="M7" s="500"/>
+      <c r="L7" s="486"/>
+      <c r="M7" s="487"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input_old!F11</f>
         <v>0</v>
@@ -5688,12 +5689,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="484" t="s">
+      <c r="T19" s="481" t="s">
         <v>108</v>
       </c>
-      <c r="U19" s="485"/>
-      <c r="V19" s="485"/>
-      <c r="W19" s="486"/>
+      <c r="U19" s="482"/>
+      <c r="V19" s="482"/>
+      <c r="W19" s="483"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5784,10 +5785,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="499" t="s">
+      <c r="L21" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="500"/>
+      <c r="M21" s="487"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5804,10 +5805,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="502" t="s">
+      <c r="R21" s="484" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="498"/>
+      <c r="S21" s="485"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5861,8 +5862,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="499"/>
-      <c r="M22" s="500"/>
+      <c r="L22" s="486"/>
+      <c r="M22" s="487"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5879,8 +5880,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="502"/>
-      <c r="S22" s="498"/>
+      <c r="R22" s="484"/>
+      <c r="S22" s="485"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5934,8 +5935,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="499"/>
-      <c r="M23" s="500"/>
+      <c r="L23" s="486"/>
+      <c r="M23" s="487"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5952,8 +5953,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="502"/>
-      <c r="S23" s="498"/>
+      <c r="R23" s="484"/>
+      <c r="S23" s="485"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -6007,8 +6008,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="499"/>
-      <c r="M24" s="500"/>
+      <c r="L24" s="486"/>
+      <c r="M24" s="487"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6025,8 +6026,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="502"/>
-      <c r="S24" s="498"/>
+      <c r="R24" s="484"/>
+      <c r="S24" s="485"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6080,10 +6081,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="500" t="s">
+      <c r="L25" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M25" s="500"/>
+      <c r="M25" s="487"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6100,10 +6101,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="502" t="s">
+      <c r="R25" s="484" t="s">
         <v>109</v>
       </c>
-      <c r="S25" s="517"/>
+      <c r="S25" s="490"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6145,8 +6146,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="500"/>
-      <c r="M26" s="500"/>
+      <c r="L26" s="487"/>
+      <c r="M26" s="487"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6163,8 +6164,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="517"/>
-      <c r="S26" s="517"/>
+      <c r="R26" s="490"/>
+      <c r="S26" s="490"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6206,8 +6207,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="500"/>
-      <c r="M27" s="500"/>
+      <c r="L27" s="487"/>
+      <c r="M27" s="487"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6224,8 +6225,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="517"/>
-      <c r="S27" s="517"/>
+      <c r="R27" s="490"/>
+      <c r="S27" s="490"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6249,8 +6250,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="500"/>
-      <c r="M28" s="500"/>
+      <c r="L28" s="487"/>
+      <c r="M28" s="487"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6470,12 +6471,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="484" t="s">
+      <c r="T37" s="481" t="s">
         <v>138</v>
       </c>
-      <c r="U37" s="485"/>
-      <c r="V37" s="485"/>
-      <c r="W37" s="486"/>
+      <c r="U37" s="482"/>
+      <c r="V37" s="482"/>
+      <c r="W37" s="483"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6566,10 +6567,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="499" t="s">
+      <c r="L39" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="500"/>
+      <c r="M39" s="487"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6586,10 +6587,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="498" t="s">
+      <c r="R39" s="485" t="s">
         <v>109</v>
       </c>
-      <c r="S39" s="498"/>
+      <c r="S39" s="485"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6643,8 +6644,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="499"/>
-      <c r="M40" s="500"/>
+      <c r="L40" s="486"/>
+      <c r="M40" s="487"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6661,8 +6662,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="498"/>
-      <c r="S40" s="498"/>
+      <c r="R40" s="485"/>
+      <c r="S40" s="485"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6716,8 +6717,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="499"/>
-      <c r="M41" s="500"/>
+      <c r="L41" s="486"/>
+      <c r="M41" s="487"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6734,8 +6735,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="498"/>
-      <c r="S41" s="498"/>
+      <c r="R41" s="485"/>
+      <c r="S41" s="485"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6789,8 +6790,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="499"/>
-      <c r="M42" s="500"/>
+      <c r="L42" s="486"/>
+      <c r="M42" s="487"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6807,8 +6808,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="498"/>
-      <c r="S42" s="498"/>
+      <c r="R42" s="485"/>
+      <c r="S42" s="485"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6862,10 +6863,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="499" t="s">
+      <c r="L43" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="500"/>
+      <c r="M43" s="487"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6882,10 +6883,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="502" t="s">
+      <c r="R43" s="484" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="517"/>
+      <c r="S43" s="490"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input_old!G46</f>
         <v>0</v>
@@ -6939,8 +6940,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="499"/>
-      <c r="M44" s="500"/>
+      <c r="L44" s="486"/>
+      <c r="M44" s="487"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6957,8 +6958,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="517"/>
-      <c r="S44" s="517"/>
+      <c r="R44" s="490"/>
+      <c r="S44" s="490"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input_old!G47</f>
         <v>0</v>
@@ -7012,8 +7013,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="499"/>
-      <c r="M45" s="500"/>
+      <c r="L45" s="486"/>
+      <c r="M45" s="487"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -7030,8 +7031,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="517"/>
-      <c r="S45" s="517"/>
+      <c r="R45" s="490"/>
+      <c r="S45" s="490"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input_old!G48</f>
         <v>0</v>
@@ -7067,8 +7068,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="499"/>
-      <c r="M46" s="501"/>
+      <c r="L46" s="486"/>
+      <c r="M46" s="513"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7253,14 +7254,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="489" t="s">
+      <c r="N54" s="493" t="s">
         <v>103</v>
       </c>
-      <c r="O54" s="490"/>
-      <c r="P54" s="490"/>
-      <c r="Q54" s="490"/>
-      <c r="R54" s="490"/>
-      <c r="S54" s="491"/>
+      <c r="O54" s="494"/>
+      <c r="P54" s="494"/>
+      <c r="Q54" s="494"/>
+      <c r="R54" s="494"/>
+      <c r="S54" s="495"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7284,18 +7285,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="519" t="s">
+      <c r="N55" s="496" t="s">
         <v>122</v>
       </c>
-      <c r="O55" s="483"/>
-      <c r="P55" s="483" t="s">
+      <c r="O55" s="491"/>
+      <c r="P55" s="491" t="s">
         <v>123</v>
       </c>
-      <c r="Q55" s="483"/>
-      <c r="R55" s="506" t="s">
+      <c r="Q55" s="491"/>
+      <c r="R55" s="500" t="s">
         <v>124</v>
       </c>
-      <c r="S55" s="512" t="s">
+      <c r="S55" s="509" t="s">
         <v>125</v>
       </c>
       <c r="T55" s="8"/>
@@ -7341,8 +7342,8 @@
       <c r="Q56" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="R56" s="507"/>
-      <c r="S56" s="513"/>
+      <c r="R56" s="501"/>
+      <c r="S56" s="510"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7384,10 +7385,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="499" t="s">
+      <c r="L57" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="M57" s="500"/>
+      <c r="M57" s="487"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input_old!F61</f>
         <v>0</v>
@@ -7453,8 +7454,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="499"/>
-      <c r="M58" s="500"/>
+      <c r="L58" s="486"/>
+      <c r="M58" s="487"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input_old!F62</f>
         <v>0</v>
@@ -7520,8 +7521,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="499"/>
-      <c r="M59" s="500"/>
+      <c r="L59" s="486"/>
+      <c r="M59" s="487"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input_old!F63</f>
         <v>0</v>
@@ -7587,8 +7588,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="499"/>
-      <c r="M60" s="500"/>
+      <c r="L60" s="486"/>
+      <c r="M60" s="487"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input_old!F64</f>
         <v>0</v>
@@ -7927,12 +7928,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="483" t="s">
+      <c r="N72" s="491" t="s">
         <v>99</v>
       </c>
-      <c r="O72" s="483"/>
-      <c r="P72" s="483"/>
-      <c r="Q72" s="483"/>
+      <c r="O72" s="491"/>
+      <c r="P72" s="491"/>
+      <c r="Q72" s="491"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7961,14 +7962,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="518" t="s">
+      <c r="N73" s="492" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="518"/>
-      <c r="P73" s="518" t="s">
+      <c r="O73" s="492"/>
+      <c r="P73" s="492" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="518"/>
+      <c r="Q73" s="492"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8045,10 +8046,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="515" t="s">
+      <c r="L75" s="488" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="516"/>
+      <c r="M75" s="489"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8066,14 +8067,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="514" t="s">
+      <c r="S75" s="511" t="s">
         <v>159</v>
       </c>
-      <c r="T75" s="514"/>
-      <c r="U75" s="514"/>
-      <c r="V75" s="514"/>
-      <c r="W75" s="514"/>
-      <c r="X75" s="514"/>
+      <c r="T75" s="511"/>
+      <c r="U75" s="511"/>
+      <c r="V75" s="511"/>
+      <c r="W75" s="511"/>
+      <c r="X75" s="511"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8150,22 +8151,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="484" t="s">
+      <c r="N78" s="481" t="s">
         <v>106</v>
       </c>
-      <c r="O78" s="485"/>
-      <c r="P78" s="485"/>
-      <c r="Q78" s="485"/>
-      <c r="R78" s="485"/>
-      <c r="S78" s="486"/>
-      <c r="T78" s="484" t="s">
+      <c r="O78" s="482"/>
+      <c r="P78" s="482"/>
+      <c r="Q78" s="482"/>
+      <c r="R78" s="482"/>
+      <c r="S78" s="483"/>
+      <c r="T78" s="481" t="s">
         <v>142</v>
       </c>
-      <c r="U78" s="485"/>
-      <c r="V78" s="485"/>
-      <c r="W78" s="485"/>
-      <c r="X78" s="485"/>
-      <c r="Y78" s="486"/>
+      <c r="U78" s="482"/>
+      <c r="V78" s="482"/>
+      <c r="W78" s="482"/>
+      <c r="X78" s="482"/>
+      <c r="Y78" s="483"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8185,32 +8186,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="487" t="s">
+      <c r="N79" s="507" t="s">
         <v>122</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="484" t="s">
+      <c r="O79" s="508"/>
+      <c r="P79" s="481" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="485"/>
-      <c r="R79" s="481" t="s">
+      <c r="Q79" s="482"/>
+      <c r="R79" s="505" t="s">
         <v>139</v>
       </c>
-      <c r="S79" s="481" t="s">
+      <c r="S79" s="505" t="s">
         <v>140</v>
       </c>
-      <c r="T79" s="487" t="s">
+      <c r="T79" s="507" t="s">
         <v>122</v>
       </c>
-      <c r="U79" s="488"/>
-      <c r="V79" s="484" t="s">
+      <c r="U79" s="508"/>
+      <c r="V79" s="481" t="s">
         <v>123</v>
       </c>
-      <c r="W79" s="485"/>
-      <c r="X79" s="481" t="s">
+      <c r="W79" s="482"/>
+      <c r="X79" s="505" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="481" t="s">
+      <c r="Y79" s="505" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8244,8 +8245,8 @@
       <c r="Q80" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="R80" s="511"/>
-      <c r="S80" s="511"/>
+      <c r="R80" s="506"/>
+      <c r="S80" s="506"/>
       <c r="T80" s="123" t="s">
         <v>112</v>
       </c>
@@ -8258,8 +8259,8 @@
       <c r="W80" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="X80" s="482"/>
-      <c r="Y80" s="482"/>
+      <c r="X80" s="512"/>
+      <c r="Y80" s="512"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8293,10 +8294,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="504" t="s">
+      <c r="L81" s="498" t="s">
         <v>166</v>
       </c>
-      <c r="M81" s="505"/>
+      <c r="M81" s="499"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8336,24 +8337,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="504"/>
-      <c r="M82" s="505"/>
-      <c r="N82" s="508" t="s">
+      <c r="L82" s="498"/>
+      <c r="M82" s="499"/>
+      <c r="N82" s="502" t="s">
         <v>107</v>
       </c>
-      <c r="O82" s="509"/>
-      <c r="P82" s="509"/>
-      <c r="Q82" s="509"/>
-      <c r="R82" s="509"/>
-      <c r="S82" s="510"/>
-      <c r="T82" s="483" t="s">
+      <c r="O82" s="503"/>
+      <c r="P82" s="503"/>
+      <c r="Q82" s="503"/>
+      <c r="R82" s="503"/>
+      <c r="S82" s="504"/>
+      <c r="T82" s="491" t="s">
         <v>141</v>
       </c>
-      <c r="U82" s="483"/>
-      <c r="V82" s="483"/>
-      <c r="W82" s="483"/>
-      <c r="X82" s="483"/>
-      <c r="Y82" s="483"/>
+      <c r="U82" s="491"/>
+      <c r="V82" s="491"/>
+      <c r="W82" s="491"/>
+      <c r="X82" s="491"/>
+      <c r="Y82" s="491"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8843,7 +8844,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="503" t="s">
+      <c r="L97" s="497" t="s">
         <v>111</v>
       </c>
       <c r="M97" s="8"/>
@@ -8876,7 +8877,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="503"/>
+      <c r="L98" s="497"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8909,7 +8910,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="503"/>
+      <c r="L99" s="497"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>184</v>
@@ -8951,7 +8952,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="503"/>
+      <c r="L100" s="497"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>188</v>
@@ -9066,11 +9067,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="502" t="s">
+      <c r="L103" s="484" t="s">
         <v>110</v>
       </c>
-      <c r="M103" s="502"/>
-      <c r="N103" s="502"/>
+      <c r="M103" s="484"/>
+      <c r="N103" s="484"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9099,9 +9100,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="502"/>
-      <c r="M104" s="502"/>
-      <c r="N104" s="502"/>
+      <c r="L104" s="484"/>
+      <c r="M104" s="484"/>
+      <c r="N104" s="484"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9130,9 +9131,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="502"/>
-      <c r="M105" s="502"/>
-      <c r="N105" s="502"/>
+      <c r="L105" s="484"/>
+      <c r="M105" s="484"/>
+      <c r="N105" s="484"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9161,9 +9162,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="502"/>
-      <c r="M106" s="502"/>
-      <c r="N106" s="502"/>
+      <c r="L106" s="484"/>
+      <c r="M106" s="484"/>
+      <c r="N106" s="484"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9192,9 +9193,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="502"/>
-      <c r="M107" s="502"/>
-      <c r="N107" s="502"/>
+      <c r="L107" s="484"/>
+      <c r="M107" s="484"/>
+      <c r="N107" s="484"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9223,9 +9224,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="502"/>
-      <c r="M108" s="502"/>
-      <c r="N108" s="502"/>
+      <c r="L108" s="484"/>
+      <c r="M108" s="484"/>
+      <c r="N108" s="484"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9254,9 +9255,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="502"/>
-      <c r="M109" s="502"/>
-      <c r="N109" s="502"/>
+      <c r="L109" s="484"/>
+      <c r="M109" s="484"/>
+      <c r="N109" s="484"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9285,9 +9286,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="502"/>
-      <c r="M110" s="502"/>
-      <c r="N110" s="502"/>
+      <c r="L110" s="484"/>
+      <c r="M110" s="484"/>
+      <c r="N110" s="484"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9367,6 +9368,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9383,36 +9414,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9425,13 +9426,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9530,22 +9531,22 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="454" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="454" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="454" t="s">
+      <c r="H4" s="454" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="454" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="454" t="s">
+      <c r="J4" s="455" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="454" t="s">
+      <c r="K4" s="455" t="s">
         <v>264</v>
-      </c>
-      <c r="J4" s="455" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="455" t="s">
-        <v>266</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -9554,7 +9555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="446" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C5" s="446"/>
       <c r="D5" s="446"/>
@@ -9584,7 +9585,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C6" s="247" t="s">
         <v>53</v>
@@ -9622,7 +9623,7 @@
         <v>227</v>
       </c>
       <c r="B7" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" s="247" t="s">
         <v>227</v>
@@ -9660,7 +9661,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="247" t="s">
         <v>228</v>
@@ -9698,7 +9699,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="247" t="s">
         <v>230</v>
@@ -9736,7 +9737,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C10" s="247" t="s">
         <v>18</v>
@@ -9774,7 +9775,7 @@
         <v>229</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" s="247" t="s">
         <v>229</v>
@@ -9812,7 +9813,7 @@
         <v>231</v>
       </c>
       <c r="B12" s="247" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C12" s="247" t="s">
         <v>231</v>
@@ -9847,10 +9848,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="452" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" s="266" t="s">
         <v>53</v>
@@ -9887,10 +9888,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="452" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" s="268" t="s">
         <v>227</v>
@@ -9925,10 +9926,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="452" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B15" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C15" s="268" t="s">
         <v>228</v>
@@ -9963,10 +9964,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="452" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B16" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16" s="268" t="s">
         <v>230</v>
@@ -10001,10 +10002,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="453" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B17" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C17" s="268" t="s">
         <v>18</v>
@@ -10039,10 +10040,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="453" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B18" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C18" s="268" t="s">
         <v>229</v>
@@ -10080,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="B19" s="265" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C19" s="270" t="s">
         <v>231</v>
@@ -10115,7 +10116,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C20" s="273" t="s">
         <v>53</v>
@@ -10134,7 +10135,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C21" s="248" t="s">
         <v>227</v>
@@ -10151,7 +10152,7 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C22" s="248" t="s">
         <v>228</v>
@@ -10168,7 +10169,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="248" t="s">
         <v>230</v>
@@ -10185,7 +10186,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C24" s="248" t="s">
         <v>18</v>
@@ -10202,7 +10203,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C25" s="248" t="s">
         <v>229</v>
@@ -10220,7 +10221,7 @@
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="272" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="276" t="s">
         <v>231</v>
@@ -10302,7 +10303,7 @@
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="251" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31" s="248"/>
       <c r="D31" s="248"/>
@@ -10318,7 +10319,7 @@
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="251" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32" s="248"/>
       <c r="D32" s="248"/>
@@ -10360,7 +10361,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="284" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" s="285" t="s">
         <v>221</v>
@@ -10381,7 +10382,7 @@
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="287" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>221</v>
@@ -10401,7 +10402,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="287" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>228</v>
@@ -10421,7 +10422,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="287" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>228</v>
@@ -10440,7 +10441,7 @@
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="287" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>228</v>
@@ -10460,7 +10461,7 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="287" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>228</v>
@@ -10480,7 +10481,7 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="289" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C40" s="290" t="s">
         <v>228</v>
@@ -10711,7 +10712,7 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="299" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C49" s="300" t="s">
         <v>221</v>
@@ -10737,7 +10738,7 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="302" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C50" s="303" t="s">
         <v>221</v>
@@ -10789,7 +10790,7 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="305" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C52" s="306" t="s">
         <v>53</v>
@@ -10811,7 +10812,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C53" s="309" t="s">
         <v>53</v>
@@ -10831,7 +10832,7 @@
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C54" s="309" t="s">
         <v>53</v>
@@ -10851,7 +10852,7 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C55" s="309" t="s">
         <v>53</v>
@@ -10871,7 +10872,7 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="309" t="s">
         <v>53</v>
@@ -10891,7 +10892,7 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="308" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C57" s="309" t="s">
         <v>53</v>
@@ -10911,7 +10912,7 @@
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="311" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C58" s="309" t="s">
         <v>53</v>
@@ -11139,7 +11140,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="292" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C67" s="293" t="s">
         <v>4</v>
@@ -11165,7 +11166,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="297" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C68" s="298" t="s">
         <v>4</v>
@@ -11229,7 +11230,7 @@
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="369" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C70" s="370" t="s">
         <v>230</v>
@@ -11249,7 +11250,7 @@
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C71" s="373" t="s">
         <v>230</v>
@@ -11269,7 +11270,7 @@
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C72" s="373" t="s">
         <v>230</v>
@@ -11289,7 +11290,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C73" s="373" t="s">
         <v>230</v>
@@ -11309,7 +11310,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C74" s="373" t="s">
         <v>230</v>
@@ -11346,7 +11347,7 @@
     </row>
     <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C75" s="373" t="s">
         <v>230</v>
@@ -11366,7 +11367,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="375" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C76" s="376" t="s">
         <v>230</v>
@@ -11611,7 +11612,7 @@
     </row>
     <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="362" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C85" s="363" t="s">
         <v>230</v>
@@ -11628,7 +11629,7 @@
     </row>
     <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="366" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" s="367" t="s">
         <v>230</v>
@@ -11682,7 +11683,7 @@
     </row>
     <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="378" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C88" s="379" t="s">
         <v>229</v>
@@ -11701,7 +11702,7 @@
     </row>
     <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="381" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C89" s="382" t="s">
         <v>229</v>
@@ -11720,7 +11721,7 @@
     </row>
     <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="381" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C90" s="382" t="s">
         <v>229</v>
@@ -11739,7 +11740,7 @@
     </row>
     <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="381" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C91" s="382" t="s">
         <v>229</v>
@@ -11758,7 +11759,7 @@
     </row>
     <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="381" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C92" s="382" t="s">
         <v>229</v>
@@ -11795,7 +11796,7 @@
     </row>
     <row r="93" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="381" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93" s="382" t="s">
         <v>229</v>
@@ -11815,7 +11816,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="384" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C94" s="385" t="s">
         <v>229</v>
@@ -12066,7 +12067,7 @@
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="387" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C103" s="388" t="s">
         <v>229</v>
@@ -12084,7 +12085,7 @@
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="392" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C104" s="393" t="s">
         <v>229</v>
@@ -12140,7 +12141,7 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="409" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C106" s="410" t="s">
         <v>18</v>
@@ -12160,7 +12161,7 @@
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="412" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C107" s="413" t="s">
         <v>18</v>
@@ -12180,7 +12181,7 @@
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="412" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C108" s="413" t="s">
         <v>18</v>
@@ -12200,7 +12201,7 @@
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="412" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" s="413" t="s">
         <v>18</v>
@@ -12220,7 +12221,7 @@
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="412" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C110" s="413" t="s">
         <v>18</v>
@@ -12258,7 +12259,7 @@
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="412" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C111" s="413" t="s">
         <v>18</v>
@@ -12278,7 +12279,7 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="415" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C112" s="416" t="s">
         <v>18</v>
@@ -12525,7 +12526,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121" s="398" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C121" s="399" t="s">
         <v>18</v>
@@ -12542,7 +12543,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" s="403" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C122" s="404" t="s">
         <v>18</v>
@@ -12619,7 +12620,7 @@
       </c>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
         <v>46</v>
       </c>
@@ -12627,7 +12628,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>47</v>
       </c>
@@ -12635,7 +12636,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
         <v>48</v>
       </c>
@@ -12643,7 +12644,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>49</v>
       </c>
@@ -12651,7 +12652,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>50</v>
       </c>
@@ -12659,7 +12660,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>161</v>
       </c>
@@ -12667,41 +12668,67 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="90" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C135" s="90"/>
       <c r="D135" s="90"/>
       <c r="E135" s="90"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C136" s="90"/>
       <c r="D136" s="90"/>
       <c r="E136" s="90"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C137" s="90"/>
       <c r="D137" s="90"/>
       <c r="E137" s="90"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C138" s="90"/>
+      <c r="F137" s="520">
+        <f>Cons!C10</f>
+        <v>10856.43761441065</v>
+      </c>
+      <c r="G137" s="520">
+        <f>Cons!D10</f>
+        <v>8944.8348692712316</v>
+      </c>
+      <c r="H137" s="520">
+        <f>Cons!E10</f>
+        <v>4639.9591336259618</v>
+      </c>
+      <c r="I137" s="520">
+        <f>Cons!F10</f>
+        <v>10465.431689676247</v>
+      </c>
+      <c r="J137" s="520">
+        <f>Cons!G10</f>
+        <v>9013.3949423579033</v>
+      </c>
+      <c r="K137" s="520">
+        <f>Cons!H10</f>
+        <v>4882.7445115986047</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="90" t="s">
+        <v>18</v>
+      </c>
       <c r="D138" s="90"/>
       <c r="E138" s="90"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C139" s="90" t="s">
         <v>18</v>
@@ -12709,19 +12736,19 @@
       <c r="D139" s="90"/>
       <c r="E139" s="90"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C140" s="90" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C141" s="90" t="s">
         <v>51</v>
@@ -12729,19 +12756,19 @@
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C142" s="90" t="s">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="90"/>
       <c r="E142" s="90"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
         <v>51</v>
@@ -12749,14 +12776,16 @@
       <c r="D143" s="90"/>
       <c r="E143" s="90"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>149</v>
-      </c>
-      <c r="C144" t="s">
-        <v>51</v>
-      </c>
-      <c r="D144" s="90"/>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E144" s="90"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
@@ -12767,7 +12796,7 @@
         <v>18</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E145" s="90"/>
     </row>
@@ -12779,7 +12808,7 @@
         <v>18</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E146" s="90"/>
     </row>
@@ -12791,7 +12820,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E147" s="90"/>
     </row>
@@ -12800,10 +12829,10 @@
         <v>93</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E148" s="90"/>
     </row>
@@ -12815,9 +12844,9 @@
         <v>51</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E149" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="E149" s="8"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="101" t="s">
@@ -12827,7 +12856,7 @@
         <v>51</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E150" s="8"/>
     </row>
@@ -12839,21 +12868,9 @@
         <v>51</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E151" s="8"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E152" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17246,7 +17263,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18234,7 +18251,7 @@
     </row>
     <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>205</v>
@@ -18330,7 +18347,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="282">
   <si>
     <t>Variable</t>
   </si>
@@ -1051,6 +1051,12 @@
   </si>
   <si>
     <t>HHNum</t>
+  </si>
+  <si>
+    <t>wrkagepop</t>
+  </si>
+  <si>
+    <t>Just the raw number of 15-55 in those groups</t>
   </si>
 </sst>
 </file>
@@ -2634,6 +2640,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,6 +2710,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2712,17 +2728,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2734,93 +2822,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3337,34 +3343,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="468" t="s">
+      <c r="B9" s="469" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="469"/>
-      <c r="D9" s="469"/>
-      <c r="E9" s="469"/>
-      <c r="F9" s="470"/>
-      <c r="G9" s="468" t="s">
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
+      <c r="E9" s="470"/>
+      <c r="F9" s="471"/>
+      <c r="G9" s="469" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="469"/>
-      <c r="I9" s="469"/>
-      <c r="J9" s="469"/>
-      <c r="K9" s="470"/>
-      <c r="L9" s="468" t="s">
+      <c r="H9" s="470"/>
+      <c r="I9" s="470"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="469" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="469"/>
-      <c r="N9" s="469"/>
-      <c r="O9" s="469"/>
-      <c r="P9" s="470"/>
-      <c r="Q9" s="468" t="s">
+      <c r="M9" s="470"/>
+      <c r="N9" s="470"/>
+      <c r="O9" s="470"/>
+      <c r="P9" s="471"/>
+      <c r="Q9" s="469" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="469"/>
-      <c r="S9" s="469"/>
-      <c r="T9" s="469"/>
-      <c r="U9" s="470"/>
+      <c r="R9" s="470"/>
+      <c r="S9" s="470"/>
+      <c r="T9" s="470"/>
+      <c r="U9" s="471"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3568,34 +3574,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="468" t="s">
+      <c r="B9" s="469" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="469"/>
-      <c r="D9" s="469"/>
-      <c r="E9" s="469"/>
-      <c r="F9" s="470"/>
-      <c r="G9" s="468" t="s">
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
+      <c r="E9" s="470"/>
+      <c r="F9" s="471"/>
+      <c r="G9" s="469" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="469"/>
-      <c r="I9" s="469"/>
-      <c r="J9" s="469"/>
-      <c r="K9" s="470"/>
-      <c r="L9" s="468" t="s">
+      <c r="H9" s="470"/>
+      <c r="I9" s="470"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="469" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="469"/>
-      <c r="N9" s="469"/>
-      <c r="O9" s="469"/>
-      <c r="P9" s="470"/>
-      <c r="Q9" s="468" t="s">
+      <c r="M9" s="470"/>
+      <c r="N9" s="470"/>
+      <c r="O9" s="470"/>
+      <c r="P9" s="471"/>
+      <c r="Q9" s="469" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="469"/>
-      <c r="S9" s="469"/>
-      <c r="T9" s="469"/>
-      <c r="U9" s="470"/>
+      <c r="R9" s="470"/>
+      <c r="S9" s="470"/>
+      <c r="T9" s="470"/>
+      <c r="U9" s="471"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3738,11 +3744,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="465" t="s">
+      <c r="A3" s="466" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
+      <c r="B3" s="466"/>
+      <c r="C3" s="466"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3767,11 +3773,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="465" t="s">
+      <c r="A9" s="466" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="465"/>
-      <c r="C9" s="465"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="466"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3814,11 +3820,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="465" t="s">
+      <c r="A15" s="466" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="465"/>
-      <c r="C15" s="465"/>
+      <c r="B15" s="466"/>
+      <c r="C15" s="466"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3893,11 +3899,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="465" t="s">
+      <c r="A21" s="466" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="465"/>
-      <c r="C21" s="465"/>
+      <c r="B21" s="466"/>
+      <c r="C21" s="466"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>131</v>
@@ -3974,8 +3980,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="465"/>
-      <c r="C27" s="465"/>
+      <c r="B27" s="466"/>
+      <c r="C27" s="466"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3990,7 +3996,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="477" t="s">
+      <c r="F29" s="478" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -4002,7 +4008,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="478"/>
+      <c r="F30" s="479"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -4012,7 +4018,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="478" t="s">
+      <c r="F31" s="479" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -4024,7 +4030,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="479"/>
+      <c r="F32" s="480"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -4034,8 +4040,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="465"/>
-      <c r="C33" s="465"/>
+      <c r="B33" s="466"/>
+      <c r="C33" s="466"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -4060,10 +4066,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="471" t="s">
+      <c r="F36" s="472" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="480" t="s">
+      <c r="G36" s="481" t="s">
         <v>121</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -4088,8 +4094,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="472"/>
-      <c r="G37" s="475"/>
+      <c r="F37" s="473"/>
+      <c r="G37" s="476"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4112,8 +4118,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="472"/>
-      <c r="G38" s="475"/>
+      <c r="F38" s="473"/>
+      <c r="G38" s="476"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4136,8 +4142,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="472"/>
-      <c r="G39" s="475"/>
+      <c r="F39" s="473"/>
+      <c r="G39" s="476"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4160,7 +4166,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="472"/>
+      <c r="F40" s="473"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -4169,8 +4175,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="472"/>
-      <c r="G41" s="475" t="s">
+      <c r="F41" s="473"/>
+      <c r="G41" s="476" t="s">
         <v>131</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -4195,8 +4201,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="472"/>
-      <c r="G42" s="475"/>
+      <c r="F42" s="473"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4219,8 +4225,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="472"/>
-      <c r="G43" s="475"/>
+      <c r="F43" s="473"/>
+      <c r="G43" s="476"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4243,8 +4249,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="473"/>
-      <c r="G44" s="476"/>
+      <c r="F44" s="474"/>
+      <c r="G44" s="477"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4275,10 +4281,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="471" t="s">
+      <c r="F46" s="472" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="474" t="s">
+      <c r="G46" s="475" t="s">
         <v>121</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -4303,8 +4309,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="472"/>
-      <c r="G47" s="475"/>
+      <c r="F47" s="473"/>
+      <c r="G47" s="476"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4327,8 +4333,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="472"/>
-      <c r="G48" s="475"/>
+      <c r="F48" s="473"/>
+      <c r="G48" s="476"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4351,8 +4357,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="472"/>
-      <c r="G49" s="475"/>
+      <c r="F49" s="473"/>
+      <c r="G49" s="476"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4375,7 +4381,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="472"/>
+      <c r="F50" s="473"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -4384,8 +4390,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="472"/>
-      <c r="G51" s="475" t="s">
+      <c r="F51" s="473"/>
+      <c r="G51" s="476" t="s">
         <v>131</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -4410,8 +4416,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="472"/>
-      <c r="G52" s="475"/>
+      <c r="F52" s="473"/>
+      <c r="G52" s="476"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4434,8 +4440,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="472"/>
-      <c r="G53" s="475"/>
+      <c r="F53" s="473"/>
+      <c r="G53" s="476"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4458,8 +4464,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="473"/>
-      <c r="G54" s="476"/>
+      <c r="F54" s="474"/>
+      <c r="G54" s="477"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4683,6 +4689,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4691,12 +4703,6 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4945,26 +4951,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="459" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="459" t="s">
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="460" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="459"/>
+      <c r="K1" s="460"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="493" t="s">
+      <c r="N1" s="490" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="494"/>
-      <c r="P1" s="494"/>
-      <c r="Q1" s="494"/>
-      <c r="R1" s="494"/>
-      <c r="S1" s="495"/>
+      <c r="O1" s="491"/>
+      <c r="P1" s="491"/>
+      <c r="Q1" s="491"/>
+      <c r="R1" s="491"/>
+      <c r="S1" s="492"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4976,30 +4982,30 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="460" t="s">
+      <c r="F2" s="461" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460" t="s">
+      <c r="G2" s="461"/>
+      <c r="H2" s="461" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="460"/>
+      <c r="I2" s="461"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="514" t="s">
+      <c r="N2" s="493" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="515"/>
-      <c r="P2" s="515" t="s">
+      <c r="O2" s="494"/>
+      <c r="P2" s="494" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="515"/>
-      <c r="R2" s="516" t="s">
+      <c r="Q2" s="494"/>
+      <c r="R2" s="495" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="518" t="s">
+      <c r="S2" s="497" t="s">
         <v>125</v>
       </c>
       <c r="T2" s="8"/>
@@ -5045,8 +5051,8 @@
       <c r="Q3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="517"/>
-      <c r="S3" s="519"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="498"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5090,10 +5096,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="486" t="s">
+      <c r="L4" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="487"/>
+      <c r="M4" s="501"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input_old!F8</f>
         <v>0</v>
@@ -5161,8 +5167,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="486"/>
-      <c r="M5" s="487"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="501"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input_old!F9</f>
         <v>0</v>
@@ -5230,8 +5236,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="486"/>
-      <c r="M6" s="487"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="501"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input_old!F10</f>
         <v>0</v>
@@ -5299,8 +5305,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="500"/>
+      <c r="M7" s="501"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input_old!F11</f>
         <v>0</v>
@@ -5689,12 +5695,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="481" t="s">
+      <c r="T19" s="485" t="s">
         <v>108</v>
       </c>
-      <c r="U19" s="482"/>
-      <c r="V19" s="482"/>
-      <c r="W19" s="483"/>
+      <c r="U19" s="486"/>
+      <c r="V19" s="486"/>
+      <c r="W19" s="487"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5785,10 +5791,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="486" t="s">
+      <c r="L21" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="487"/>
+      <c r="M21" s="501"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5805,10 +5811,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="484" t="s">
+      <c r="R21" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="485"/>
+      <c r="S21" s="499"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5862,8 +5868,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="486"/>
-      <c r="M22" s="487"/>
+      <c r="L22" s="500"/>
+      <c r="M22" s="501"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5880,8 +5886,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="484"/>
-      <c r="S22" s="485"/>
+      <c r="R22" s="503"/>
+      <c r="S22" s="499"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5935,8 +5941,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="486"/>
-      <c r="M23" s="487"/>
+      <c r="L23" s="500"/>
+      <c r="M23" s="501"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5953,8 +5959,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="484"/>
-      <c r="S23" s="485"/>
+      <c r="R23" s="503"/>
+      <c r="S23" s="499"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -6008,8 +6014,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="486"/>
-      <c r="M24" s="487"/>
+      <c r="L24" s="500"/>
+      <c r="M24" s="501"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6026,8 +6032,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="484"/>
-      <c r="S24" s="485"/>
+      <c r="R24" s="503"/>
+      <c r="S24" s="499"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6081,10 +6087,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="487" t="s">
+      <c r="L25" s="501" t="s">
         <v>104</v>
       </c>
-      <c r="M25" s="487"/>
+      <c r="M25" s="501"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6101,10 +6107,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="484" t="s">
+      <c r="R25" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S25" s="490"/>
+      <c r="S25" s="518"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6146,8 +6152,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="487"/>
-      <c r="M26" s="487"/>
+      <c r="L26" s="501"/>
+      <c r="M26" s="501"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6164,8 +6170,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="490"/>
-      <c r="S26" s="490"/>
+      <c r="R26" s="518"/>
+      <c r="S26" s="518"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6207,8 +6213,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="487"/>
-      <c r="M27" s="487"/>
+      <c r="L27" s="501"/>
+      <c r="M27" s="501"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6225,8 +6231,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="490"/>
-      <c r="S27" s="490"/>
+      <c r="R27" s="518"/>
+      <c r="S27" s="518"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6250,8 +6256,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="487"/>
-      <c r="M28" s="487"/>
+      <c r="L28" s="501"/>
+      <c r="M28" s="501"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6471,12 +6477,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="481" t="s">
+      <c r="T37" s="485" t="s">
         <v>138</v>
       </c>
-      <c r="U37" s="482"/>
-      <c r="V37" s="482"/>
-      <c r="W37" s="483"/>
+      <c r="U37" s="486"/>
+      <c r="V37" s="486"/>
+      <c r="W37" s="487"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6567,10 +6573,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="486" t="s">
+      <c r="L39" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="487"/>
+      <c r="M39" s="501"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6587,10 +6593,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="485" t="s">
+      <c r="R39" s="499" t="s">
         <v>109</v>
       </c>
-      <c r="S39" s="485"/>
+      <c r="S39" s="499"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6644,8 +6650,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="486"/>
-      <c r="M40" s="487"/>
+      <c r="L40" s="500"/>
+      <c r="M40" s="501"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6662,8 +6668,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="485"/>
-      <c r="S40" s="485"/>
+      <c r="R40" s="499"/>
+      <c r="S40" s="499"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6717,8 +6723,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="486"/>
-      <c r="M41" s="487"/>
+      <c r="L41" s="500"/>
+      <c r="M41" s="501"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6735,8 +6741,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="485"/>
-      <c r="S41" s="485"/>
+      <c r="R41" s="499"/>
+      <c r="S41" s="499"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6790,8 +6796,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="486"/>
-      <c r="M42" s="487"/>
+      <c r="L42" s="500"/>
+      <c r="M42" s="501"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6808,8 +6814,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="485"/>
-      <c r="S42" s="485"/>
+      <c r="R42" s="499"/>
+      <c r="S42" s="499"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6863,10 +6869,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="486" t="s">
+      <c r="L43" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="487"/>
+      <c r="M43" s="501"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6883,10 +6889,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="484" t="s">
+      <c r="R43" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="490"/>
+      <c r="S43" s="518"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input_old!G46</f>
         <v>0</v>
@@ -6940,8 +6946,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="486"/>
-      <c r="M44" s="487"/>
+      <c r="L44" s="500"/>
+      <c r="M44" s="501"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6958,8 +6964,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="490"/>
-      <c r="S44" s="490"/>
+      <c r="R44" s="518"/>
+      <c r="S44" s="518"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input_old!G47</f>
         <v>0</v>
@@ -7013,8 +7019,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="486"/>
-      <c r="M45" s="487"/>
+      <c r="L45" s="500"/>
+      <c r="M45" s="501"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -7031,8 +7037,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="490"/>
-      <c r="S45" s="490"/>
+      <c r="R45" s="518"/>
+      <c r="S45" s="518"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input_old!G48</f>
         <v>0</v>
@@ -7068,8 +7074,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="486"/>
-      <c r="M46" s="513"/>
+      <c r="L46" s="500"/>
+      <c r="M46" s="502"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7254,14 +7260,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="493" t="s">
+      <c r="N54" s="490" t="s">
         <v>103</v>
       </c>
-      <c r="O54" s="494"/>
-      <c r="P54" s="494"/>
-      <c r="Q54" s="494"/>
-      <c r="R54" s="494"/>
-      <c r="S54" s="495"/>
+      <c r="O54" s="491"/>
+      <c r="P54" s="491"/>
+      <c r="Q54" s="491"/>
+      <c r="R54" s="491"/>
+      <c r="S54" s="492"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7285,18 +7291,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="496" t="s">
+      <c r="N55" s="520" t="s">
         <v>122</v>
       </c>
-      <c r="O55" s="491"/>
-      <c r="P55" s="491" t="s">
+      <c r="O55" s="484"/>
+      <c r="P55" s="484" t="s">
         <v>123</v>
       </c>
-      <c r="Q55" s="491"/>
-      <c r="R55" s="500" t="s">
+      <c r="Q55" s="484"/>
+      <c r="R55" s="507" t="s">
         <v>124</v>
       </c>
-      <c r="S55" s="509" t="s">
+      <c r="S55" s="513" t="s">
         <v>125</v>
       </c>
       <c r="T55" s="8"/>
@@ -7342,8 +7348,8 @@
       <c r="Q56" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="R56" s="501"/>
-      <c r="S56" s="510"/>
+      <c r="R56" s="508"/>
+      <c r="S56" s="514"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7385,10 +7391,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="486" t="s">
+      <c r="L57" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M57" s="487"/>
+      <c r="M57" s="501"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input_old!F61</f>
         <v>0</v>
@@ -7454,8 +7460,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="486"/>
-      <c r="M58" s="487"/>
+      <c r="L58" s="500"/>
+      <c r="M58" s="501"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input_old!F62</f>
         <v>0</v>
@@ -7521,8 +7527,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="486"/>
-      <c r="M59" s="487"/>
+      <c r="L59" s="500"/>
+      <c r="M59" s="501"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input_old!F63</f>
         <v>0</v>
@@ -7588,8 +7594,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="486"/>
-      <c r="M60" s="487"/>
+      <c r="L60" s="500"/>
+      <c r="M60" s="501"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input_old!F64</f>
         <v>0</v>
@@ -7928,12 +7934,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="491" t="s">
+      <c r="N72" s="484" t="s">
         <v>99</v>
       </c>
-      <c r="O72" s="491"/>
-      <c r="P72" s="491"/>
-      <c r="Q72" s="491"/>
+      <c r="O72" s="484"/>
+      <c r="P72" s="484"/>
+      <c r="Q72" s="484"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7962,14 +7968,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="492" t="s">
+      <c r="N73" s="519" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="492"/>
-      <c r="P73" s="492" t="s">
+      <c r="O73" s="519"/>
+      <c r="P73" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="492"/>
+      <c r="Q73" s="519"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8046,10 +8052,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="488" t="s">
+      <c r="L75" s="516" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="489"/>
+      <c r="M75" s="517"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8067,14 +8073,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="511" t="s">
+      <c r="S75" s="515" t="s">
         <v>159</v>
       </c>
-      <c r="T75" s="511"/>
-      <c r="U75" s="511"/>
-      <c r="V75" s="511"/>
-      <c r="W75" s="511"/>
-      <c r="X75" s="511"/>
+      <c r="T75" s="515"/>
+      <c r="U75" s="515"/>
+      <c r="V75" s="515"/>
+      <c r="W75" s="515"/>
+      <c r="X75" s="515"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8151,22 +8157,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="481" t="s">
+      <c r="N78" s="485" t="s">
         <v>106</v>
       </c>
-      <c r="O78" s="482"/>
-      <c r="P78" s="482"/>
-      <c r="Q78" s="482"/>
-      <c r="R78" s="482"/>
-      <c r="S78" s="483"/>
-      <c r="T78" s="481" t="s">
+      <c r="O78" s="486"/>
+      <c r="P78" s="486"/>
+      <c r="Q78" s="486"/>
+      <c r="R78" s="486"/>
+      <c r="S78" s="487"/>
+      <c r="T78" s="485" t="s">
         <v>142</v>
       </c>
-      <c r="U78" s="482"/>
-      <c r="V78" s="482"/>
-      <c r="W78" s="482"/>
-      <c r="X78" s="482"/>
-      <c r="Y78" s="483"/>
+      <c r="U78" s="486"/>
+      <c r="V78" s="486"/>
+      <c r="W78" s="486"/>
+      <c r="X78" s="486"/>
+      <c r="Y78" s="487"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8186,32 +8192,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="507" t="s">
+      <c r="N79" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="O79" s="508"/>
-      <c r="P79" s="481" t="s">
+      <c r="O79" s="489"/>
+      <c r="P79" s="485" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="482"/>
-      <c r="R79" s="505" t="s">
+      <c r="Q79" s="486"/>
+      <c r="R79" s="482" t="s">
         <v>139</v>
       </c>
-      <c r="S79" s="505" t="s">
+      <c r="S79" s="482" t="s">
         <v>140</v>
       </c>
-      <c r="T79" s="507" t="s">
+      <c r="T79" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="U79" s="508"/>
-      <c r="V79" s="481" t="s">
+      <c r="U79" s="489"/>
+      <c r="V79" s="485" t="s">
         <v>123</v>
       </c>
-      <c r="W79" s="482"/>
-      <c r="X79" s="505" t="s">
+      <c r="W79" s="486"/>
+      <c r="X79" s="482" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="505" t="s">
+      <c r="Y79" s="482" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8245,8 +8251,8 @@
       <c r="Q80" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="R80" s="506"/>
-      <c r="S80" s="506"/>
+      <c r="R80" s="512"/>
+      <c r="S80" s="512"/>
       <c r="T80" s="123" t="s">
         <v>112</v>
       </c>
@@ -8259,8 +8265,8 @@
       <c r="W80" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="X80" s="512"/>
-      <c r="Y80" s="512"/>
+      <c r="X80" s="483"/>
+      <c r="Y80" s="483"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8294,10 +8300,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="498" t="s">
+      <c r="L81" s="505" t="s">
         <v>166</v>
       </c>
-      <c r="M81" s="499"/>
+      <c r="M81" s="506"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8337,24 +8343,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="498"/>
-      <c r="M82" s="499"/>
-      <c r="N82" s="502" t="s">
+      <c r="L82" s="505"/>
+      <c r="M82" s="506"/>
+      <c r="N82" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="O82" s="503"/>
-      <c r="P82" s="503"/>
-      <c r="Q82" s="503"/>
-      <c r="R82" s="503"/>
-      <c r="S82" s="504"/>
-      <c r="T82" s="491" t="s">
+      <c r="O82" s="510"/>
+      <c r="P82" s="510"/>
+      <c r="Q82" s="510"/>
+      <c r="R82" s="510"/>
+      <c r="S82" s="511"/>
+      <c r="T82" s="484" t="s">
         <v>141</v>
       </c>
-      <c r="U82" s="491"/>
-      <c r="V82" s="491"/>
-      <c r="W82" s="491"/>
-      <c r="X82" s="491"/>
-      <c r="Y82" s="491"/>
+      <c r="U82" s="484"/>
+      <c r="V82" s="484"/>
+      <c r="W82" s="484"/>
+      <c r="X82" s="484"/>
+      <c r="Y82" s="484"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8844,7 +8850,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="497" t="s">
+      <c r="L97" s="504" t="s">
         <v>111</v>
       </c>
       <c r="M97" s="8"/>
@@ -8877,7 +8883,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="497"/>
+      <c r="L98" s="504"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8910,7 +8916,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="497"/>
+      <c r="L99" s="504"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>184</v>
@@ -8952,7 +8958,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="497"/>
+      <c r="L100" s="504"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>188</v>
@@ -9067,11 +9073,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="484" t="s">
+      <c r="L103" s="503" t="s">
         <v>110</v>
       </c>
-      <c r="M103" s="484"/>
-      <c r="N103" s="484"/>
+      <c r="M103" s="503"/>
+      <c r="N103" s="503"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9100,9 +9106,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="484"/>
-      <c r="M104" s="484"/>
-      <c r="N104" s="484"/>
+      <c r="L104" s="503"/>
+      <c r="M104" s="503"/>
+      <c r="N104" s="503"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9131,9 +9137,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="484"/>
-      <c r="M105" s="484"/>
-      <c r="N105" s="484"/>
+      <c r="L105" s="503"/>
+      <c r="M105" s="503"/>
+      <c r="N105" s="503"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9162,9 +9168,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="484"/>
-      <c r="M106" s="484"/>
-      <c r="N106" s="484"/>
+      <c r="L106" s="503"/>
+      <c r="M106" s="503"/>
+      <c r="N106" s="503"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9193,9 +9199,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="484"/>
-      <c r="M107" s="484"/>
-      <c r="N107" s="484"/>
+      <c r="L107" s="503"/>
+      <c r="M107" s="503"/>
+      <c r="N107" s="503"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9224,9 +9230,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="484"/>
-      <c r="M108" s="484"/>
-      <c r="N108" s="484"/>
+      <c r="L108" s="503"/>
+      <c r="M108" s="503"/>
+      <c r="N108" s="503"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9255,9 +9261,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="484"/>
-      <c r="M109" s="484"/>
-      <c r="N109" s="484"/>
+      <c r="L109" s="503"/>
+      <c r="M109" s="503"/>
+      <c r="N109" s="503"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9286,9 +9292,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="484"/>
-      <c r="M110" s="484"/>
-      <c r="N110" s="484"/>
+      <c r="L110" s="503"/>
+      <c r="M110" s="503"/>
+      <c r="N110" s="503"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9368,36 +9374,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9414,6 +9390,36 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9426,13 +9432,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9462,16 +9468,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="459" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="459" t="s">
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="460" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="459"/>
+      <c r="K1" s="460"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9482,14 +9488,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="460" t="s">
+      <c r="F2" s="461" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460" t="s">
+      <c r="G2" s="461"/>
+      <c r="H2" s="461" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="460"/>
+      <c r="I2" s="461"/>
       <c r="J2" s="337"/>
       <c r="K2" s="337"/>
       <c r="L2" s="9"/>
@@ -12591,18 +12597,37 @@
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="8"/>
+      <c r="B126" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="288">
+        <v>568</v>
+      </c>
+      <c r="G126" s="288">
+        <v>144</v>
+      </c>
+      <c r="H126" s="288">
+        <v>320</v>
+      </c>
+      <c r="I126" s="288">
+        <v>849</v>
+      </c>
+      <c r="J126" s="288">
+        <v>577</v>
+      </c>
+      <c r="K126" s="288">
+        <v>450</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8" t="s">
@@ -12612,7 +12637,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
@@ -12622,15 +12647,17 @@
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="D129" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -12638,7 +12665,7 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -12646,7 +12673,7 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -12654,7 +12681,7 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -12662,23 +12689,23 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="90"/>
-      <c r="D135" s="90"/>
-      <c r="E135" s="90"/>
+      <c r="B135" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
     </row>
     <row r="136" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C136" s="90"/>
       <c r="D136" s="90"/>
@@ -12686,49 +12713,47 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C137" s="90"/>
       <c r="D137" s="90"/>
       <c r="E137" s="90"/>
-      <c r="F137" s="520">
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="458">
         <f>Cons!C10</f>
         <v>10856.43761441065</v>
       </c>
-      <c r="G137" s="520">
+      <c r="G138" s="458">
         <f>Cons!D10</f>
         <v>8944.8348692712316</v>
       </c>
-      <c r="H137" s="520">
+      <c r="H138" s="458">
         <f>Cons!E10</f>
         <v>4639.9591336259618</v>
       </c>
-      <c r="I137" s="520">
+      <c r="I138" s="458">
         <f>Cons!F10</f>
         <v>10465.431689676247</v>
       </c>
-      <c r="J137" s="520">
+      <c r="J138" s="458">
         <f>Cons!G10</f>
         <v>9013.3949423579033</v>
       </c>
-      <c r="K137" s="520">
+      <c r="K138" s="458">
         <f>Cons!H10</f>
         <v>4882.7445115986047</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C138" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="90"/>
-      <c r="E138" s="90"/>
-    </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C139" s="90" t="s">
         <v>18</v>
@@ -12738,17 +12763,17 @@
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C140" s="90" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C141" s="90" t="s">
         <v>51</v>
@@ -12757,10 +12782,10 @@
       <c r="E141" s="90"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>148</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B142" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="90" t="s">
         <v>51</v>
       </c>
       <c r="D142" s="90"/>
@@ -12768,7 +12793,7 @@
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
         <v>51</v>
@@ -12777,15 +12802,13 @@
       <c r="E143" s="90"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" s="90"/>
       <c r="E144" s="90"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
@@ -12796,7 +12819,7 @@
         <v>18</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E145" s="90"/>
     </row>
@@ -12808,7 +12831,7 @@
         <v>18</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E146" s="90"/>
     </row>
@@ -12820,7 +12843,7 @@
         <v>18</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E147" s="90"/>
     </row>
@@ -12829,10 +12852,10 @@
         <v>93</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E148" s="90"/>
     </row>
@@ -12844,9 +12867,9 @@
         <v>51</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E149" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="E149" s="90"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="101" t="s">
@@ -12856,7 +12879,7 @@
         <v>51</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E150" s="8"/>
     </row>
@@ -12868,9 +12891,21 @@
         <v>51</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E151" s="8"/>
+      <c r="E152" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12919,16 +12954,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="459" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="459" t="s">
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="460" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="459"/>
+      <c r="K1" s="460"/>
       <c r="L1" s="157" t="s">
         <v>158</v>
       </c>
@@ -12942,26 +12977,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="460" t="s">
+      <c r="F2" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460" t="s">
+      <c r="G2" s="461"/>
+      <c r="H2" s="461" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="460"/>
+      <c r="I2" s="461"/>
       <c r="J2" s="9" t="s">
         <v>95</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="461" t="s">
+      <c r="M2" s="462" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="461"/>
-      <c r="O2" s="461"/>
-      <c r="P2" s="461"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="462"/>
+      <c r="P2" s="462"/>
       <c r="Q2" t="s">
         <v>146</v>
       </c>
@@ -17796,48 +17831,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="462" t="s">
+      <c r="B21" s="463" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="463"/>
-      <c r="D21" s="463"/>
-      <c r="E21" s="463"/>
-      <c r="F21" s="464"/>
-      <c r="G21" s="462" t="s">
+      <c r="C21" s="464"/>
+      <c r="D21" s="464"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="465"/>
+      <c r="G21" s="463" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="463"/>
-      <c r="I21" s="463"/>
-      <c r="J21" s="463"/>
-      <c r="K21" s="464"/>
-      <c r="L21" s="462" t="s">
+      <c r="H21" s="464"/>
+      <c r="I21" s="464"/>
+      <c r="J21" s="464"/>
+      <c r="K21" s="465"/>
+      <c r="L21" s="463" t="s">
         <v>116</v>
       </c>
-      <c r="M21" s="463"/>
-      <c r="N21" s="463"/>
-      <c r="O21" s="463"/>
-      <c r="P21" s="464"/>
-      <c r="Q21" s="462" t="s">
+      <c r="M21" s="464"/>
+      <c r="N21" s="464"/>
+      <c r="O21" s="464"/>
+      <c r="P21" s="465"/>
+      <c r="Q21" s="463" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="463"/>
-      <c r="S21" s="463"/>
-      <c r="T21" s="463"/>
-      <c r="U21" s="464"/>
-      <c r="V21" s="462" t="s">
+      <c r="R21" s="464"/>
+      <c r="S21" s="464"/>
+      <c r="T21" s="464"/>
+      <c r="U21" s="465"/>
+      <c r="V21" s="463" t="s">
         <v>118</v>
       </c>
-      <c r="W21" s="463"/>
-      <c r="X21" s="463"/>
-      <c r="Y21" s="463"/>
-      <c r="Z21" s="464"/>
-      <c r="AA21" s="462" t="s">
+      <c r="W21" s="464"/>
+      <c r="X21" s="464"/>
+      <c r="Y21" s="464"/>
+      <c r="Z21" s="465"/>
+      <c r="AA21" s="463" t="s">
         <v>119</v>
       </c>
-      <c r="AB21" s="463"/>
-      <c r="AC21" s="463"/>
-      <c r="AD21" s="463"/>
-      <c r="AE21" s="464"/>
+      <c r="AB21" s="464"/>
+      <c r="AC21" s="464"/>
+      <c r="AD21" s="464"/>
+      <c r="AE21" s="465"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -18906,48 +18941,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="462" t="s">
+      <c r="B9" s="463" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="463"/>
-      <c r="D9" s="463"/>
-      <c r="E9" s="463"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="462" t="s">
+      <c r="C9" s="464"/>
+      <c r="D9" s="464"/>
+      <c r="E9" s="464"/>
+      <c r="F9" s="465"/>
+      <c r="G9" s="463" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="463"/>
-      <c r="I9" s="463"/>
-      <c r="J9" s="463"/>
-      <c r="K9" s="464"/>
-      <c r="L9" s="462" t="s">
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="464"/>
+      <c r="K9" s="465"/>
+      <c r="L9" s="463" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="463"/>
-      <c r="N9" s="463"/>
-      <c r="O9" s="463"/>
-      <c r="P9" s="464"/>
-      <c r="Q9" s="462" t="s">
+      <c r="M9" s="464"/>
+      <c r="N9" s="464"/>
+      <c r="O9" s="464"/>
+      <c r="P9" s="465"/>
+      <c r="Q9" s="463" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="463"/>
-      <c r="S9" s="463"/>
-      <c r="T9" s="463"/>
-      <c r="U9" s="464"/>
-      <c r="V9" s="462" t="s">
+      <c r="R9" s="464"/>
+      <c r="S9" s="464"/>
+      <c r="T9" s="464"/>
+      <c r="U9" s="465"/>
+      <c r="V9" s="463" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="463"/>
-      <c r="X9" s="463"/>
-      <c r="Y9" s="463"/>
-      <c r="Z9" s="464"/>
-      <c r="AA9" s="462" t="s">
+      <c r="W9" s="464"/>
+      <c r="X9" s="464"/>
+      <c r="Y9" s="464"/>
+      <c r="Z9" s="465"/>
+      <c r="AA9" s="463" t="s">
         <v>119</v>
       </c>
-      <c r="AB9" s="463"/>
-      <c r="AC9" s="463"/>
-      <c r="AD9" s="463"/>
-      <c r="AE9" s="464"/>
+      <c r="AB9" s="464"/>
+      <c r="AC9" s="464"/>
+      <c r="AD9" s="464"/>
+      <c r="AE9" s="465"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -19103,21 +19138,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="465" t="s">
+      <c r="B2" s="466" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="465"/>
-      <c r="D2" s="465"/>
-      <c r="E2" s="465"/>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="465"/>
-      <c r="I2" s="465"/>
-      <c r="J2" s="465"/>
-      <c r="K2" s="465"/>
+      <c r="C2" s="466"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="466"/>
+      <c r="F2" s="466"/>
+      <c r="G2" s="466"/>
+      <c r="H2" s="466"/>
+      <c r="I2" s="466"/>
+      <c r="J2" s="466"/>
+      <c r="K2" s="466"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="465">
+      <c r="A3" s="466">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -19134,7 +19169,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="465"/>
+      <c r="A4" s="466"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -19149,7 +19184,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="465">
+      <c r="A5" s="466">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -19166,7 +19201,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="465"/>
+      <c r="A6" s="466"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -19181,168 +19216,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="465">
+      <c r="A9" s="466">
         <v>1</v>
       </c>
-      <c r="B9" s="466" t="s">
+      <c r="B9" s="467" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="467"/>
-      <c r="D9" s="467"/>
-      <c r="E9" s="467"/>
-      <c r="F9" s="467"/>
-      <c r="G9" s="467"/>
-      <c r="H9" s="467"/>
-      <c r="I9" s="467"/>
-      <c r="J9" s="467"/>
-      <c r="K9" s="467"/>
+      <c r="C9" s="468"/>
+      <c r="D9" s="468"/>
+      <c r="E9" s="468"/>
+      <c r="F9" s="468"/>
+      <c r="G9" s="468"/>
+      <c r="H9" s="468"/>
+      <c r="I9" s="468"/>
+      <c r="J9" s="468"/>
+      <c r="K9" s="468"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="465"/>
-      <c r="B10" s="467"/>
-      <c r="C10" s="467"/>
-      <c r="D10" s="467"/>
-      <c r="E10" s="467"/>
-      <c r="F10" s="467"/>
-      <c r="G10" s="467"/>
-      <c r="H10" s="467"/>
-      <c r="I10" s="467"/>
-      <c r="J10" s="467"/>
-      <c r="K10" s="467"/>
+      <c r="A10" s="466"/>
+      <c r="B10" s="468"/>
+      <c r="C10" s="468"/>
+      <c r="D10" s="468"/>
+      <c r="E10" s="468"/>
+      <c r="F10" s="468"/>
+      <c r="G10" s="468"/>
+      <c r="H10" s="468"/>
+      <c r="I10" s="468"/>
+      <c r="J10" s="468"/>
+      <c r="K10" s="468"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="465"/>
-      <c r="B11" s="467"/>
-      <c r="C11" s="467"/>
-      <c r="D11" s="467"/>
-      <c r="E11" s="467"/>
-      <c r="F11" s="467"/>
-      <c r="G11" s="467"/>
-      <c r="H11" s="467"/>
-      <c r="I11" s="467"/>
-      <c r="J11" s="467"/>
-      <c r="K11" s="467"/>
+      <c r="A11" s="466"/>
+      <c r="B11" s="468"/>
+      <c r="C11" s="468"/>
+      <c r="D11" s="468"/>
+      <c r="E11" s="468"/>
+      <c r="F11" s="468"/>
+      <c r="G11" s="468"/>
+      <c r="H11" s="468"/>
+      <c r="I11" s="468"/>
+      <c r="J11" s="468"/>
+      <c r="K11" s="468"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="465"/>
-      <c r="B12" s="467"/>
-      <c r="C12" s="467"/>
-      <c r="D12" s="467"/>
-      <c r="E12" s="467"/>
-      <c r="F12" s="467"/>
-      <c r="G12" s="467"/>
-      <c r="H12" s="467"/>
-      <c r="I12" s="467"/>
-      <c r="J12" s="467"/>
-      <c r="K12" s="467"/>
+      <c r="A12" s="466"/>
+      <c r="B12" s="468"/>
+      <c r="C12" s="468"/>
+      <c r="D12" s="468"/>
+      <c r="E12" s="468"/>
+      <c r="F12" s="468"/>
+      <c r="G12" s="468"/>
+      <c r="H12" s="468"/>
+      <c r="I12" s="468"/>
+      <c r="J12" s="468"/>
+      <c r="K12" s="468"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="465"/>
-      <c r="B13" s="467"/>
-      <c r="C13" s="467"/>
-      <c r="D13" s="467"/>
-      <c r="E13" s="467"/>
-      <c r="F13" s="467"/>
-      <c r="G13" s="467"/>
-      <c r="H13" s="467"/>
-      <c r="I13" s="467"/>
-      <c r="J13" s="467"/>
-      <c r="K13" s="467"/>
+      <c r="A13" s="466"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="468"/>
+      <c r="D13" s="468"/>
+      <c r="E13" s="468"/>
+      <c r="F13" s="468"/>
+      <c r="G13" s="468"/>
+      <c r="H13" s="468"/>
+      <c r="I13" s="468"/>
+      <c r="J13" s="468"/>
+      <c r="K13" s="468"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="465"/>
-      <c r="B14" s="467"/>
-      <c r="C14" s="467"/>
-      <c r="D14" s="467"/>
-      <c r="E14" s="467"/>
-      <c r="F14" s="467"/>
-      <c r="G14" s="467"/>
-      <c r="H14" s="467"/>
-      <c r="I14" s="467"/>
-      <c r="J14" s="467"/>
-      <c r="K14" s="467"/>
+      <c r="A14" s="466"/>
+      <c r="B14" s="468"/>
+      <c r="C14" s="468"/>
+      <c r="D14" s="468"/>
+      <c r="E14" s="468"/>
+      <c r="F14" s="468"/>
+      <c r="G14" s="468"/>
+      <c r="H14" s="468"/>
+      <c r="I14" s="468"/>
+      <c r="J14" s="468"/>
+      <c r="K14" s="468"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="465">
+      <c r="A15" s="466">
         <v>2</v>
       </c>
-      <c r="B15" s="466" t="s">
+      <c r="B15" s="467" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="467"/>
-      <c r="D15" s="467"/>
-      <c r="E15" s="467"/>
-      <c r="F15" s="467"/>
-      <c r="G15" s="467"/>
-      <c r="H15" s="467"/>
-      <c r="I15" s="467"/>
-      <c r="J15" s="467"/>
-      <c r="K15" s="467"/>
+      <c r="C15" s="468"/>
+      <c r="D15" s="468"/>
+      <c r="E15" s="468"/>
+      <c r="F15" s="468"/>
+      <c r="G15" s="468"/>
+      <c r="H15" s="468"/>
+      <c r="I15" s="468"/>
+      <c r="J15" s="468"/>
+      <c r="K15" s="468"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="465"/>
-      <c r="B16" s="467"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="467"/>
-      <c r="E16" s="467"/>
-      <c r="F16" s="467"/>
-      <c r="G16" s="467"/>
-      <c r="H16" s="467"/>
-      <c r="I16" s="467"/>
-      <c r="J16" s="467"/>
-      <c r="K16" s="467"/>
+      <c r="A16" s="466"/>
+      <c r="B16" s="468"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="468"/>
+      <c r="E16" s="468"/>
+      <c r="F16" s="468"/>
+      <c r="G16" s="468"/>
+      <c r="H16" s="468"/>
+      <c r="I16" s="468"/>
+      <c r="J16" s="468"/>
+      <c r="K16" s="468"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="465"/>
-      <c r="B17" s="467"/>
-      <c r="C17" s="467"/>
-      <c r="D17" s="467"/>
-      <c r="E17" s="467"/>
-      <c r="F17" s="467"/>
-      <c r="G17" s="467"/>
-      <c r="H17" s="467"/>
-      <c r="I17" s="467"/>
-      <c r="J17" s="467"/>
-      <c r="K17" s="467"/>
+      <c r="A17" s="466"/>
+      <c r="B17" s="468"/>
+      <c r="C17" s="468"/>
+      <c r="D17" s="468"/>
+      <c r="E17" s="468"/>
+      <c r="F17" s="468"/>
+      <c r="G17" s="468"/>
+      <c r="H17" s="468"/>
+      <c r="I17" s="468"/>
+      <c r="J17" s="468"/>
+      <c r="K17" s="468"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="465"/>
-      <c r="B18" s="467"/>
-      <c r="C18" s="467"/>
-      <c r="D18" s="467"/>
-      <c r="E18" s="467"/>
-      <c r="F18" s="467"/>
-      <c r="G18" s="467"/>
-      <c r="H18" s="467"/>
-      <c r="I18" s="467"/>
-      <c r="J18" s="467"/>
-      <c r="K18" s="467"/>
+      <c r="A18" s="466"/>
+      <c r="B18" s="468"/>
+      <c r="C18" s="468"/>
+      <c r="D18" s="468"/>
+      <c r="E18" s="468"/>
+      <c r="F18" s="468"/>
+      <c r="G18" s="468"/>
+      <c r="H18" s="468"/>
+      <c r="I18" s="468"/>
+      <c r="J18" s="468"/>
+      <c r="K18" s="468"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="465"/>
-      <c r="B19" s="467"/>
-      <c r="C19" s="467"/>
-      <c r="D19" s="467"/>
-      <c r="E19" s="467"/>
-      <c r="F19" s="467"/>
-      <c r="G19" s="467"/>
-      <c r="H19" s="467"/>
-      <c r="I19" s="467"/>
-      <c r="J19" s="467"/>
-      <c r="K19" s="467"/>
+      <c r="A19" s="466"/>
+      <c r="B19" s="468"/>
+      <c r="C19" s="468"/>
+      <c r="D19" s="468"/>
+      <c r="E19" s="468"/>
+      <c r="F19" s="468"/>
+      <c r="G19" s="468"/>
+      <c r="H19" s="468"/>
+      <c r="I19" s="468"/>
+      <c r="J19" s="468"/>
+      <c r="K19" s="468"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="465"/>
-      <c r="B20" s="467"/>
-      <c r="C20" s="467"/>
-      <c r="D20" s="467"/>
-      <c r="E20" s="467"/>
-      <c r="F20" s="467"/>
-      <c r="G20" s="467"/>
-      <c r="H20" s="467"/>
-      <c r="I20" s="467"/>
-      <c r="J20" s="467"/>
-      <c r="K20" s="467"/>
+      <c r="A20" s="466"/>
+      <c r="B20" s="468"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="468"/>
+      <c r="E20" s="468"/>
+      <c r="F20" s="468"/>
+      <c r="G20" s="468"/>
+      <c r="H20" s="468"/>
+      <c r="I20" s="468"/>
+      <c r="J20" s="468"/>
+      <c r="K20" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="817" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="817" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <sheet name="Index_div" sheetId="15" r:id="rId14"/>
     <sheet name="Input_old" sheetId="2" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -125,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="282">
   <si>
     <t>Variable</t>
   </si>
@@ -1053,16 +1048,16 @@
     <t>HHNum</t>
   </si>
   <si>
-    <t>wrkagepop</t>
-  </si>
-  <si>
     <t>Just the raw number of 15-55 in those groups</t>
+  </si>
+  <si>
+    <t>eshar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1077,7 +1072,7 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,19 +1177,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,25 +1219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,19 +1249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,37 +1273,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.24994659260842"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407453"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,973 +1854,973 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="29" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="31" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="38" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="23" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="174" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="174" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2841,14 +2836,6 @@
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3172,21 +3159,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="6"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="true"/>
     <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -3200,7 +3187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
@@ -3208,7 +3195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3222,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -3236,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -3250,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -3264,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -3278,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -3301,27 +3288,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="true"/>
+    <col min="2" max="2" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="7" width="8.28515625" customWidth="true"/>
+    <col min="8" max="8" width="11.28515625" customWidth="true"/>
+    <col min="9" max="9" width="8.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.85546875" customWidth="true"/>
+    <col min="12" max="12" width="8.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3341,7 +3328,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="469" t="s">
         <v>122</v>
@@ -3372,7 +3359,7 @@
       <c r="T9" s="470"/>
       <c r="U9" s="471"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" s="59" customFormat="true" ht="15.75" thickBot="true">
       <c r="A11" s="53" t="s">
         <v>97</v>
       </c>
@@ -3502,7 +3489,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.75" thickBot="true">
       <c r="A12" s="203"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -3525,7 +3512,7 @@
       <c r="T12" s="206"/>
       <c r="U12" s="207"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -3540,19 +3527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3572,7 +3559,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="469" t="s">
         <v>122</v>
@@ -3603,7 +3590,7 @@
       <c r="T9" s="470"/>
       <c r="U9" s="471"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.75" thickBot="true">
       <c r="A11" s="21" t="s">
         <v>98</v>
       </c>
@@ -3693,7 +3680,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.75" thickBot="true">
       <c r="A12" s="209"/>
       <c r="B12" s="18"/>
       <c r="C12" s="15"/>
@@ -3729,28 +3716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="466" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="466"/>
       <c r="C3" s="466"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3758,28 +3745,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="466" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="466"/>
       <c r="C9" s="466"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3787,21 +3774,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3810,7 +3797,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
         <v>60</v>
@@ -3819,7 +3806,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="466" t="s">
         <v>128</v>
       </c>
@@ -3839,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -3854,7 +3841,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3868,7 +3855,7 @@
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3882,7 +3869,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3891,14 +3878,14 @@
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="466" t="s">
         <v>129</v>
       </c>
@@ -3912,7 +3899,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -3933,7 +3920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3947,7 +3934,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3961,7 +3948,7 @@
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
@@ -3970,7 +3957,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
@@ -3979,7 +3966,7 @@
       <c r="J26" s="230"/>
       <c r="K26" s="230"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="B27" s="466"/>
       <c r="C27" s="466"/>
       <c r="G27" s="7"/>
@@ -3988,14 +3975,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="15.75" thickBot="true">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="F29" s="478" t="s">
         <v>56</v>
       </c>
@@ -4007,7 +3994,7 @@
       <c r="J29" s="61"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="F30" s="479"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
@@ -4017,7 +4004,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="F31" s="479" t="s">
         <v>57</v>
       </c>
@@ -4029,7 +4016,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="15.75" thickBot="true">
       <c r="F32" s="480"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
@@ -4039,7 +4026,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="B33" s="466"/>
       <c r="C33" s="466"/>
       <c r="G33" s="7"/>
@@ -4048,14 +4035,14 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.75" thickBot="true">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -4065,7 +4052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" s="472" t="s">
         <v>130</v>
       </c>
@@ -4093,7 +4080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" s="473"/>
       <c r="G37" s="476"/>
       <c r="H37" s="24" t="e">
@@ -4117,7 +4104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" s="473"/>
       <c r="G38" s="476"/>
       <c r="H38" s="24" t="e">
@@ -4141,7 +4128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" s="473"/>
       <c r="G39" s="476"/>
       <c r="H39" s="24" t="e">
@@ -4165,7 +4152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="F40" s="473"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
@@ -4174,7 +4161,7 @@
       <c r="K40" s="65"/>
       <c r="M40" s="109"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="F41" s="473"/>
       <c r="G41" s="476" t="s">
         <v>131</v>
@@ -4200,7 +4187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="F42" s="473"/>
       <c r="G42" s="476"/>
       <c r="H42" s="24" t="e">
@@ -4224,7 +4211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="F43" s="473"/>
       <c r="G43" s="476"/>
       <c r="H43" s="24" t="e">
@@ -4248,7 +4235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="15.75" thickBot="true">
       <c r="F44" s="474"/>
       <c r="G44" s="477"/>
       <c r="H44" s="64" t="e">
@@ -4272,7 +4259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75" thickBot="true">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -4280,7 +4267,7 @@
       <c r="K45" s="7"/>
       <c r="M45" s="109"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="F46" s="472" t="s">
         <v>132</v>
       </c>
@@ -4308,7 +4295,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="F47" s="473"/>
       <c r="G47" s="476"/>
       <c r="H47" s="24" t="e">
@@ -4332,7 +4319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="F48" s="473"/>
       <c r="G48" s="476"/>
       <c r="H48" s="24" t="e">
@@ -4356,7 +4343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="F49" s="473"/>
       <c r="G49" s="476"/>
       <c r="H49" s="24" t="e">
@@ -4380,7 +4367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="F50" s="473"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -4389,7 +4376,7 @@
       <c r="K50" s="65"/>
       <c r="M50" s="109"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="F51" s="473"/>
       <c r="G51" s="476" t="s">
         <v>131</v>
@@ -4415,7 +4402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="F52" s="473"/>
       <c r="G52" s="476"/>
       <c r="H52" s="24" t="e">
@@ -4439,7 +4426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="F53" s="473"/>
       <c r="G53" s="476"/>
       <c r="H53" s="24" t="e">
@@ -4463,7 +4450,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.75" thickBot="true">
       <c r="F54" s="474"/>
       <c r="G54" s="477"/>
       <c r="H54" s="64" t="e">
@@ -4487,14 +4474,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="G56" s="30" t="s">
         <v>94</v>
       </c>
@@ -4519,7 +4506,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="G57" s="30"/>
       <c r="H57" s="30" t="e">
         <f t="shared" ref="H57:K59" si="5">H17/H$33</f>
@@ -4542,7 +4529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="e">
         <f t="shared" si="5"/>
@@ -4565,7 +4552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="G59" s="30"/>
       <c r="H59" s="30" t="e">
         <f t="shared" si="5"/>
@@ -4588,14 +4575,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="G61" s="30"/>
       <c r="H61" s="30" t="e">
         <f>H23/H$34</f>
@@ -4618,7 +4605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="G62" s="30"/>
       <c r="H62" s="30" t="e">
         <f t="shared" ref="H62:K64" si="7">H24/H$34</f>
@@ -4641,7 +4628,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="e">
         <f t="shared" si="7"/>
@@ -4664,7 +4651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="e">
         <f t="shared" si="7"/>
@@ -4689,12 +4676,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4703,31 +4684,37 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
+    <col min="3" max="3" width="18.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -4735,24 +4722,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -4760,13 +4747,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -4778,21 +4765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="true"/>
+    <col min="4" max="4" width="11.28515625" customWidth="true"/>
+    <col min="5" max="5" width="12" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4807,7 +4794,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4818,7 +4805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4833,7 +4820,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4848,7 +4835,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4863,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4878,7 +4865,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4893,7 +4880,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -4916,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4926,18 +4913,18 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="6" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="11" width="17.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" customWidth="1"/>
-    <col min="15" max="23" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="true"/>
+    <col min="6" max="9" width="17.42578125" customWidth="true"/>
+    <col min="10" max="11" width="17.42578125" style="5" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="true"/>
+    <col min="14" max="14" width="47.28515625" customWidth="true"/>
+    <col min="15" max="23" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -4963,20 +4950,20 @@
       <c r="K1" s="460"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="490" t="s">
+      <c r="N1" s="494" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="491"/>
-      <c r="P1" s="491"/>
-      <c r="Q1" s="491"/>
-      <c r="R1" s="491"/>
-      <c r="S1" s="492"/>
+      <c r="O1" s="495"/>
+      <c r="P1" s="495"/>
+      <c r="Q1" s="495"/>
+      <c r="R1" s="495"/>
+      <c r="S1" s="496"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4994,18 +4981,18 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="493" t="s">
+      <c r="N2" s="515" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="494"/>
-      <c r="P2" s="494" t="s">
+      <c r="O2" s="516"/>
+      <c r="P2" s="516" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="494"/>
-      <c r="R2" s="495" t="s">
+      <c r="Q2" s="516"/>
+      <c r="R2" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="497" t="s">
+      <c r="S2" s="519" t="s">
         <v>125</v>
       </c>
       <c r="T2" s="8"/>
@@ -5013,7 +5000,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75" thickBot="true">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5051,14 +5038,14 @@
       <c r="Q3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="496"/>
-      <c r="S3" s="498"/>
+      <c r="R3" s="518"/>
+      <c r="S3" s="520"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -5096,10 +5083,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="500" t="s">
+      <c r="L4" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="501"/>
+      <c r="M4" s="488"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input_old!F8</f>
         <v>0</v>
@@ -5129,7 +5116,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5167,8 +5154,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="500"/>
-      <c r="M5" s="501"/>
+      <c r="L5" s="487"/>
+      <c r="M5" s="488"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input_old!F9</f>
         <v>0</v>
@@ -5198,7 +5185,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5236,8 +5223,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="500"/>
-      <c r="M6" s="501"/>
+      <c r="L6" s="487"/>
+      <c r="M6" s="488"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input_old!F10</f>
         <v>0</v>
@@ -5267,7 +5254,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.75" thickBot="true">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -5305,8 +5292,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="500"/>
-      <c r="M7" s="501"/>
+      <c r="L7" s="487"/>
+      <c r="M7" s="488"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input_old!F11</f>
         <v>0</v>
@@ -5336,7 +5323,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
@@ -5369,7 +5356,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
@@ -5396,7 +5383,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
@@ -5423,7 +5410,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
@@ -5450,7 +5437,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
@@ -5477,7 +5464,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="91" t="s">
         <v>81</v>
       </c>
@@ -5510,7 +5497,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="91" t="s">
         <v>82</v>
       </c>
@@ -5543,7 +5530,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
@@ -5576,7 +5563,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
@@ -5607,7 +5594,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.75" thickBot="true">
       <c r="A17" s="8" t="s">
         <v>85</v>
       </c>
@@ -5638,7 +5625,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15.75" thickBot="true">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -5669,7 +5656,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.75" thickBot="true">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -5695,14 +5682,14 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="485" t="s">
+      <c r="T19" s="482" t="s">
         <v>108</v>
       </c>
-      <c r="U19" s="486"/>
-      <c r="V19" s="486"/>
-      <c r="W19" s="487"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="483"/>
+      <c r="V19" s="483"/>
+      <c r="W19" s="484"/>
+    </row>
+    <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -5755,7 +5742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15" customHeight="true">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -5791,10 +5778,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="500" t="s">
+      <c r="L21" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="501"/>
+      <c r="M21" s="488"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5811,10 +5798,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="503" t="s">
+      <c r="R21" s="485" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="499"/>
+      <c r="S21" s="486"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5832,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -5868,8 +5855,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="500"/>
-      <c r="M22" s="501"/>
+      <c r="L22" s="487"/>
+      <c r="M22" s="488"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5886,8 +5873,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="503"/>
-      <c r="S22" s="499"/>
+      <c r="R22" s="485"/>
+      <c r="S22" s="486"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5905,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
@@ -5941,8 +5928,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="500"/>
-      <c r="M23" s="501"/>
+      <c r="L23" s="487"/>
+      <c r="M23" s="488"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5959,8 +5946,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="503"/>
-      <c r="S23" s="499"/>
+      <c r="R23" s="485"/>
+      <c r="S23" s="486"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5978,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.75" thickBot="true">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
@@ -6014,8 +6001,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="500"/>
-      <c r="M24" s="501"/>
+      <c r="L24" s="487"/>
+      <c r="M24" s="488"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6032,8 +6019,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="503"/>
-      <c r="S24" s="499"/>
+      <c r="R24" s="485"/>
+      <c r="S24" s="486"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6051,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -6087,10 +6074,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="501" t="s">
+      <c r="L25" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="M25" s="501"/>
+      <c r="M25" s="488"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6107,16 +6094,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="503" t="s">
+      <c r="R25" s="485" t="s">
         <v>109</v>
       </c>
-      <c r="S25" s="518"/>
+      <c r="S25" s="491"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
       <c r="W25" s="192"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -6152,8 +6139,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="501"/>
-      <c r="M26" s="501"/>
+      <c r="L26" s="488"/>
+      <c r="M26" s="488"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6170,14 +6157,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="518"/>
-      <c r="S26" s="518"/>
+      <c r="R26" s="491"/>
+      <c r="S26" s="491"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
       <c r="W26" s="194"/>
     </row>
-    <row r="27" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>9</v>
@@ -6213,8 +6200,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="501"/>
-      <c r="M27" s="501"/>
+      <c r="L27" s="488"/>
+      <c r="M27" s="488"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6231,14 +6218,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="518"/>
-      <c r="S27" s="518"/>
+      <c r="R27" s="491"/>
+      <c r="S27" s="491"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
       <c r="W27" s="197"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -6256,8 +6243,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="501"/>
-      <c r="M28" s="501"/>
+      <c r="L28" s="488"/>
+      <c r="M28" s="488"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6269,7 +6256,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -6300,7 +6287,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" s="8" customFormat="true">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -6317,7 +6304,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -6342,7 +6329,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -6367,7 +6354,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" s="8" customFormat="true">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
@@ -6384,7 +6371,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -6407,7 +6394,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -6430,7 +6417,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="15.75" thickBot="true">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>14</v>
@@ -6453,7 +6440,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75" thickBot="true">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -6477,14 +6464,14 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="485" t="s">
+      <c r="T37" s="482" t="s">
         <v>138</v>
       </c>
-      <c r="U37" s="486"/>
-      <c r="V37" s="486"/>
-      <c r="W37" s="487"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="483"/>
+      <c r="V37" s="483"/>
+      <c r="W37" s="484"/>
+    </row>
+    <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -6537,7 +6524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -6573,10 +6560,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="500" t="s">
+      <c r="L39" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="501"/>
+      <c r="M39" s="488"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6593,10 +6580,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="499" t="s">
+      <c r="R39" s="486" t="s">
         <v>109</v>
       </c>
-      <c r="S39" s="499"/>
+      <c r="S39" s="486"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6614,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6650,8 +6637,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="500"/>
-      <c r="M40" s="501"/>
+      <c r="L40" s="487"/>
+      <c r="M40" s="488"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6668,8 +6655,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="499"/>
-      <c r="S40" s="499"/>
+      <c r="R40" s="486"/>
+      <c r="S40" s="486"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6687,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6723,8 +6710,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="500"/>
-      <c r="M41" s="501"/>
+      <c r="L41" s="487"/>
+      <c r="M41" s="488"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6741,8 +6728,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="499"/>
-      <c r="S41" s="499"/>
+      <c r="R41" s="486"/>
+      <c r="S41" s="486"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6760,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.75" thickBot="true">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6796,8 +6783,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="500"/>
-      <c r="M42" s="501"/>
+      <c r="L42" s="487"/>
+      <c r="M42" s="488"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6814,8 +6801,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="499"/>
-      <c r="S42" s="499"/>
+      <c r="R42" s="486"/>
+      <c r="S42" s="486"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6833,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -6869,10 +6856,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="500" t="s">
+      <c r="L43" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="501"/>
+      <c r="M43" s="488"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6889,10 +6876,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="503" t="s">
+      <c r="R43" s="485" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="518"/>
+      <c r="S43" s="491"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input_old!G46</f>
         <v>0</v>
@@ -6910,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -6946,8 +6933,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="500"/>
-      <c r="M44" s="501"/>
+      <c r="L44" s="487"/>
+      <c r="M44" s="488"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6964,8 +6951,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="518"/>
-      <c r="S44" s="518"/>
+      <c r="R44" s="491"/>
+      <c r="S44" s="491"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input_old!G47</f>
         <v>0</v>
@@ -6983,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
@@ -7019,8 +7006,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="500"/>
-      <c r="M45" s="501"/>
+      <c r="L45" s="487"/>
+      <c r="M45" s="488"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -7037,8 +7024,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="518"/>
-      <c r="S45" s="518"/>
+      <c r="R45" s="491"/>
+      <c r="S45" s="491"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input_old!G48</f>
         <v>0</v>
@@ -7056,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -7074,8 +7061,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="500"/>
-      <c r="M46" s="502"/>
+      <c r="L46" s="487"/>
+      <c r="M46" s="514"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7087,7 +7074,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -7112,7 +7099,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" s="8" customFormat="true">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -7129,7 +7116,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -7154,7 +7141,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>11</v>
@@ -7179,7 +7166,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" s="8" customFormat="true">
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
@@ -7196,7 +7183,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -7219,7 +7206,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75" thickBot="true">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>13</v>
@@ -7242,7 +7229,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>14</v>
@@ -7260,20 +7247,20 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="490" t="s">
+      <c r="N54" s="494" t="s">
         <v>103</v>
       </c>
-      <c r="O54" s="491"/>
-      <c r="P54" s="491"/>
-      <c r="Q54" s="491"/>
-      <c r="R54" s="491"/>
-      <c r="S54" s="492"/>
+      <c r="O54" s="495"/>
+      <c r="P54" s="495"/>
+      <c r="Q54" s="495"/>
+      <c r="R54" s="495"/>
+      <c r="S54" s="496"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.75" thickBot="true">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>15</v>
@@ -7291,18 +7278,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="520" t="s">
+      <c r="N55" s="497" t="s">
         <v>122</v>
       </c>
-      <c r="O55" s="484"/>
-      <c r="P55" s="484" t="s">
+      <c r="O55" s="492"/>
+      <c r="P55" s="492" t="s">
         <v>123</v>
       </c>
-      <c r="Q55" s="484"/>
-      <c r="R55" s="507" t="s">
+      <c r="Q55" s="492"/>
+      <c r="R55" s="501" t="s">
         <v>124</v>
       </c>
-      <c r="S55" s="513" t="s">
+      <c r="S55" s="510" t="s">
         <v>125</v>
       </c>
       <c r="T55" s="8"/>
@@ -7310,7 +7297,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15" customHeight="true" thickBot="true">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -7348,14 +7335,14 @@
       <c r="Q56" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="R56" s="508"/>
-      <c r="S56" s="514"/>
+      <c r="R56" s="502"/>
+      <c r="S56" s="511"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>9</v>
@@ -7391,10 +7378,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="500" t="s">
+      <c r="L57" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="M57" s="501"/>
+      <c r="M57" s="488"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input_old!F61</f>
         <v>0</v>
@@ -7424,7 +7411,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>9</v>
@@ -7460,8 +7447,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="500"/>
-      <c r="M58" s="501"/>
+      <c r="L58" s="487"/>
+      <c r="M58" s="488"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input_old!F62</f>
         <v>0</v>
@@ -7491,7 +7478,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>9</v>
@@ -7527,8 +7514,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="500"/>
-      <c r="M59" s="501"/>
+      <c r="L59" s="487"/>
+      <c r="M59" s="488"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input_old!F63</f>
         <v>0</v>
@@ -7558,7 +7545,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>9</v>
@@ -7594,8 +7581,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="500"/>
-      <c r="M60" s="501"/>
+      <c r="L60" s="487"/>
+      <c r="M60" s="488"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input_old!F64</f>
         <v>0</v>
@@ -7625,7 +7612,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -7656,7 +7643,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -7681,7 +7668,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -7706,7 +7693,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" s="8" customFormat="true">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -7724,7 +7711,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -7749,7 +7736,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>11</v>
@@ -7780,7 +7767,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -7811,7 +7798,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" s="8" customFormat="true">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -7829,7 +7816,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -7858,7 +7845,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.75" thickBot="true">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>13</v>
@@ -7887,7 +7874,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>14</v>
@@ -7916,7 +7903,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.75" thickBot="true">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>15</v>
@@ -7934,15 +7921,15 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="484" t="s">
+      <c r="N72" s="492" t="s">
         <v>99</v>
       </c>
-      <c r="O72" s="484"/>
-      <c r="P72" s="484"/>
-      <c r="Q72" s="484"/>
+      <c r="O72" s="492"/>
+      <c r="P72" s="492"/>
+      <c r="Q72" s="492"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>16</v>
@@ -7968,17 +7955,17 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="519" t="s">
+      <c r="N73" s="493" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="519"/>
-      <c r="P73" s="519" t="s">
+      <c r="O73" s="493"/>
+      <c r="P73" s="493" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="519"/>
+      <c r="Q73" s="493"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -8018,7 +8005,7 @@
       </c>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="15" customHeight="true">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>34</v>
@@ -8052,10 +8039,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="516" t="s">
+      <c r="L75" s="489" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="517"/>
+      <c r="M75" s="490"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8073,16 +8060,16 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="515" t="s">
+      <c r="S75" s="512" t="s">
         <v>159</v>
       </c>
-      <c r="T75" s="515"/>
-      <c r="U75" s="515"/>
-      <c r="V75" s="515"/>
-      <c r="W75" s="515"/>
-      <c r="X75" s="515"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T75" s="512"/>
+      <c r="U75" s="512"/>
+      <c r="V75" s="512"/>
+      <c r="W75" s="512"/>
+      <c r="X75" s="512"/>
+    </row>
+    <row r="76">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>34</v>
@@ -8108,7 +8095,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="15.75" thickBot="true">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>34</v>
@@ -8139,7 +8126,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="15.75" thickBot="true">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
@@ -8157,24 +8144,24 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="485" t="s">
+      <c r="N78" s="482" t="s">
         <v>106</v>
       </c>
-      <c r="O78" s="486"/>
-      <c r="P78" s="486"/>
-      <c r="Q78" s="486"/>
-      <c r="R78" s="486"/>
-      <c r="S78" s="487"/>
-      <c r="T78" s="485" t="s">
+      <c r="O78" s="483"/>
+      <c r="P78" s="483"/>
+      <c r="Q78" s="483"/>
+      <c r="R78" s="483"/>
+      <c r="S78" s="484"/>
+      <c r="T78" s="482" t="s">
         <v>142</v>
       </c>
-      <c r="U78" s="486"/>
-      <c r="V78" s="486"/>
-      <c r="W78" s="486"/>
-      <c r="X78" s="486"/>
-      <c r="Y78" s="487"/>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U78" s="483"/>
+      <c r="V78" s="483"/>
+      <c r="W78" s="483"/>
+      <c r="X78" s="483"/>
+      <c r="Y78" s="484"/>
+    </row>
+    <row r="79" ht="15.75" thickBot="true">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -8192,36 +8179,36 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="488" t="s">
+      <c r="N79" s="508" t="s">
         <v>122</v>
       </c>
-      <c r="O79" s="489"/>
-      <c r="P79" s="485" t="s">
+      <c r="O79" s="509"/>
+      <c r="P79" s="482" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="486"/>
-      <c r="R79" s="482" t="s">
+      <c r="Q79" s="483"/>
+      <c r="R79" s="506" t="s">
         <v>139</v>
       </c>
-      <c r="S79" s="482" t="s">
+      <c r="S79" s="506" t="s">
         <v>140</v>
       </c>
-      <c r="T79" s="488" t="s">
+      <c r="T79" s="508" t="s">
         <v>122</v>
       </c>
-      <c r="U79" s="489"/>
-      <c r="V79" s="485" t="s">
+      <c r="U79" s="509"/>
+      <c r="V79" s="482" t="s">
         <v>123</v>
       </c>
-      <c r="W79" s="486"/>
-      <c r="X79" s="482" t="s">
+      <c r="W79" s="483"/>
+      <c r="X79" s="506" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="482" t="s">
+      <c r="Y79" s="506" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="15.75" thickBot="true">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>39</v>
@@ -8251,8 +8238,8 @@
       <c r="Q80" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="R80" s="512"/>
-      <c r="S80" s="512"/>
+      <c r="R80" s="507"/>
+      <c r="S80" s="507"/>
       <c r="T80" s="123" t="s">
         <v>112</v>
       </c>
@@ -8265,10 +8252,10 @@
       <c r="W80" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="X80" s="483"/>
-      <c r="Y80" s="483"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X80" s="513"/>
+      <c r="Y80" s="513"/>
+    </row>
+    <row r="81">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>40</v>
@@ -8300,10 +8287,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="505" t="s">
+      <c r="L81" s="499" t="s">
         <v>166</v>
       </c>
-      <c r="M81" s="506"/>
+      <c r="M81" s="500"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8317,7 +8304,7 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>41</v>
@@ -8343,26 +8330,26 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="505"/>
-      <c r="M82" s="506"/>
-      <c r="N82" s="509" t="s">
+      <c r="L82" s="499"/>
+      <c r="M82" s="500"/>
+      <c r="N82" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="O82" s="510"/>
-      <c r="P82" s="510"/>
-      <c r="Q82" s="510"/>
-      <c r="R82" s="510"/>
-      <c r="S82" s="511"/>
-      <c r="T82" s="484" t="s">
+      <c r="O82" s="504"/>
+      <c r="P82" s="504"/>
+      <c r="Q82" s="504"/>
+      <c r="R82" s="504"/>
+      <c r="S82" s="505"/>
+      <c r="T82" s="492" t="s">
         <v>141</v>
       </c>
-      <c r="U82" s="484"/>
-      <c r="V82" s="484"/>
-      <c r="W82" s="484"/>
-      <c r="X82" s="484"/>
-      <c r="Y82" s="484"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U82" s="492"/>
+      <c r="V82" s="492"/>
+      <c r="W82" s="492"/>
+      <c r="X82" s="492"/>
+      <c r="Y82" s="492"/>
+    </row>
+    <row r="83">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>42</v>
@@ -8388,7 +8375,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>43</v>
@@ -8417,7 +8404,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>44</v>
@@ -8444,7 +8431,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>45</v>
@@ -8473,7 +8460,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -8500,7 +8487,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>47</v>
@@ -8527,7 +8514,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>48</v>
@@ -8568,7 +8555,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>49</v>
@@ -8611,7 +8598,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>50</v>
@@ -8640,7 +8627,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>161</v>
@@ -8681,7 +8668,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="8"/>
       <c r="B93" s="90" t="s">
         <v>33</v>
@@ -8722,7 +8709,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="8"/>
       <c r="B94" s="90" t="s">
         <v>88</v>
@@ -8762,7 +8749,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="8"/>
       <c r="B95" s="90" t="s">
         <v>89</v>
@@ -8793,7 +8780,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="8"/>
       <c r="B96" s="90" t="s">
         <v>90</v>
@@ -8834,7 +8821,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="8"/>
       <c r="B97" s="100" t="s">
         <v>91</v>
@@ -8850,7 +8837,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="504" t="s">
+      <c r="L97" s="498" t="s">
         <v>111</v>
       </c>
       <c r="M97" s="8"/>
@@ -8867,7 +8854,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="100" t="s">
         <v>92</v>
@@ -8883,7 +8870,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="504"/>
+      <c r="L98" s="498"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8900,7 +8887,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="8"/>
       <c r="B99" s="100" t="s">
         <v>91</v>
@@ -8916,7 +8903,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="504"/>
+      <c r="L99" s="498"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>184</v>
@@ -8942,7 +8929,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="8"/>
       <c r="B100" s="100" t="s">
         <v>92</v>
@@ -8958,7 +8945,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="504"/>
+      <c r="L100" s="498"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>188</v>
@@ -8984,7 +8971,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
         <v>148</v>
@@ -9026,7 +9013,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
         <v>149</v>
@@ -9055,7 +9042,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15" customHeight="true">
       <c r="A103" s="8"/>
       <c r="B103" s="101" t="s">
         <v>93</v>
@@ -9073,11 +9060,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="503" t="s">
+      <c r="L103" s="485" t="s">
         <v>110</v>
       </c>
-      <c r="M103" s="503"/>
-      <c r="N103" s="503"/>
+      <c r="M103" s="485"/>
+      <c r="N103" s="485"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9088,7 +9075,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="8"/>
       <c r="B104" s="101" t="s">
         <v>93</v>
@@ -9106,9 +9093,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="503"/>
-      <c r="M104" s="503"/>
-      <c r="N104" s="503"/>
+      <c r="L104" s="485"/>
+      <c r="M104" s="485"/>
+      <c r="N104" s="485"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9119,7 +9106,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="8"/>
       <c r="B105" s="101" t="s">
         <v>93</v>
@@ -9137,9 +9124,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="503"/>
-      <c r="M105" s="503"/>
-      <c r="N105" s="503"/>
+      <c r="L105" s="485"/>
+      <c r="M105" s="485"/>
+      <c r="N105" s="485"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9150,7 +9137,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="8"/>
       <c r="B106" s="101" t="s">
         <v>93</v>
@@ -9168,9 +9155,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="503"/>
-      <c r="M106" s="503"/>
-      <c r="N106" s="503"/>
+      <c r="L106" s="485"/>
+      <c r="M106" s="485"/>
+      <c r="N106" s="485"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9181,7 +9168,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="8"/>
       <c r="B107" s="101" t="s">
         <v>93</v>
@@ -9199,9 +9186,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="503"/>
-      <c r="M107" s="503"/>
-      <c r="N107" s="503"/>
+      <c r="L107" s="485"/>
+      <c r="M107" s="485"/>
+      <c r="N107" s="485"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9212,7 +9199,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="8"/>
       <c r="B108" s="101" t="s">
         <v>93</v>
@@ -9230,9 +9217,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="503"/>
-      <c r="M108" s="503"/>
-      <c r="N108" s="503"/>
+      <c r="L108" s="485"/>
+      <c r="M108" s="485"/>
+      <c r="N108" s="485"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9243,7 +9230,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="8"/>
       <c r="B109" s="101" t="s">
         <v>93</v>
@@ -9261,9 +9248,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="503"/>
-      <c r="M109" s="503"/>
-      <c r="N109" s="503"/>
+      <c r="L109" s="485"/>
+      <c r="M109" s="485"/>
+      <c r="N109" s="485"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9274,7 +9261,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="8"/>
       <c r="B110" s="101" t="s">
         <v>93</v>
@@ -9292,9 +9279,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="503"/>
-      <c r="M110" s="503"/>
-      <c r="N110" s="503"/>
+      <c r="L110" s="485"/>
+      <c r="M110" s="485"/>
+      <c r="N110" s="485"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9305,7 +9292,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="B111" s="159" t="s">
         <v>151</v>
       </c>
@@ -9321,7 +9308,7 @@
       <c r="J111" s="161"/>
       <c r="K111" s="161"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="B112" s="159" t="s">
         <v>151</v>
       </c>
@@ -9340,7 +9327,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="B113" s="159" t="s">
         <v>151</v>
       </c>
@@ -9356,7 +9343,7 @@
       <c r="J113" s="161"/>
       <c r="K113" s="161"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="B114" s="159" t="s">
         <v>151</v>
       </c>
@@ -9374,6 +9361,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9390,36 +9407,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9428,31 +9415,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="9" width="17.42578125" style="331" customWidth="1"/>
-    <col min="10" max="11" width="17.42578125" style="338" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="17.5703125" customWidth="true"/>
+    <col min="3" max="3" width="12" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="9" width="17.42578125" style="331" customWidth="true"/>
+    <col min="10" max="11" width="17.42578125" style="338" customWidth="true"/>
+    <col min="12" max="12" width="34.42578125" style="5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -9480,7 +9467,7 @@
       <c r="K1" s="460"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -9500,7 +9487,7 @@
       <c r="K2" s="337"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -9528,7 +9515,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -9556,7 +9543,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" customHeight="true">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -9586,7 +9573,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="456" t="s">
         <v>53</v>
       </c>
@@ -9624,7 +9611,7 @@
       </c>
       <c r="L6" s="242"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="90" t="s">
         <v>227</v>
       </c>
@@ -9662,7 +9649,7 @@
       </c>
       <c r="L7" s="242"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="90" t="s">
         <v>228</v>
       </c>
@@ -9700,7 +9687,7 @@
       </c>
       <c r="L8" s="242"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="90" t="s">
         <v>230</v>
       </c>
@@ -9738,7 +9725,7 @@
       </c>
       <c r="L9" s="242"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="90" t="s">
         <v>18</v>
       </c>
@@ -9776,7 +9763,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="90" t="s">
         <v>229</v>
       </c>
@@ -9814,7 +9801,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="457" t="s">
         <v>231</v>
       </c>
@@ -9852,7 +9839,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="452" t="s">
         <v>260</v>
       </c>
@@ -9892,7 +9879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="452" t="s">
         <v>261</v>
       </c>
@@ -9930,7 +9917,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="452" t="s">
         <v>278</v>
       </c>
@@ -9968,7 +9955,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="452" t="s">
         <v>262</v>
       </c>
@@ -10006,7 +9993,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="453" t="s">
         <v>263</v>
       </c>
@@ -10044,7 +10031,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="453" t="s">
         <v>264</v>
       </c>
@@ -10082,7 +10069,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -10120,7 +10107,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="272" t="s">
         <v>272</v>
       </c>
@@ -10139,7 +10126,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="272" t="s">
         <v>272</v>
       </c>
@@ -10156,7 +10143,7 @@
       <c r="K21" s="250"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15" customHeight="true">
       <c r="B22" s="272" t="s">
         <v>272</v>
       </c>
@@ -10173,7 +10160,7 @@
       <c r="K22" s="252"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="B23" s="272" t="s">
         <v>272</v>
       </c>
@@ -10190,7 +10177,7 @@
       <c r="K23" s="253"/>
       <c r="L23" s="242"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="B24" s="272" t="s">
         <v>272</v>
       </c>
@@ -10207,7 +10194,7 @@
       <c r="K24" s="253"/>
       <c r="L24" s="242"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="B25" s="272" t="s">
         <v>272</v>
       </c>
@@ -10224,7 +10211,7 @@
       <c r="K25" s="253"/>
       <c r="L25" s="242"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="15" customHeight="true">
       <c r="A26" s="8"/>
       <c r="B26" s="272" t="s">
         <v>272</v>
@@ -10242,7 +10229,7 @@
       <c r="K26" s="254"/>
       <c r="L26" s="242"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="15" customHeight="true">
       <c r="A27" s="8"/>
       <c r="B27" s="251" t="s">
         <v>40</v>
@@ -10258,7 +10245,7 @@
       <c r="K27" s="254"/>
       <c r="L27" s="418"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="15" customHeight="true">
       <c r="A28" s="8"/>
       <c r="B28" s="251" t="s">
         <v>258</v>
@@ -10274,7 +10261,7 @@
       <c r="K28" s="254"/>
       <c r="L28" s="418"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="15" customHeight="true">
       <c r="A29" s="8"/>
       <c r="B29" s="251" t="s">
         <v>42</v>
@@ -10290,7 +10277,7 @@
       <c r="K29" s="254"/>
       <c r="L29" s="418"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="15" customHeight="true">
       <c r="A30" s="8"/>
       <c r="B30" s="251" t="s">
         <v>257</v>
@@ -10306,7 +10293,7 @@
       <c r="K30" s="254"/>
       <c r="L30" s="418"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="15" customHeight="true">
       <c r="A31" s="8"/>
       <c r="B31" s="251" t="s">
         <v>276</v>
@@ -10322,7 +10309,7 @@
       <c r="K31" s="254"/>
       <c r="L31" s="418"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="15" customHeight="true">
       <c r="A32" s="8"/>
       <c r="B32" s="251" t="s">
         <v>277</v>
@@ -10338,7 +10325,7 @@
       <c r="K32" s="254"/>
       <c r="L32" s="418"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="15" customHeight="true">
       <c r="A33" s="8"/>
       <c r="B33" s="284" t="s">
         <v>226</v>
@@ -10364,7 +10351,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="284" t="s">
         <v>275</v>
@@ -10386,7 +10373,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" s="8" customFormat="true">
       <c r="B35" s="287" t="s">
         <v>275</v>
       </c>
@@ -10405,7 +10392,7 @@
       <c r="K35" s="325"/>
       <c r="L35" s="243"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="287" t="s">
         <v>275</v>
@@ -10425,7 +10412,7 @@
       <c r="K36" s="325"/>
       <c r="L36" s="243"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="287" t="s">
         <v>275</v>
@@ -10445,7 +10432,7 @@
       <c r="K37" s="325"/>
       <c r="L37" s="243"/>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" s="8" customFormat="true">
       <c r="B38" s="287" t="s">
         <v>275</v>
       </c>
@@ -10464,7 +10451,7 @@
       <c r="K38" s="325"/>
       <c r="L38" s="243"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="287" t="s">
         <v>275</v>
@@ -10484,7 +10471,7 @@
       <c r="K39" s="325"/>
       <c r="L39" s="243"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="289" t="s">
         <v>275</v>
@@ -10504,7 +10491,7 @@
       <c r="K40" s="325"/>
       <c r="L40" s="243"/>
     </row>
-    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" s="8" customFormat="true">
       <c r="B41" s="278" t="s">
         <v>242</v>
       </c>
@@ -10531,7 +10518,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="B42" s="278" t="s">
         <v>242</v>
@@ -10557,7 +10544,7 @@
       <c r="K42" s="257"/>
       <c r="L42" s="243"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="B43" s="278" t="s">
         <v>242</v>
@@ -10583,7 +10570,7 @@
       <c r="K43" s="258"/>
       <c r="L43" s="243"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="8"/>
       <c r="B44" s="281" t="s">
         <v>242</v>
@@ -10609,7 +10596,7 @@
       <c r="K44" s="259"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="8"/>
       <c r="B45" s="284" t="s">
         <v>243</v>
@@ -10637,7 +10624,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="8"/>
       <c r="B46" s="287" t="s">
         <v>243</v>
@@ -10663,7 +10650,7 @@
       <c r="K46" s="261"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="287" t="s">
         <v>243</v>
@@ -10689,7 +10676,7 @@
       <c r="K47" s="261"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="8"/>
       <c r="B48" s="287" t="s">
         <v>243</v>
@@ -10715,7 +10702,7 @@
       <c r="K48" s="261"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="8"/>
       <c r="B49" s="299" t="s">
         <v>273</v>
@@ -10741,7 +10728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="8"/>
       <c r="B50" s="302" t="s">
         <v>274</v>
@@ -10767,7 +10754,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="8"/>
       <c r="B51" s="305" t="s">
         <v>226</v>
@@ -10793,7 +10780,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="305" t="s">
         <v>275</v>
@@ -10815,7 +10802,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="8"/>
       <c r="B53" s="308" t="s">
         <v>275</v>
@@ -10835,7 +10822,7 @@
       <c r="K53" s="314"/>
       <c r="L53" s="243"/>
     </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="15" customHeight="true">
       <c r="A54" s="8"/>
       <c r="B54" s="308" t="s">
         <v>275</v>
@@ -10855,7 +10842,7 @@
       <c r="K54" s="314"/>
       <c r="L54" s="243"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="8"/>
       <c r="B55" s="308" t="s">
         <v>275</v>
@@ -10875,7 +10862,7 @@
       <c r="K55" s="314"/>
       <c r="L55" s="243"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="8"/>
       <c r="B56" s="308" t="s">
         <v>275</v>
@@ -10895,7 +10882,7 @@
       <c r="K56" s="314"/>
       <c r="L56" s="243"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="8"/>
       <c r="B57" s="308" t="s">
         <v>275</v>
@@ -10915,7 +10902,7 @@
       <c r="K57" s="314"/>
       <c r="L57" s="243"/>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="15" customHeight="true">
       <c r="A58" s="8"/>
       <c r="B58" s="311" t="s">
         <v>275</v>
@@ -10935,7 +10922,7 @@
       <c r="K58" s="314"/>
       <c r="L58" s="243"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="8"/>
       <c r="B59" s="292" t="s">
         <v>242</v>
@@ -10963,7 +10950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" s="8" customFormat="true">
       <c r="B60" s="294" t="s">
         <v>242</v>
       </c>
@@ -10988,7 +10975,7 @@
       <c r="K60" s="339"/>
       <c r="L60" s="243"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="8"/>
       <c r="B61" s="294" t="s">
         <v>242</v>
@@ -11014,7 +11001,7 @@
       <c r="K61" s="340"/>
       <c r="L61" s="243"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="8"/>
       <c r="B62" s="297" t="s">
         <v>242</v>
@@ -11040,7 +11027,7 @@
       <c r="K62" s="351"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" s="8" customFormat="true">
       <c r="B63" s="308" t="s">
         <v>243</v>
       </c>
@@ -11067,7 +11054,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="8"/>
       <c r="B64" s="308" t="s">
         <v>243</v>
@@ -11093,7 +11080,7 @@
       <c r="K64" s="314"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="8"/>
       <c r="B65" s="308" t="s">
         <v>243</v>
@@ -11119,7 +11106,7 @@
       <c r="K65" s="314"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" s="8" customFormat="true">
       <c r="B66" s="308" t="s">
         <v>243</v>
       </c>
@@ -11143,7 +11130,7 @@
       </c>
       <c r="K66" s="314"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="8"/>
       <c r="B67" s="292" t="s">
         <v>273</v>
@@ -11169,7 +11156,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="8"/>
       <c r="B68" s="297" t="s">
         <v>274</v>
@@ -11195,7 +11182,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="8"/>
       <c r="B69" s="362" t="s">
         <v>226</v>
@@ -11233,7 +11220,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="true">
       <c r="A70" s="8"/>
       <c r="B70" s="369" t="s">
         <v>275</v>
@@ -11253,7 +11240,7 @@
       <c r="K70" s="419"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="15" customHeight="true">
       <c r="A71" s="8"/>
       <c r="B71" s="372" t="s">
         <v>275</v>
@@ -11273,7 +11260,7 @@
       <c r="K71" s="419"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="15" customHeight="true">
       <c r="A72" s="8"/>
       <c r="B72" s="372" t="s">
         <v>275</v>
@@ -11293,7 +11280,7 @@
       <c r="K72" s="419"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="8"/>
       <c r="B73" s="372" t="s">
         <v>275</v>
@@ -11313,7 +11300,7 @@
       <c r="K73" s="419"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="8"/>
       <c r="B74" s="372" t="s">
         <v>275</v>
@@ -11351,7 +11338,7 @@
       </c>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" s="8" customFormat="true">
       <c r="B75" s="372" t="s">
         <v>275</v>
       </c>
@@ -11370,7 +11357,7 @@
       <c r="K75" s="419"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="8"/>
       <c r="B76" s="375" t="s">
         <v>275</v>
@@ -11408,7 +11395,7 @@
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="8"/>
       <c r="B77" s="362" t="s">
         <v>242</v>
@@ -11446,7 +11433,7 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="8"/>
       <c r="B78" s="364" t="s">
         <v>242</v>
@@ -11466,7 +11453,7 @@
       <c r="K78" s="421"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" s="8" customFormat="true">
       <c r="B79" s="364" t="s">
         <v>242</v>
       </c>
@@ -11503,7 +11490,7 @@
       </c>
       <c r="L79" s="242"/>
     </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" s="8" customFormat="true">
       <c r="B80" s="366" t="s">
         <v>242</v>
       </c>
@@ -11522,7 +11509,7 @@
       <c r="K80" s="423"/>
       <c r="L80" s="242"/>
     </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" s="8" customFormat="true">
       <c r="B81" s="372" t="s">
         <v>243</v>
       </c>
@@ -11559,7 +11546,7 @@
       </c>
       <c r="L81" s="242"/>
     </row>
-    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" s="8" customFormat="true">
       <c r="B82" s="372" t="s">
         <v>243</v>
       </c>
@@ -11578,7 +11565,7 @@
       <c r="K82" s="419"/>
       <c r="L82" s="242"/>
     </row>
-    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" s="8" customFormat="true">
       <c r="B83" s="372" t="s">
         <v>243</v>
       </c>
@@ -11597,7 +11584,7 @@
       <c r="K83" s="419"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" s="8" customFormat="true">
       <c r="B84" s="372" t="s">
         <v>243</v>
       </c>
@@ -11616,7 +11603,7 @@
       <c r="K84" s="419"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" s="8" customFormat="true">
       <c r="B85" s="362" t="s">
         <v>273</v>
       </c>
@@ -11633,7 +11620,7 @@
       <c r="K85" s="426"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" s="8" customFormat="true">
       <c r="B86" s="366" t="s">
         <v>274</v>
       </c>
@@ -11650,7 +11637,7 @@
       <c r="K86" s="427"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" s="8" customFormat="true">
       <c r="B87" s="387" t="s">
         <v>226</v>
       </c>
@@ -11687,7 +11674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" s="8" customFormat="true">
       <c r="B88" s="378" t="s">
         <v>275</v>
       </c>
@@ -11706,7 +11693,7 @@
       <c r="K88" s="429"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" s="8" customFormat="true">
       <c r="B89" s="381" t="s">
         <v>275</v>
       </c>
@@ -11725,7 +11712,7 @@
       <c r="K89" s="429"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" s="8" customFormat="true">
       <c r="B90" s="381" t="s">
         <v>275</v>
       </c>
@@ -11744,7 +11731,7 @@
       <c r="K90" s="429"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" s="8" customFormat="true">
       <c r="B91" s="381" t="s">
         <v>275</v>
       </c>
@@ -11763,7 +11750,7 @@
       <c r="K91" s="429"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" s="8" customFormat="true">
       <c r="B92" s="381" t="s">
         <v>275</v>
       </c>
@@ -11800,7 +11787,7 @@
       </c>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" s="8" customFormat="true">
       <c r="B93" s="381" t="s">
         <v>275</v>
       </c>
@@ -11819,7 +11806,7 @@
       <c r="K93" s="429"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="8"/>
       <c r="B94" s="384" t="s">
         <v>275</v>
@@ -11857,7 +11844,7 @@
       </c>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="8"/>
       <c r="B95" s="387" t="s">
         <v>242</v>
@@ -11895,7 +11882,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="8"/>
       <c r="B96" s="390" t="s">
         <v>242</v>
@@ -11915,7 +11902,7 @@
       <c r="K96" s="432"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" s="8" customFormat="true">
       <c r="B97" s="390" t="s">
         <v>242</v>
       </c>
@@ -11952,7 +11939,7 @@
       </c>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="392" t="s">
         <v>242</v>
@@ -11972,7 +11959,7 @@
       <c r="K98" s="434"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="8"/>
       <c r="B99" s="381" t="s">
         <v>243</v>
@@ -12010,7 +11997,7 @@
       </c>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="8"/>
       <c r="B100" s="381" t="s">
         <v>243</v>
@@ -12030,7 +12017,7 @@
       <c r="K100" s="429"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="8"/>
       <c r="B101" s="381" t="s">
         <v>243</v>
@@ -12050,7 +12037,7 @@
       <c r="K101" s="429"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="8"/>
       <c r="B102" s="381" t="s">
         <v>243</v>
@@ -12070,7 +12057,7 @@
       <c r="K102" s="429"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="8"/>
       <c r="B103" s="387" t="s">
         <v>273</v>
@@ -12088,7 +12075,7 @@
       <c r="K103" s="394"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="15" customHeight="true">
       <c r="A104" s="8"/>
       <c r="B104" s="392" t="s">
         <v>274</v>
@@ -12106,7 +12093,7 @@
       <c r="K104" s="396"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="8"/>
       <c r="B105" s="398" t="s">
         <v>226</v>
@@ -12144,7 +12131,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="8"/>
       <c r="B106" s="409" t="s">
         <v>275</v>
@@ -12164,7 +12151,7 @@
       <c r="K106" s="437"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="8"/>
       <c r="B107" s="412" t="s">
         <v>275</v>
@@ -12184,7 +12171,7 @@
       <c r="K107" s="437"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="8"/>
       <c r="B108" s="412" t="s">
         <v>275</v>
@@ -12204,7 +12191,7 @@
       <c r="K108" s="437"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="8"/>
       <c r="B109" s="412" t="s">
         <v>275</v>
@@ -12224,7 +12211,7 @@
       <c r="K109" s="437"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="15" customHeight="true">
       <c r="A110" s="8"/>
       <c r="B110" s="412" t="s">
         <v>275</v>
@@ -12238,31 +12225,31 @@
       <c r="E110" s="414"/>
       <c r="F110" s="437">
         <f>ProdSerRet!C28</f>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="G110" s="437">
         <f>F110</f>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="H110" s="437">
         <f t="shared" ref="H110:K112" si="15">G110</f>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="I110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="J110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="K110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200198</v>
+        <v>0.46614772249200193</v>
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="8"/>
       <c r="B111" s="412" t="s">
         <v>275</v>
@@ -12282,7 +12269,7 @@
       <c r="K111" s="437"/>
       <c r="L111" s="244"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="8"/>
       <c r="B112" s="415" t="s">
         <v>275</v>
@@ -12296,31 +12283,31 @@
       <c r="E112" s="417"/>
       <c r="F112" s="437">
         <f>ProdSerRet!D28</f>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="G112" s="437">
         <f>F112</f>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="H112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="I112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="J112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="K112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="8"/>
       <c r="B113" s="398" t="s">
         <v>242</v>
@@ -12358,7 +12345,7 @@
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="8"/>
       <c r="B114" s="401" t="s">
         <v>242</v>
@@ -12378,7 +12365,7 @@
       <c r="K114" s="440"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="8"/>
       <c r="B115" s="401" t="s">
         <v>242</v>
@@ -12416,7 +12403,7 @@
       </c>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="8"/>
       <c r="B116" s="403" t="s">
         <v>242</v>
@@ -12436,7 +12423,7 @@
       <c r="K116" s="442"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="B117" s="412" t="s">
         <v>243</v>
       </c>
@@ -12473,7 +12460,7 @@
       </c>
       <c r="L117" s="445"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="B118" s="412" t="s">
         <v>243</v>
       </c>
@@ -12492,7 +12479,7 @@
       <c r="K118" s="437"/>
       <c r="L118" s="445"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="B119" s="412" t="s">
         <v>243</v>
       </c>
@@ -12511,7 +12498,7 @@
       <c r="K119" s="437"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="B120" s="412" t="s">
         <v>243</v>
       </c>
@@ -12530,7 +12517,7 @@
       <c r="K120" s="437"/>
       <c r="L120" s="255"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="B121" s="398" t="s">
         <v>273</v>
       </c>
@@ -12547,7 +12534,7 @@
       <c r="K121" s="405"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="B122" s="403" t="s">
         <v>274</v>
       </c>
@@ -12564,7 +12551,7 @@
       <c r="K122" s="407"/>
       <c r="L122" s="255"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="B123" s="8" t="s">
         <v>34</v>
       </c>
@@ -12575,7 +12562,7 @@
       <c r="E123" s="8"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="B124" s="8" t="s">
         <v>34</v>
       </c>
@@ -12586,7 +12573,7 @@
       <c r="E124" s="8"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="B125" s="8" t="s">
         <v>34</v>
       </c>
@@ -12596,9 +12583,9 @@
       </c>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="B126" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -12622,10 +12609,10 @@
         <v>450</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="B127" s="8" t="s">
         <v>37</v>
       </c>
@@ -12635,7 +12622,7 @@
       </c>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="B128" s="8" t="s">
         <v>38</v>
       </c>
@@ -12645,7 +12632,7 @@
       </c>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="B129" s="8" t="s">
         <v>39</v>
       </c>
@@ -12655,7 +12642,7 @@
       </c>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="B130" s="8" t="s">
         <v>46</v>
       </c>
@@ -12663,7 +12650,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="B131" s="8" t="s">
         <v>47</v>
       </c>
@@ -12671,7 +12658,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="B132" s="8" t="s">
         <v>48</v>
       </c>
@@ -12679,7 +12666,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="B133" s="8" t="s">
         <v>49</v>
       </c>
@@ -12687,7 +12674,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="B134" s="8" t="s">
         <v>50</v>
       </c>
@@ -12695,7 +12682,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="B135" s="8" t="s">
         <v>161</v>
       </c>
@@ -12703,7 +12690,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="14.25" customHeight="true">
       <c r="B136" s="90" t="s">
         <v>88</v>
       </c>
@@ -12711,7 +12698,7 @@
       <c r="D136" s="90"/>
       <c r="E136" s="90"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="B137" s="90" t="s">
         <v>89</v>
       </c>
@@ -12719,7 +12706,7 @@
       <c r="D137" s="90"/>
       <c r="E137" s="90"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="B138" s="90" t="s">
         <v>90</v>
       </c>
@@ -12751,7 +12738,7 @@
         <v>4882.7445115986047</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="B139" s="100" t="s">
         <v>91</v>
       </c>
@@ -12761,7 +12748,7 @@
       <c r="D139" s="90"/>
       <c r="E139" s="90"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="B140" s="100" t="s">
         <v>92</v>
       </c>
@@ -12771,7 +12758,7 @@
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="B141" s="100" t="s">
         <v>91</v>
       </c>
@@ -12781,7 +12768,7 @@
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="B142" s="100" t="s">
         <v>92</v>
       </c>
@@ -12791,7 +12778,7 @@
       <c r="D142" s="90"/>
       <c r="E142" s="90"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="B143" t="s">
         <v>148</v>
       </c>
@@ -12801,7 +12788,7 @@
       <c r="D143" s="90"/>
       <c r="E143" s="90"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="B144" t="s">
         <v>149</v>
       </c>
@@ -12811,7 +12798,7 @@
       <c r="D144" s="90"/>
       <c r="E144" s="90"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="B145" s="101" t="s">
         <v>93</v>
       </c>
@@ -12823,7 +12810,7 @@
       </c>
       <c r="E145" s="90"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="B146" s="101" t="s">
         <v>93</v>
       </c>
@@ -12835,7 +12822,7 @@
       </c>
       <c r="E146" s="90"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="B147" s="101" t="s">
         <v>93</v>
       </c>
@@ -12847,7 +12834,7 @@
       </c>
       <c r="E147" s="90"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="B148" s="101" t="s">
         <v>93</v>
       </c>
@@ -12859,7 +12846,7 @@
       </c>
       <c r="E148" s="90"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="B149" s="101" t="s">
         <v>93</v>
       </c>
@@ -12871,7 +12858,7 @@
       </c>
       <c r="E149" s="90"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="B150" s="101" t="s">
         <v>93</v>
       </c>
@@ -12883,7 +12870,7 @@
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="B151" s="101" t="s">
         <v>93</v>
       </c>
@@ -12895,7 +12882,7 @@
       </c>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="B152" s="101" t="s">
         <v>93</v>
       </c>
@@ -12921,26 +12908,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.5703125" bestFit="true" customWidth="true"/>
+    <col min="10" max="11" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="14.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -12971,7 +12958,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="true">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -13001,7 +12988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75" thickBot="true">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -13032,7 +13019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="true">
       <c r="A4" s="8" t="str">
         <f>Input_old!A4</f>
         <v>Land</v>
@@ -13081,7 +13068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="8" t="str">
         <f>Input_old!A5</f>
         <v>Labor</v>
@@ -13130,7 +13117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="8" t="str">
         <f>Input_old!A6</f>
         <v>Capital</v>
@@ -13179,7 +13166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.75" thickBot="true">
       <c r="A7" s="8" t="str">
         <f>Input_old!A7</f>
         <v>Input</v>
@@ -13228,7 +13215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="8" t="str">
         <f>Input_old!A8</f>
         <v>crop</v>
@@ -13277,7 +13264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="8" t="str">
         <f>Input_old!A9</f>
         <v>live</v>
@@ -13326,7 +13313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="8" t="str">
         <f>Input_old!A10</f>
         <v>ret</v>
@@ -13375,7 +13362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="8" t="str">
         <f>Input_old!A11</f>
         <v>other</v>
@@ -13424,7 +13411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="8" t="str">
         <f>Input_old!A12</f>
         <v>OUTSIDE</v>
@@ -13473,7 +13460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="8" t="str">
         <f>Input_old!A13</f>
         <v>A1</v>
@@ -13522,7 +13509,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="8" t="str">
         <f>Input_old!A14</f>
         <v>A2</v>
@@ -13571,7 +13558,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="8" t="str">
         <f>Input_old!A15</f>
         <v>A3</v>
@@ -13620,7 +13607,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="8" t="str">
         <f>Input_old!A16</f>
         <v>B1</v>
@@ -13666,7 +13653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.75" thickBot="true">
       <c r="A17" s="8" t="str">
         <f>Input_old!A17</f>
         <v>B2</v>
@@ -13706,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="8" t="str">
         <f>Input_old!A18</f>
         <v>B3</v>
@@ -13746,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.75" thickBot="true">
       <c r="A19" s="8" t="str">
         <f>Input_old!A19</f>
         <v>empty</v>
@@ -13786,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="str">
         <f>Input_old!B20</f>
@@ -13823,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15" customHeight="true">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="str">
         <f>Input_old!B21</f>
@@ -13871,7 +13858,7 @@
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="str">
         <f>Input_old!B22</f>
@@ -13919,7 +13906,7 @@
       <c r="Q22" s="162"/>
       <c r="R22" s="162"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="str">
         <f>Input_old!B23</f>
@@ -13959,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.75" thickBot="true">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="str">
         <f>Input_old!B24</f>
@@ -13999,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15" customHeight="true">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="str">
         <f>Input_old!B25</f>
@@ -14039,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="str">
         <f>Input_old!B26</f>
@@ -14079,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="15.75" thickBot="true">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="str">
         <f>Input_old!B27</f>
@@ -14119,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="str">
         <f>Input_old!B28</f>
@@ -14159,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="str">
         <f>Input_old!B29</f>
@@ -14199,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="str">
         <f>Input_old!B30</f>
@@ -14239,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="str">
         <f>Input_old!B31</f>
@@ -14279,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="str">
         <f>Input_old!B32</f>
@@ -14319,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="str">
         <f>Input_old!B33</f>
@@ -14359,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="str">
         <f>Input_old!B34</f>
@@ -14396,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="str">
         <f>Input_old!B35</f>
@@ -14433,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="str">
         <f>Input_old!B36</f>
@@ -14470,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75" thickBot="true">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="str">
         <f>Input_old!B37</f>
@@ -14507,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="str">
         <f>Input_old!B38</f>
@@ -14544,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="str">
         <f>Input_old!B39</f>
@@ -14584,7 +14571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="str">
         <f>Input_old!B40</f>
@@ -14624,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="str">
         <f>Input_old!B41</f>
@@ -14664,7 +14651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.75" thickBot="true">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="str">
         <f>Input_old!B42</f>
@@ -14704,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15" customHeight="true">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="str">
         <f>Input_old!B43</f>
@@ -14744,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="str">
         <f>Input_old!B44</f>
@@ -14784,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75" thickBot="true">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="str">
         <f>Input_old!B45</f>
@@ -14824,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="str">
         <f>Input_old!B46</f>
@@ -14864,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="str">
         <f>Input_old!B47</f>
@@ -14904,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="str">
         <f>Input_old!B48</f>
@@ -14944,7 +14931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="str">
         <f>Input_old!B49</f>
@@ -14984,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="str">
         <f>Input_old!B50</f>
@@ -15024,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>Input_old!B51</f>
@@ -15064,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>Input_old!B52</f>
@@ -15101,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75" thickBot="true">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>Input_old!B53</f>
@@ -15138,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>Input_old!B54</f>
@@ -15175,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.75" customHeight="true" thickBot="true">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>Input_old!B55</f>
@@ -15212,7 +15199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15.75" thickBot="true">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>Input_old!B56</f>
@@ -15249,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="15" customHeight="true">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>Input_old!B57</f>
@@ -15289,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>Input_old!B58</f>
@@ -15329,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>Input_old!B59</f>
@@ -15369,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="15.75" thickBot="true">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>Input_old!B60</f>
@@ -15409,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="15.75" thickBot="true">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>Input_old!B61</f>
@@ -15449,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>Input_old!B62</f>
@@ -15489,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>Input_old!B63</f>
@@ -15529,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>Input_old!B64</f>
@@ -15569,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>Input_old!B65</f>
@@ -15609,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>Input_old!B66</f>
@@ -15649,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>Input_old!B67</f>
@@ -15689,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>Input_old!B68</f>
@@ -15729,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>Input_old!B69</f>
@@ -15766,7 +15753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.75" thickBot="true">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>Input_old!B70</f>
@@ -15803,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>Input_old!B71</f>
@@ -15840,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.75" thickBot="true">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>Input_old!B72</f>
@@ -15877,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>Input_old!B73</f>
@@ -15914,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>Input_old!B74</f>
@@ -15951,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>Input_old!B75</f>
@@ -15985,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="str">
         <f>Input_old!B76</f>
@@ -16019,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="str">
         <f>Input_old!B77</f>
@@ -16053,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="str">
         <f>Input_old!B78</f>
@@ -16087,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="str">
         <f>Input_old!B79</f>
@@ -16121,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="str">
         <f>Input_old!B80</f>
@@ -16155,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="15" customHeight="true">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="str">
         <f>Input_old!B81</f>
@@ -16189,7 +16176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="str">
         <f>Input_old!B82</f>
@@ -16223,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="str">
         <f>Input_old!B83</f>
@@ -16257,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="str">
         <f>Input_old!B84</f>
@@ -16291,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="str">
         <f>Input_old!B85</f>
@@ -16325,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="str">
         <f>Input_old!B86</f>
@@ -16359,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="str">
         <f>Input_old!B87</f>
@@ -16393,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="str">
         <f>Input_old!B88</f>
@@ -16427,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="str">
         <f>Input_old!B89</f>
@@ -16461,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="str">
         <f>Input_old!B90</f>
@@ -16495,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="str">
         <f>Input_old!B91</f>
@@ -16529,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="str">
         <f>Input_old!B92</f>
@@ -16563,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="str">
         <f>Input_old!B93</f>
@@ -16597,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="str">
         <f>Input_old!B94</f>
@@ -16631,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="str">
         <f>Input_old!B95</f>
@@ -16665,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="str">
         <f>Input_old!B96</f>
@@ -16699,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="15" customHeight="true">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="str">
         <f>Input_old!B97</f>
@@ -16736,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="str">
         <f>Input_old!B98</f>
@@ -16773,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="str">
         <f>Input_old!B99</f>
@@ -16810,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="str">
         <f>Input_old!B100</f>
@@ -16847,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="str">
         <f>Input_old!B101</f>
@@ -16884,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="15.75" thickBot="true">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="str">
         <f>Input_old!B102</f>
@@ -16921,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15" customHeight="true">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="str">
         <f>Input_old!B103</f>
@@ -16961,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="str">
         <f>Input_old!B104</f>
@@ -17001,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="str">
         <f>Input_old!B105</f>
@@ -17041,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="str">
         <f>Input_old!B106</f>
@@ -17081,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="str">
         <f>Input_old!B107</f>
@@ -17121,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="str">
         <f>Input_old!B108</f>
@@ -17161,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="str">
         <f>Input_old!B109</f>
@@ -17201,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="15.75" thickBot="true">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="str">
         <f>Input_old!B110</f>
@@ -17241,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="str">
         <f>Input_old!B111</f>
@@ -17254,7 +17241,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="str">
         <f>Input_old!B112</f>
@@ -17267,7 +17254,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="str">
         <f>Input_old!B113</f>
@@ -17294,19 +17281,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="8" width="13.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="C1" s="237" t="s">
         <v>208</v>
       </c>
@@ -17314,7 +17301,7 @@
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>192</v>
       </c>
@@ -17322,7 +17309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>209</v>
       </c>
@@ -17333,7 +17320,7 @@
         <v>61609.917491912842</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="C7" s="237" t="s">
         <v>207</v>
       </c>
@@ -17341,7 +17328,7 @@
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="C8" t="s">
         <v>192</v>
       </c>
@@ -17361,7 +17348,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -17381,7 +17368,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>195</v>
       </c>
@@ -17404,7 +17391,7 @@
         <v>0.24722428494276569</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>196</v>
       </c>
@@ -17427,7 +17414,7 @@
         <v>3.1030321743447061E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>197</v>
       </c>
@@ -17450,7 +17437,7 @@
         <v>0.45547144346382262</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" t="s">
         <v>206</v>
       </c>
@@ -17473,7 +17460,7 @@
         <v>4.4136867910546176E-7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -17496,7 +17483,7 @@
         <v>1.6101608486732868E-14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" t="s">
         <v>191</v>
       </c>
@@ -17525,43 +17512,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10" style="11" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="11" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20" style="11" customWidth="true"/>
+    <col min="2" max="2" width="10" style="11" customWidth="true"/>
+    <col min="3" max="3" width="16" style="11" customWidth="true"/>
+    <col min="4" max="4" width="15.28515625" style="11" customWidth="true"/>
+    <col min="5" max="5" width="14.5703125" style="11" customWidth="true"/>
+    <col min="6" max="6" width="14.85546875" style="11" customWidth="true"/>
+    <col min="7" max="7" width="14.28515625" style="11" customWidth="true"/>
+    <col min="8" max="8" width="9.140625" style="11" customWidth="true"/>
+    <col min="9" max="9" width="10" style="11" customWidth="true"/>
+    <col min="10" max="10" width="7.85546875" style="11" customWidth="true"/>
+    <col min="11" max="11" width="11.5703125" style="11" customWidth="true"/>
+    <col min="12" max="12" width="6.85546875" style="11" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="true"/>
+    <col min="14" max="14" width="10" style="11" customWidth="true"/>
+    <col min="15" max="15" width="7.85546875" style="11" customWidth="true"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="true"/>
+    <col min="17" max="17" width="9.140625" style="11" customWidth="true"/>
+    <col min="18" max="18" width="11" style="11" customWidth="true"/>
+    <col min="19" max="19" width="9.42578125" style="11" customWidth="true"/>
+    <col min="20" max="20" width="10" style="11" customWidth="true"/>
+    <col min="21" max="21" width="12.5703125" style="11" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" style="11" customWidth="true"/>
     <col min="23" max="25" width="9.140625" style="11"/>
-    <col min="26" max="26" width="15.28515625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="11" customWidth="true"/>
     <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="237" t="s">
         <v>208</v>
       </c>
@@ -17570,7 +17557,7 @@
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>192</v>
       </c>
@@ -17590,7 +17577,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>210</v>
       </c>
@@ -17613,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="237" t="s">
         <v>207</v>
       </c>
@@ -17622,7 +17609,7 @@
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8"/>
       <c r="C8" t="s">
         <v>211</v>
@@ -17644,7 +17631,7 @@
       </c>
       <c r="K8" s="240"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -17666,7 +17653,7 @@
       </c>
       <c r="K9" s="240"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>195</v>
       </c>
@@ -17692,7 +17679,7 @@
       <c r="L10"/>
       <c r="M10" s="224"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>196</v>
       </c>
@@ -17718,7 +17705,7 @@
       <c r="L11"/>
       <c r="M11" s="224"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>197</v>
       </c>
@@ -17744,7 +17731,7 @@
       <c r="L12"/>
       <c r="M12" s="224"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" t="s">
         <v>198</v>
       </c>
@@ -17770,7 +17757,7 @@
       <c r="L13"/>
       <c r="M13" s="224"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -17795,11 +17782,11 @@
       <c r="K14" s="214"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="K15" s="240"/>
     </row>
-    <row r="19" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="17.25" customHeight="true"/>
+    <row r="20" ht="18.75" customHeight="true" thickBot="true">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -17829,7 +17816,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="34"/>
       <c r="B21" s="463" t="s">
         <v>114</v>
@@ -17874,7 +17861,7 @@
       <c r="AD21" s="464"/>
       <c r="AE21" s="465"/>
     </row>
-    <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
@@ -17969,7 +17956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" s="42" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -18004,14 +17991,14 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="40"/>
     </row>
-    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="18.75" customHeight="true"/>
+    <row r="25" ht="18.75" customHeight="true"/>
+    <row r="26" ht="18.75" customHeight="true"/>
+    <row r="27" ht="18.75" customHeight="true"/>
+    <row r="28" ht="18.75" customHeight="true"/>
+    <row r="29" ht="18.75" customHeight="true"/>
+    <row r="30" ht="18.75" customHeight="true"/>
+    <row r="31" ht="18.75" customHeight="true"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AA21:AE21"/>
@@ -18026,22 +18013,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="true"/>
+    <col min="2" max="2" width="15.85546875" customWidth="true"/>
+    <col min="3" max="3" width="19.28515625" customWidth="true"/>
+    <col min="4" max="4" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>213</v>
       </c>
@@ -18061,12 +18048,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>252</v>
       </c>
       <c r="C3" s="241">
-        <v>426.89999389648438</v>
+        <v>426.89999389648437</v>
       </c>
       <c r="D3" s="241">
         <v>6</v>
@@ -18084,7 +18071,7 @@
         <v>285.79000854492188</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>203</v>
       </c>
@@ -18107,7 +18094,7 @@
         <v>278.489990234375</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>253</v>
       </c>
@@ -18130,7 +18117,7 @@
         <v>1858.489990234375</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" ht="30">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -18162,7 +18149,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="C9" t="s">
         <v>202</v>
       </c>
@@ -18191,7 +18178,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -18217,16 +18204,16 @@
         <v>0.22462831820269957</v>
       </c>
       <c r="I10" s="232">
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="J10" s="232">
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="K10" s="231">
-        <v>6.6375721112827385E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.06637572111282744</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" t="s">
         <v>191</v>
       </c>
@@ -18237,7 +18224,7 @@
         <v>0.81933700390892095</v>
       </c>
       <c r="E11" s="234">
-        <v>6.2801789420989101E-2</v>
+        <v>0.062801789420989101</v>
       </c>
       <c r="F11" s="235">
         <v>3.5289531599374384</v>
@@ -18246,19 +18233,19 @@
         <v>0.72779529261145504</v>
       </c>
       <c r="H11" s="234">
-        <v>1.6740167648320745E-2</v>
+        <v>0.016740167648320745</v>
       </c>
       <c r="I11" s="214">
-        <v>3.5346311552490759</v>
+        <v>3.5346311552490763</v>
       </c>
       <c r="J11" s="214">
         <v>0.35872622652278674</v>
       </c>
       <c r="K11" s="234">
-        <v>6.0673880015572905E-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.0673880015572905e-008</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -18284,7 +18271,7 @@
       <c r="J12" s="214"/>
       <c r="K12" s="231"/>
     </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" ht="30">
       <c r="C20" s="35" t="s">
         <v>259</v>
       </c>
@@ -18292,40 +18279,40 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" t="s">
         <v>201</v>
       </c>
       <c r="C21">
-        <v>0.32299281574253524</v>
+        <v>0.24052656491465391</v>
       </c>
       <c r="D21">
         <v>0.51713244742479325</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="B22" t="s">
         <v>203</v>
       </c>
       <c r="C22">
-        <v>0.40540328464946168</v>
+        <v>0.35770878057305439</v>
       </c>
       <c r="D22">
         <v>0.38126708309476026</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="B23" t="s">
         <v>204</v>
       </c>
       <c r="C23">
-        <v>1.0447962491600602</v>
+        <v>0.67806753432247002</v>
       </c>
       <c r="D23">
         <v>0.55383863325815852</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" ht="45">
       <c r="C25" s="42" t="s">
         <v>255</v>
       </c>
@@ -18333,7 +18320,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="B26" t="s">
         <v>201</v>
       </c>
@@ -18346,7 +18333,7 @@
         <v>0.16703006530556255</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="B27" t="s">
         <v>203</v>
       </c>
@@ -18359,17 +18346,17 @@
         <v>0.15456692781533504</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="B28" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="157">
-        <f t="shared" si="0"/>
-        <v>0.46614772249200198</v>
+        <f>C23*(1-D23)</f>
+        <v>0.46614772249200193</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.57864852666805822</v>
+        <v>0.57864852666805811</v>
       </c>
     </row>
   </sheetData>
@@ -18378,21 +18365,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="8" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="true"/>
+    <col min="3" max="5" width="10.5703125" customWidth="true"/>
+    <col min="6" max="8" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="157" t="s">
         <v>218</v>
       </c>
@@ -18403,7 +18390,7 @@
       <c r="G1" s="157"/>
       <c r="H1" s="157"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" t="s">
         <v>213</v>
       </c>
@@ -18423,7 +18410,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -18449,7 +18436,7 @@
         <v>1245.9361386955716</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>227</v>
       </c>
@@ -18475,7 +18462,7 @@
         <v>489.4317891150713</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -18501,7 +18488,7 @@
         <v>304.19843676080927</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -18527,7 +18514,7 @@
         <v>13.224999964237213</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -18553,7 +18540,7 @@
         <v>1673.4969271477312</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -18579,7 +18566,7 @@
         <v>544.7937532288488</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -18605,7 +18592,7 @@
         <v>611.66246668633539</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="C10" s="245">
         <f>SUM(C3:C9)</f>
         <v>10856.43761441065</v>
@@ -18631,12 +18618,12 @@
         <v>4882.7445115986047</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="157" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="C13" t="s">
         <v>213</v>
       </c>
@@ -18656,7 +18643,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -18688,7 +18675,7 @@
         <v>0.25517127421595392</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -18720,7 +18707,7 @@
         <v>0.10023702611358462</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -18752,7 +18739,7 @@
         <v>6.2300707325195492E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -18784,7 +18771,7 @@
         <v>2.7085177061429667E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -18816,7 +18803,7 @@
         <v>0.34273694295748236</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -18848,7 +18835,7 @@
         <v>0.11157531423868909</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -18886,30 +18873,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.42578125" customWidth="true"/>
+    <col min="3" max="3" width="9.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="7.42578125" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="12.140625" customWidth="true"/>
+    <col min="10" max="10" width="9.140625" customWidth="true"/>
+    <col min="11" max="11" width="7.140625" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" s="11" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -18939,7 +18926,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A9" s="34"/>
       <c r="B9" s="463" t="s">
         <v>114</v>
@@ -18984,7 +18971,7 @@
       <c r="AD9" s="464"/>
       <c r="AE9" s="465"/>
     </row>
-    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -19079,7 +19066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" s="51" customFormat="true" ht="30" customHeight="true" thickBot="true">
       <c r="A11" s="46" t="s">
         <v>120</v>
       </c>
@@ -19128,16 +19115,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="466" t="s">
         <v>143</v>
       </c>
@@ -19151,7 +19138,7 @@
       <c r="J2" s="466"/>
       <c r="K2" s="466"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="466">
         <v>1</v>
       </c>
@@ -19168,7 +19155,7 @@
       <c r="J3" s="124"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="466"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
@@ -19183,7 +19170,7 @@
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="466">
         <v>2</v>
       </c>
@@ -19200,7 +19187,7 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="466"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
@@ -19215,7 +19202,7 @@
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="466">
         <v>1</v>
       </c>
@@ -19232,7 +19219,7 @@
       <c r="J9" s="468"/>
       <c r="K9" s="468"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="466"/>
       <c r="B10" s="468"/>
       <c r="C10" s="468"/>
@@ -19245,7 +19232,7 @@
       <c r="J10" s="468"/>
       <c r="K10" s="468"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="466"/>
       <c r="B11" s="468"/>
       <c r="C11" s="468"/>
@@ -19258,7 +19245,7 @@
       <c r="J11" s="468"/>
       <c r="K11" s="468"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="466"/>
       <c r="B12" s="468"/>
       <c r="C12" s="468"/>
@@ -19271,7 +19258,7 @@
       <c r="J12" s="468"/>
       <c r="K12" s="468"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="466"/>
       <c r="B13" s="468"/>
       <c r="C13" s="468"/>
@@ -19284,7 +19271,7 @@
       <c r="J13" s="468"/>
       <c r="K13" s="468"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="466"/>
       <c r="B14" s="468"/>
       <c r="C14" s="468"/>
@@ -19297,7 +19284,7 @@
       <c r="J14" s="468"/>
       <c r="K14" s="468"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="466">
         <v>2</v>
       </c>
@@ -19314,7 +19301,7 @@
       <c r="J15" s="468"/>
       <c r="K15" s="468"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="466"/>
       <c r="B16" s="468"/>
       <c r="C16" s="468"/>
@@ -19327,7 +19314,7 @@
       <c r="J16" s="468"/>
       <c r="K16" s="468"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="466"/>
       <c r="B17" s="468"/>
       <c r="C17" s="468"/>
@@ -19340,7 +19327,7 @@
       <c r="J17" s="468"/>
       <c r="K17" s="468"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="466"/>
       <c r="B18" s="468"/>
       <c r="C18" s="468"/>
@@ -19353,7 +19340,7 @@
       <c r="J18" s="468"/>
       <c r="K18" s="468"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="466"/>
       <c r="B19" s="468"/>
       <c r="C19" s="468"/>
@@ -19366,7 +19353,7 @@
       <c r="J19" s="468"/>
       <c r="K19" s="468"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="466"/>
       <c r="B20" s="468"/>
       <c r="C20" s="468"/>

--- a/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="817" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="817" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <sheet name="Index_div" sheetId="15" r:id="rId14"/>
     <sheet name="Input_old" sheetId="2" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="true"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -120,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="282">
   <si>
     <t>Variable</t>
   </si>
@@ -1051,13 +1056,13 @@
     <t>Just the raw number of 15-55 in those groups</t>
   </si>
   <si>
-    <t>eshar</t>
+    <t>wrkagepop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1072,7 +1077,7 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,19 +1182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038484"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,25 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519242"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,19 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778863"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038484"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038484"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,37 +1278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260842"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407453"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778863"/>
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1854,973 +1859,973 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="17" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="29" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="31" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="18" borderId="38" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="29" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="43" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="20" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="23" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="174" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="23" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="174" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="24" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="42" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="24" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2836,6 +2841,14 @@
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3159,21 +3172,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="6"/>
-    <col min="3" max="3" width="19" style="6" customWidth="true"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -3187,7 +3200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
@@ -3195,7 +3208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -3223,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -3237,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -3251,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -3288,27 +3301,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="true"/>
-    <col min="2" max="2" width="8.28515625" customWidth="true"/>
-    <col min="3" max="3" width="8" customWidth="true"/>
-    <col min="4" max="7" width="8.28515625" customWidth="true"/>
-    <col min="8" max="8" width="11.28515625" customWidth="true"/>
-    <col min="9" max="9" width="8.28515625" customWidth="true"/>
-    <col min="10" max="10" width="10.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.85546875" customWidth="true"/>
-    <col min="12" max="12" width="8.28515625" customWidth="true"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3328,7 +3341,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="469" t="s">
         <v>122</v>
@@ -3359,7 +3372,7 @@
       <c r="T9" s="470"/>
       <c r="U9" s="471"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="59" customFormat="true" ht="15.75" thickBot="true">
+    <row r="11" spans="1:21" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>97</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="12" ht="15.75" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="203"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -3512,7 +3525,7 @@
       <c r="T12" s="206"/>
       <c r="U12" s="207"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -3527,19 +3540,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3559,7 +3572,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="469" t="s">
         <v>122</v>
@@ -3590,7 +3603,7 @@
       <c r="T9" s="470"/>
       <c r="U9" s="471"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15.75" thickBot="true">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>98</v>
       </c>
@@ -3680,7 +3693,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" ht="15.75" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="209"/>
       <c r="B12" s="18"/>
       <c r="C12" s="15"/>
@@ -3716,28 +3729,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="466" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="466"/>
       <c r="C3" s="466"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3745,28 +3758,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="466" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="466"/>
       <c r="C9" s="466"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3774,21 +3787,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3797,7 +3810,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
         <v>60</v>
@@ -3806,7 +3819,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="466" t="s">
         <v>128</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -3841,7 +3854,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3855,7 +3868,7 @@
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3869,7 +3882,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3878,14 +3891,14 @@
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="466" t="s">
         <v>129</v>
       </c>
@@ -3899,7 +3912,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -3920,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3934,7 +3947,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3948,7 +3961,7 @@
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
@@ -3957,7 +3970,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
@@ -3966,7 +3979,7 @@
       <c r="J26" s="230"/>
       <c r="K26" s="230"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="466"/>
       <c r="C27" s="466"/>
       <c r="G27" s="7"/>
@@ -3975,14 +3988,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" ht="15.75" thickBot="true">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="478" t="s">
         <v>56</v>
       </c>
@@ -3994,7 +4007,7 @@
       <c r="J29" s="61"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" s="479"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
@@ -4004,7 +4017,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31" s="479" t="s">
         <v>57</v>
       </c>
@@ -4016,7 +4029,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" ht="15.75" thickBot="true">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F32" s="480"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
@@ -4026,7 +4039,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="466"/>
       <c r="C33" s="466"/>
       <c r="G33" s="7"/>
@@ -4035,14 +4048,14 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" ht="15.75" thickBot="true">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -4052,7 +4065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F36" s="472" t="s">
         <v>130</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F37" s="473"/>
       <c r="G37" s="476"/>
       <c r="H37" s="24" t="e">
@@ -4104,7 +4117,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F38" s="473"/>
       <c r="G38" s="476"/>
       <c r="H38" s="24" t="e">
@@ -4128,7 +4141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F39" s="473"/>
       <c r="G39" s="476"/>
       <c r="H39" s="24" t="e">
@@ -4152,7 +4165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F40" s="473"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
@@ -4161,7 +4174,7 @@
       <c r="K40" s="65"/>
       <c r="M40" s="109"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F41" s="473"/>
       <c r="G41" s="476" t="s">
         <v>131</v>
@@ -4187,7 +4200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F42" s="473"/>
       <c r="G42" s="476"/>
       <c r="H42" s="24" t="e">
@@ -4211,7 +4224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F43" s="473"/>
       <c r="G43" s="476"/>
       <c r="H43" s="24" t="e">
@@ -4235,7 +4248,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" ht="15.75" thickBot="true">
+    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="474"/>
       <c r="G44" s="477"/>
       <c r="H44" s="64" t="e">
@@ -4259,7 +4272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" ht="15.75" thickBot="true">
+    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -4267,7 +4280,7 @@
       <c r="K45" s="7"/>
       <c r="M45" s="109"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F46" s="472" t="s">
         <v>132</v>
       </c>
@@ -4295,7 +4308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F47" s="473"/>
       <c r="G47" s="476"/>
       <c r="H47" s="24" t="e">
@@ -4319,7 +4332,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F48" s="473"/>
       <c r="G48" s="476"/>
       <c r="H48" s="24" t="e">
@@ -4343,7 +4356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F49" s="473"/>
       <c r="G49" s="476"/>
       <c r="H49" s="24" t="e">
@@ -4367,7 +4380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F50" s="473"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -4376,7 +4389,7 @@
       <c r="K50" s="65"/>
       <c r="M50" s="109"/>
     </row>
-    <row r="51">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F51" s="473"/>
       <c r="G51" s="476" t="s">
         <v>131</v>
@@ -4402,7 +4415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F52" s="473"/>
       <c r="G52" s="476"/>
       <c r="H52" s="24" t="e">
@@ -4426,7 +4439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F53" s="473"/>
       <c r="G53" s="476"/>
       <c r="H53" s="24" t="e">
@@ -4450,7 +4463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" ht="15.75" thickBot="true">
+    <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="474"/>
       <c r="G54" s="477"/>
       <c r="H54" s="64" t="e">
@@ -4474,14 +4487,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G56" s="30" t="s">
         <v>94</v>
       </c>
@@ -4506,7 +4519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G57" s="30"/>
       <c r="H57" s="30" t="e">
         <f t="shared" ref="H57:K59" si="5">H17/H$33</f>
@@ -4529,7 +4542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="e">
         <f t="shared" si="5"/>
@@ -4552,7 +4565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30" t="e">
         <f t="shared" si="5"/>
@@ -4575,14 +4588,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G61" s="30"/>
       <c r="H61" s="30" t="e">
         <f>H23/H$34</f>
@@ -4605,7 +4618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G62" s="30"/>
       <c r="H62" s="30" t="e">
         <f t="shared" ref="H62:K64" si="7">H24/H$34</f>
@@ -4628,7 +4641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="e">
         <f t="shared" si="7"/>
@@ -4651,7 +4664,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="e">
         <f t="shared" si="7"/>
@@ -4676,6 +4689,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4684,37 +4703,31 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="true"/>
-    <col min="3" max="3" width="18.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -4722,24 +4735,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -4747,13 +4760,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -4765,21 +4778,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="true"/>
-    <col min="4" max="4" width="11.28515625" customWidth="true"/>
-    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4794,7 +4807,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4805,7 +4818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4820,7 +4833,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4835,7 +4848,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4865,7 +4878,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4880,7 +4893,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>77</v>
       </c>
@@ -4903,7 +4916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4913,18 +4926,18 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.140625" customWidth="true"/>
-    <col min="6" max="9" width="17.42578125" customWidth="true"/>
-    <col min="10" max="11" width="17.42578125" style="5" customWidth="true"/>
-    <col min="12" max="12" width="14.5703125" style="5" customWidth="true"/>
-    <col min="14" max="14" width="47.28515625" customWidth="true"/>
-    <col min="15" max="23" width="12.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" customWidth="1"/>
+    <col min="15" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -4950,20 +4963,20 @@
       <c r="K1" s="460"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="494" t="s">
+      <c r="N1" s="490" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="495"/>
-      <c r="P1" s="495"/>
-      <c r="Q1" s="495"/>
-      <c r="R1" s="495"/>
-      <c r="S1" s="496"/>
+      <c r="O1" s="491"/>
+      <c r="P1" s="491"/>
+      <c r="Q1" s="491"/>
+      <c r="R1" s="491"/>
+      <c r="S1" s="492"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4981,18 +4994,18 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="515" t="s">
+      <c r="N2" s="493" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="516"/>
-      <c r="P2" s="516" t="s">
+      <c r="O2" s="494"/>
+      <c r="P2" s="494" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="516"/>
-      <c r="R2" s="517" t="s">
+      <c r="Q2" s="494"/>
+      <c r="R2" s="495" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="519" t="s">
+      <c r="S2" s="497" t="s">
         <v>125</v>
       </c>
       <c r="T2" s="8"/>
@@ -5000,7 +5013,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="15.75" thickBot="true">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5038,14 +5051,14 @@
       <c r="Q3" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="518"/>
-      <c r="S3" s="520"/>
+      <c r="R3" s="496"/>
+      <c r="S3" s="498"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -5083,10 +5096,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="487" t="s">
+      <c r="L4" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="488"/>
+      <c r="M4" s="501"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input_old!F8</f>
         <v>0</v>
@@ -5116,7 +5129,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -5154,8 +5167,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="487"/>
-      <c r="M5" s="488"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="501"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input_old!F9</f>
         <v>0</v>
@@ -5185,7 +5198,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -5223,8 +5236,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="487"/>
-      <c r="M6" s="488"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="501"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input_old!F10</f>
         <v>0</v>
@@ -5254,7 +5267,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" ht="15.75" thickBot="true">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -5292,8 +5305,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="487"/>
-      <c r="M7" s="488"/>
+      <c r="L7" s="500"/>
+      <c r="M7" s="501"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input_old!F11</f>
         <v>0</v>
@@ -5323,7 +5336,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
@@ -5356,7 +5369,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
@@ -5383,7 +5396,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
@@ -5410,7 +5423,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
@@ -5437,7 +5450,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
@@ -5464,7 +5477,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>81</v>
       </c>
@@ -5497,7 +5510,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>82</v>
       </c>
@@ -5530,7 +5543,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
@@ -5563,7 +5576,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
@@ -5594,7 +5607,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" ht="15.75" thickBot="true">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>85</v>
       </c>
@@ -5625,7 +5638,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" ht="15.75" thickBot="true">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -5656,7 +5669,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" ht="15.75" thickBot="true">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -5682,14 +5695,14 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="482" t="s">
+      <c r="T19" s="485" t="s">
         <v>108</v>
       </c>
-      <c r="U19" s="483"/>
-      <c r="V19" s="483"/>
-      <c r="W19" s="484"/>
-    </row>
-    <row r="20" ht="15.75" thickBot="true">
+      <c r="U19" s="486"/>
+      <c r="V19" s="486"/>
+      <c r="W19" s="487"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -5742,7 +5755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -5778,10 +5791,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="487" t="s">
+      <c r="L21" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="488"/>
+      <c r="M21" s="501"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5798,10 +5811,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="485" t="s">
+      <c r="R21" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="486"/>
+      <c r="S21" s="499"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5819,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -5855,8 +5868,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="487"/>
-      <c r="M22" s="488"/>
+      <c r="L22" s="500"/>
+      <c r="M22" s="501"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5873,8 +5886,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="485"/>
-      <c r="S22" s="486"/>
+      <c r="R22" s="503"/>
+      <c r="S22" s="499"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5892,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
@@ -5928,8 +5941,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="487"/>
-      <c r="M23" s="488"/>
+      <c r="L23" s="500"/>
+      <c r="M23" s="501"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5946,8 +5959,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="485"/>
-      <c r="S23" s="486"/>
+      <c r="R23" s="503"/>
+      <c r="S23" s="499"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5965,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" thickBot="true">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
@@ -6001,8 +6014,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="487"/>
-      <c r="M24" s="488"/>
+      <c r="L24" s="500"/>
+      <c r="M24" s="501"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6019,8 +6032,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="485"/>
-      <c r="S24" s="486"/>
+      <c r="R24" s="503"/>
+      <c r="S24" s="499"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6038,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -6074,10 +6087,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="488" t="s">
+      <c r="L25" s="501" t="s">
         <v>104</v>
       </c>
-      <c r="M25" s="488"/>
+      <c r="M25" s="501"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6094,16 +6107,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="485" t="s">
+      <c r="R25" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S25" s="491"/>
+      <c r="S25" s="518"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
       <c r="W25" s="192"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -6139,8 +6152,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="488"/>
-      <c r="M26" s="488"/>
+      <c r="L26" s="501"/>
+      <c r="M26" s="501"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6157,14 +6170,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="491"/>
-      <c r="S26" s="491"/>
+      <c r="R26" s="518"/>
+      <c r="S26" s="518"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
       <c r="W26" s="194"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="27" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>9</v>
@@ -6200,8 +6213,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="488"/>
-      <c r="M27" s="488"/>
+      <c r="L27" s="501"/>
+      <c r="M27" s="501"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6218,14 +6231,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="491"/>
-      <c r="S27" s="491"/>
+      <c r="R27" s="518"/>
+      <c r="S27" s="518"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
       <c r="W27" s="197"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -6243,8 +6256,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="488"/>
-      <c r="M28" s="488"/>
+      <c r="L28" s="501"/>
+      <c r="M28" s="501"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6256,7 +6269,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -6287,7 +6300,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" s="8" customFormat="true">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6317,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -6329,7 +6342,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -6354,7 +6367,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" s="8" customFormat="true">
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
@@ -6371,7 +6384,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -6394,7 +6407,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -6417,7 +6430,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" ht="15.75" thickBot="true">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>14</v>
@@ -6440,7 +6453,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" ht="15.75" thickBot="true">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -6464,14 +6477,14 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="482" t="s">
+      <c r="T37" s="485" t="s">
         <v>138</v>
       </c>
-      <c r="U37" s="483"/>
-      <c r="V37" s="483"/>
-      <c r="W37" s="484"/>
-    </row>
-    <row r="38" ht="15.75" thickBot="true">
+      <c r="U37" s="486"/>
+      <c r="V37" s="486"/>
+      <c r="W37" s="487"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -6524,7 +6537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -6560,10 +6573,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="487" t="s">
+      <c r="L39" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="488"/>
+      <c r="M39" s="501"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6580,10 +6593,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="486" t="s">
+      <c r="R39" s="499" t="s">
         <v>109</v>
       </c>
-      <c r="S39" s="486"/>
+      <c r="S39" s="499"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6601,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6637,8 +6650,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="487"/>
-      <c r="M40" s="488"/>
+      <c r="L40" s="500"/>
+      <c r="M40" s="501"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6655,8 +6668,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="486"/>
-      <c r="S40" s="486"/>
+      <c r="R40" s="499"/>
+      <c r="S40" s="499"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6674,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6710,8 +6723,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="487"/>
-      <c r="M41" s="488"/>
+      <c r="L41" s="500"/>
+      <c r="M41" s="501"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6728,8 +6741,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="486"/>
-      <c r="S41" s="486"/>
+      <c r="R41" s="499"/>
+      <c r="S41" s="499"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6747,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" thickBot="true">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6783,8 +6796,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="487"/>
-      <c r="M42" s="488"/>
+      <c r="L42" s="500"/>
+      <c r="M42" s="501"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6801,8 +6814,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="486"/>
-      <c r="S42" s="486"/>
+      <c r="R42" s="499"/>
+      <c r="S42" s="499"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6820,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -6856,10 +6869,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="487" t="s">
+      <c r="L43" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="488"/>
+      <c r="M43" s="501"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6876,10 +6889,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="485" t="s">
+      <c r="R43" s="503" t="s">
         <v>109</v>
       </c>
-      <c r="S43" s="491"/>
+      <c r="S43" s="518"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input_old!G46</f>
         <v>0</v>
@@ -6897,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -6933,8 +6946,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="487"/>
-      <c r="M44" s="488"/>
+      <c r="L44" s="500"/>
+      <c r="M44" s="501"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6951,8 +6964,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="491"/>
-      <c r="S44" s="491"/>
+      <c r="R44" s="518"/>
+      <c r="S44" s="518"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input_old!G47</f>
         <v>0</v>
@@ -6970,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="45" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
@@ -7006,8 +7019,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="487"/>
-      <c r="M45" s="488"/>
+      <c r="L45" s="500"/>
+      <c r="M45" s="501"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -7024,8 +7037,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="491"/>
-      <c r="S45" s="491"/>
+      <c r="R45" s="518"/>
+      <c r="S45" s="518"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input_old!G48</f>
         <v>0</v>
@@ -7043,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -7061,8 +7074,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="487"/>
-      <c r="M46" s="514"/>
+      <c r="L46" s="500"/>
+      <c r="M46" s="502"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7074,7 +7087,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -7099,7 +7112,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" s="8" customFormat="true">
+    <row r="48" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -7116,7 +7129,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -7141,7 +7154,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>11</v>
@@ -7166,7 +7179,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" s="8" customFormat="true">
+    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7196,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -7206,7 +7219,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" ht="15.75" thickBot="true">
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>13</v>
@@ -7229,7 +7242,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>14</v>
@@ -7247,20 +7260,20 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="494" t="s">
+      <c r="N54" s="490" t="s">
         <v>103</v>
       </c>
-      <c r="O54" s="495"/>
-      <c r="P54" s="495"/>
-      <c r="Q54" s="495"/>
-      <c r="R54" s="495"/>
-      <c r="S54" s="496"/>
+      <c r="O54" s="491"/>
+      <c r="P54" s="491"/>
+      <c r="Q54" s="491"/>
+      <c r="R54" s="491"/>
+      <c r="S54" s="492"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" ht="15.75" thickBot="true">
+    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>15</v>
@@ -7278,18 +7291,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="497" t="s">
+      <c r="N55" s="520" t="s">
         <v>122</v>
       </c>
-      <c r="O55" s="492"/>
-      <c r="P55" s="492" t="s">
+      <c r="O55" s="484"/>
+      <c r="P55" s="484" t="s">
         <v>123</v>
       </c>
-      <c r="Q55" s="492"/>
-      <c r="R55" s="501" t="s">
+      <c r="Q55" s="484"/>
+      <c r="R55" s="507" t="s">
         <v>124</v>
       </c>
-      <c r="S55" s="510" t="s">
+      <c r="S55" s="513" t="s">
         <v>125</v>
       </c>
       <c r="T55" s="8"/>
@@ -7297,7 +7310,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" ht="15" customHeight="true" thickBot="true">
+    <row r="56" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -7335,14 +7348,14 @@
       <c r="Q56" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="R56" s="502"/>
-      <c r="S56" s="511"/>
+      <c r="R56" s="508"/>
+      <c r="S56" s="514"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>9</v>
@@ -7378,10 +7391,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="487" t="s">
+      <c r="L57" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="M57" s="488"/>
+      <c r="M57" s="501"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input_old!F61</f>
         <v>0</v>
@@ -7411,7 +7424,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>9</v>
@@ -7447,8 +7460,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="487"/>
-      <c r="M58" s="488"/>
+      <c r="L58" s="500"/>
+      <c r="M58" s="501"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input_old!F62</f>
         <v>0</v>
@@ -7478,7 +7491,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>9</v>
@@ -7514,8 +7527,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="487"/>
-      <c r="M59" s="488"/>
+      <c r="L59" s="500"/>
+      <c r="M59" s="501"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input_old!F63</f>
         <v>0</v>
@@ -7545,7 +7558,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="60" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>9</v>
@@ -7581,8 +7594,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="487"/>
-      <c r="M60" s="488"/>
+      <c r="L60" s="500"/>
+      <c r="M60" s="501"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input_old!F64</f>
         <v>0</v>
@@ -7612,7 +7625,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -7643,7 +7656,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -7668,7 +7681,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -7693,7 +7706,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" s="8" customFormat="true">
+    <row r="64" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -7711,7 +7724,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -7736,7 +7749,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>11</v>
@@ -7767,7 +7780,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -7798,7 +7811,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" s="8" customFormat="true">
+    <row r="68" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -7816,7 +7829,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -7845,7 +7858,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" ht="15.75" thickBot="true">
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>13</v>
@@ -7874,7 +7887,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>14</v>
@@ -7903,7 +7916,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" ht="15.75" thickBot="true">
+    <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>15</v>
@@ -7921,15 +7934,15 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="492" t="s">
+      <c r="N72" s="484" t="s">
         <v>99</v>
       </c>
-      <c r="O72" s="492"/>
-      <c r="P72" s="492"/>
-      <c r="Q72" s="492"/>
+      <c r="O72" s="484"/>
+      <c r="P72" s="484"/>
+      <c r="Q72" s="484"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>16</v>
@@ -7955,17 +7968,17 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="493" t="s">
+      <c r="N73" s="519" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="493"/>
-      <c r="P73" s="493" t="s">
+      <c r="O73" s="519"/>
+      <c r="P73" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="Q73" s="493"/>
+      <c r="Q73" s="519"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -8005,7 +8018,7 @@
       </c>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" ht="15" customHeight="true">
+    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>34</v>
@@ -8039,10 +8052,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="489" t="s">
+      <c r="L75" s="516" t="s">
         <v>105</v>
       </c>
-      <c r="M75" s="490"/>
+      <c r="M75" s="517"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8060,16 +8073,16 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="512" t="s">
+      <c r="S75" s="515" t="s">
         <v>159</v>
       </c>
-      <c r="T75" s="512"/>
-      <c r="U75" s="512"/>
-      <c r="V75" s="512"/>
-      <c r="W75" s="512"/>
-      <c r="X75" s="512"/>
-    </row>
-    <row r="76">
+      <c r="T75" s="515"/>
+      <c r="U75" s="515"/>
+      <c r="V75" s="515"/>
+      <c r="W75" s="515"/>
+      <c r="X75" s="515"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>34</v>
@@ -8095,7 +8108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" ht="15.75" thickBot="true">
+    <row r="77" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>34</v>
@@ -8126,7 +8139,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" ht="15.75" thickBot="true">
+    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
@@ -8144,24 +8157,24 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="482" t="s">
+      <c r="N78" s="485" t="s">
         <v>106</v>
       </c>
-      <c r="O78" s="483"/>
-      <c r="P78" s="483"/>
-      <c r="Q78" s="483"/>
-      <c r="R78" s="483"/>
-      <c r="S78" s="484"/>
-      <c r="T78" s="482" t="s">
+      <c r="O78" s="486"/>
+      <c r="P78" s="486"/>
+      <c r="Q78" s="486"/>
+      <c r="R78" s="486"/>
+      <c r="S78" s="487"/>
+      <c r="T78" s="485" t="s">
         <v>142</v>
       </c>
-      <c r="U78" s="483"/>
-      <c r="V78" s="483"/>
-      <c r="W78" s="483"/>
-      <c r="X78" s="483"/>
-      <c r="Y78" s="484"/>
-    </row>
-    <row r="79" ht="15.75" thickBot="true">
+      <c r="U78" s="486"/>
+      <c r="V78" s="486"/>
+      <c r="W78" s="486"/>
+      <c r="X78" s="486"/>
+      <c r="Y78" s="487"/>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -8179,36 +8192,36 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="508" t="s">
+      <c r="N79" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="O79" s="509"/>
-      <c r="P79" s="482" t="s">
+      <c r="O79" s="489"/>
+      <c r="P79" s="485" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="483"/>
-      <c r="R79" s="506" t="s">
+      <c r="Q79" s="486"/>
+      <c r="R79" s="482" t="s">
         <v>139</v>
       </c>
-      <c r="S79" s="506" t="s">
+      <c r="S79" s="482" t="s">
         <v>140</v>
       </c>
-      <c r="T79" s="508" t="s">
+      <c r="T79" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="U79" s="509"/>
-      <c r="V79" s="482" t="s">
+      <c r="U79" s="489"/>
+      <c r="V79" s="485" t="s">
         <v>123</v>
       </c>
-      <c r="W79" s="483"/>
-      <c r="X79" s="506" t="s">
+      <c r="W79" s="486"/>
+      <c r="X79" s="482" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="506" t="s">
+      <c r="Y79" s="482" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" ht="15.75" thickBot="true">
+    <row r="80" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>39</v>
@@ -8238,8 +8251,8 @@
       <c r="Q80" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="R80" s="507"/>
-      <c r="S80" s="507"/>
+      <c r="R80" s="512"/>
+      <c r="S80" s="512"/>
       <c r="T80" s="123" t="s">
         <v>112</v>
       </c>
@@ -8252,10 +8265,10 @@
       <c r="W80" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="X80" s="513"/>
-      <c r="Y80" s="513"/>
-    </row>
-    <row r="81">
+      <c r="X80" s="483"/>
+      <c r="Y80" s="483"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>40</v>
@@ -8287,10 +8300,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="499" t="s">
+      <c r="L81" s="505" t="s">
         <v>166</v>
       </c>
-      <c r="M81" s="500"/>
+      <c r="M81" s="506"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8304,7 +8317,7 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>41</v>
@@ -8330,26 +8343,26 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="499"/>
-      <c r="M82" s="500"/>
-      <c r="N82" s="503" t="s">
+      <c r="L82" s="505"/>
+      <c r="M82" s="506"/>
+      <c r="N82" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="O82" s="504"/>
-      <c r="P82" s="504"/>
-      <c r="Q82" s="504"/>
-      <c r="R82" s="504"/>
-      <c r="S82" s="505"/>
-      <c r="T82" s="492" t="s">
+      <c r="O82" s="510"/>
+      <c r="P82" s="510"/>
+      <c r="Q82" s="510"/>
+      <c r="R82" s="510"/>
+      <c r="S82" s="511"/>
+      <c r="T82" s="484" t="s">
         <v>141</v>
       </c>
-      <c r="U82" s="492"/>
-      <c r="V82" s="492"/>
-      <c r="W82" s="492"/>
-      <c r="X82" s="492"/>
-      <c r="Y82" s="492"/>
-    </row>
-    <row r="83">
+      <c r="U82" s="484"/>
+      <c r="V82" s="484"/>
+      <c r="W82" s="484"/>
+      <c r="X82" s="484"/>
+      <c r="Y82" s="484"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>42</v>
@@ -8375,7 +8388,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>43</v>
@@ -8404,7 +8417,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>44</v>
@@ -8431,7 +8444,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>45</v>
@@ -8460,7 +8473,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -8487,7 +8500,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>47</v>
@@ -8514,7 +8527,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>48</v>
@@ -8555,7 +8568,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>49</v>
@@ -8598,7 +8611,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>50</v>
@@ -8627,7 +8640,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>161</v>
@@ -8668,7 +8681,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="90" t="s">
         <v>33</v>
@@ -8709,7 +8722,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="90" t="s">
         <v>88</v>
@@ -8749,7 +8762,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="90" t="s">
         <v>89</v>
@@ -8780,7 +8793,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="90" t="s">
         <v>90</v>
@@ -8821,7 +8834,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="100" t="s">
         <v>91</v>
@@ -8837,7 +8850,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="498" t="s">
+      <c r="L97" s="504" t="s">
         <v>111</v>
       </c>
       <c r="M97" s="8"/>
@@ -8854,7 +8867,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="100" t="s">
         <v>92</v>
@@ -8870,7 +8883,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="498"/>
+      <c r="L98" s="504"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8887,7 +8900,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="100" t="s">
         <v>91</v>
@@ -8903,7 +8916,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="498"/>
+      <c r="L99" s="504"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>184</v>
@@ -8929,7 +8942,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="100" t="s">
         <v>92</v>
@@ -8945,7 +8958,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="498"/>
+      <c r="L100" s="504"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>188</v>
@@ -8971,7 +8984,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
         <v>148</v>
@@ -9013,7 +9026,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
         <v>149</v>
@@ -9042,7 +9055,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="101" t="s">
         <v>93</v>
@@ -9060,11 +9073,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="485" t="s">
+      <c r="L103" s="503" t="s">
         <v>110</v>
       </c>
-      <c r="M103" s="485"/>
-      <c r="N103" s="485"/>
+      <c r="M103" s="503"/>
+      <c r="N103" s="503"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9075,7 +9088,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="101" t="s">
         <v>93</v>
@@ -9093,9 +9106,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="485"/>
-      <c r="M104" s="485"/>
-      <c r="N104" s="485"/>
+      <c r="L104" s="503"/>
+      <c r="M104" s="503"/>
+      <c r="N104" s="503"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9106,7 +9119,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="101" t="s">
         <v>93</v>
@@ -9124,9 +9137,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="485"/>
-      <c r="M105" s="485"/>
-      <c r="N105" s="485"/>
+      <c r="L105" s="503"/>
+      <c r="M105" s="503"/>
+      <c r="N105" s="503"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9137,7 +9150,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="101" t="s">
         <v>93</v>
@@ -9155,9 +9168,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="485"/>
-      <c r="M106" s="485"/>
-      <c r="N106" s="485"/>
+      <c r="L106" s="503"/>
+      <c r="M106" s="503"/>
+      <c r="N106" s="503"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9168,7 +9181,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="101" t="s">
         <v>93</v>
@@ -9186,9 +9199,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="485"/>
-      <c r="M107" s="485"/>
-      <c r="N107" s="485"/>
+      <c r="L107" s="503"/>
+      <c r="M107" s="503"/>
+      <c r="N107" s="503"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9199,7 +9212,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="101" t="s">
         <v>93</v>
@@ -9217,9 +9230,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="485"/>
-      <c r="M108" s="485"/>
-      <c r="N108" s="485"/>
+      <c r="L108" s="503"/>
+      <c r="M108" s="503"/>
+      <c r="N108" s="503"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9230,7 +9243,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="101" t="s">
         <v>93</v>
@@ -9248,9 +9261,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="485"/>
-      <c r="M109" s="485"/>
-      <c r="N109" s="485"/>
+      <c r="L109" s="503"/>
+      <c r="M109" s="503"/>
+      <c r="N109" s="503"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9261,7 +9274,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="101" t="s">
         <v>93</v>
@@ -9279,9 +9292,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="485"/>
-      <c r="M110" s="485"/>
-      <c r="N110" s="485"/>
+      <c r="L110" s="503"/>
+      <c r="M110" s="503"/>
+      <c r="N110" s="503"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9292,7 +9305,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="159" t="s">
         <v>151</v>
       </c>
@@ -9308,7 +9321,7 @@
       <c r="J111" s="161"/>
       <c r="K111" s="161"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="159" t="s">
         <v>151</v>
       </c>
@@ -9327,7 +9340,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="159" t="s">
         <v>151</v>
       </c>
@@ -9343,7 +9356,7 @@
       <c r="J113" s="161"/>
       <c r="K113" s="161"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="159" t="s">
         <v>151</v>
       </c>
@@ -9361,36 +9374,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9407,6 +9390,36 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9415,31 +9428,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F110" sqref="F110"/>
+      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="17.5703125" customWidth="true"/>
-    <col min="3" max="3" width="12" customWidth="true"/>
-    <col min="5" max="5" width="10.7109375" customWidth="true"/>
-    <col min="6" max="9" width="17.42578125" style="331" customWidth="true"/>
-    <col min="10" max="11" width="17.42578125" style="338" customWidth="true"/>
-    <col min="12" max="12" width="34.42578125" style="5" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" style="331" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="338" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -9467,7 +9480,7 @@
       <c r="K1" s="460"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -9487,7 +9500,7 @@
       <c r="K2" s="337"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -9515,7 +9528,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -9543,7 +9556,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" ht="15" customHeight="true">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -9573,7 +9586,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="456" t="s">
         <v>53</v>
       </c>
@@ -9611,7 +9624,7 @@
       </c>
       <c r="L6" s="242"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>227</v>
       </c>
@@ -9649,7 +9662,7 @@
       </c>
       <c r="L7" s="242"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>228</v>
       </c>
@@ -9687,7 +9700,7 @@
       </c>
       <c r="L8" s="242"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>230</v>
       </c>
@@ -9725,7 +9738,7 @@
       </c>
       <c r="L9" s="242"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>18</v>
       </c>
@@ -9763,7 +9776,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>229</v>
       </c>
@@ -9801,7 +9814,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="457" t="s">
         <v>231</v>
       </c>
@@ -9839,7 +9852,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="452" t="s">
         <v>260</v>
       </c>
@@ -9879,7 +9892,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="452" t="s">
         <v>261</v>
       </c>
@@ -9917,7 +9930,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="452" t="s">
         <v>278</v>
       </c>
@@ -9955,7 +9968,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="452" t="s">
         <v>262</v>
       </c>
@@ -9993,7 +10006,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="453" t="s">
         <v>263</v>
       </c>
@@ -10031,7 +10044,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="453" t="s">
         <v>264</v>
       </c>
@@ -10069,7 +10082,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -10107,7 +10120,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="272" t="s">
         <v>272</v>
       </c>
@@ -10126,7 +10139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="272" t="s">
         <v>272</v>
       </c>
@@ -10143,7 +10156,7 @@
       <c r="K21" s="250"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" ht="15" customHeight="true">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="272" t="s">
         <v>272</v>
       </c>
@@ -10160,7 +10173,7 @@
       <c r="K22" s="252"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="272" t="s">
         <v>272</v>
       </c>
@@ -10177,7 +10190,7 @@
       <c r="K23" s="253"/>
       <c r="L23" s="242"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="272" t="s">
         <v>272</v>
       </c>
@@ -10194,7 +10207,7 @@
       <c r="K24" s="253"/>
       <c r="L24" s="242"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="272" t="s">
         <v>272</v>
       </c>
@@ -10211,7 +10224,7 @@
       <c r="K25" s="253"/>
       <c r="L25" s="242"/>
     </row>
-    <row r="26" ht="15" customHeight="true">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="272" t="s">
         <v>272</v>
@@ -10229,7 +10242,7 @@
       <c r="K26" s="254"/>
       <c r="L26" s="242"/>
     </row>
-    <row r="27" ht="15" customHeight="true">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="251" t="s">
         <v>40</v>
@@ -10245,7 +10258,7 @@
       <c r="K27" s="254"/>
       <c r="L27" s="418"/>
     </row>
-    <row r="28" ht="15" customHeight="true">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="251" t="s">
         <v>258</v>
@@ -10261,7 +10274,7 @@
       <c r="K28" s="254"/>
       <c r="L28" s="418"/>
     </row>
-    <row r="29" ht="15" customHeight="true">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="251" t="s">
         <v>42</v>
@@ -10277,7 +10290,7 @@
       <c r="K29" s="254"/>
       <c r="L29" s="418"/>
     </row>
-    <row r="30" ht="15" customHeight="true">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="251" t="s">
         <v>257</v>
@@ -10293,7 +10306,7 @@
       <c r="K30" s="254"/>
       <c r="L30" s="418"/>
     </row>
-    <row r="31" ht="15" customHeight="true">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="251" t="s">
         <v>276</v>
@@ -10309,7 +10322,7 @@
       <c r="K31" s="254"/>
       <c r="L31" s="418"/>
     </row>
-    <row r="32" ht="15" customHeight="true">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="251" t="s">
         <v>277</v>
@@ -10325,7 +10338,7 @@
       <c r="K32" s="254"/>
       <c r="L32" s="418"/>
     </row>
-    <row r="33" ht="15" customHeight="true">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="284" t="s">
         <v>226</v>
@@ -10351,7 +10364,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="284" t="s">
         <v>275</v>
@@ -10373,7 +10386,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="true">
+    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="287" t="s">
         <v>275</v>
       </c>
@@ -10392,7 +10405,7 @@
       <c r="K35" s="325"/>
       <c r="L35" s="243"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="287" t="s">
         <v>275</v>
@@ -10412,7 +10425,7 @@
       <c r="K36" s="325"/>
       <c r="L36" s="243"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="287" t="s">
         <v>275</v>
@@ -10432,7 +10445,7 @@
       <c r="K37" s="325"/>
       <c r="L37" s="243"/>
     </row>
-    <row r="38" s="8" customFormat="true">
+    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="287" t="s">
         <v>275</v>
       </c>
@@ -10451,7 +10464,7 @@
       <c r="K38" s="325"/>
       <c r="L38" s="243"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="287" t="s">
         <v>275</v>
@@ -10471,7 +10484,7 @@
       <c r="K39" s="325"/>
       <c r="L39" s="243"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="289" t="s">
         <v>275</v>
@@ -10491,7 +10504,7 @@
       <c r="K40" s="325"/>
       <c r="L40" s="243"/>
     </row>
-    <row r="41" s="8" customFormat="true">
+    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="278" t="s">
         <v>242</v>
       </c>
@@ -10518,7 +10531,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="278" t="s">
         <v>242</v>
@@ -10544,7 +10557,7 @@
       <c r="K42" s="257"/>
       <c r="L42" s="243"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="278" t="s">
         <v>242</v>
@@ -10570,7 +10583,7 @@
       <c r="K43" s="258"/>
       <c r="L43" s="243"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="281" t="s">
         <v>242</v>
@@ -10596,7 +10609,7 @@
       <c r="K44" s="259"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="284" t="s">
         <v>243</v>
@@ -10624,7 +10637,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="287" t="s">
         <v>243</v>
@@ -10650,7 +10663,7 @@
       <c r="K46" s="261"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="287" t="s">
         <v>243</v>
@@ -10676,7 +10689,7 @@
       <c r="K47" s="261"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="287" t="s">
         <v>243</v>
@@ -10702,7 +10715,7 @@
       <c r="K48" s="261"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="299" t="s">
         <v>273</v>
@@ -10728,7 +10741,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="302" t="s">
         <v>274</v>
@@ -10754,7 +10767,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="305" t="s">
         <v>226</v>
@@ -10780,7 +10793,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="305" t="s">
         <v>275</v>
@@ -10802,7 +10815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="308" t="s">
         <v>275</v>
@@ -10822,7 +10835,7 @@
       <c r="K53" s="314"/>
       <c r="L53" s="243"/>
     </row>
-    <row r="54" ht="15" customHeight="true">
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="308" t="s">
         <v>275</v>
@@ -10842,7 +10855,7 @@
       <c r="K54" s="314"/>
       <c r="L54" s="243"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="308" t="s">
         <v>275</v>
@@ -10862,7 +10875,7 @@
       <c r="K55" s="314"/>
       <c r="L55" s="243"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="308" t="s">
         <v>275</v>
@@ -10882,7 +10895,7 @@
       <c r="K56" s="314"/>
       <c r="L56" s="243"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="308" t="s">
         <v>275</v>
@@ -10902,7 +10915,7 @@
       <c r="K57" s="314"/>
       <c r="L57" s="243"/>
     </row>
-    <row r="58" ht="15" customHeight="true">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="311" t="s">
         <v>275</v>
@@ -10922,7 +10935,7 @@
       <c r="K58" s="314"/>
       <c r="L58" s="243"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="292" t="s">
         <v>242</v>
@@ -10950,7 +10963,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" s="8" customFormat="true">
+    <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="294" t="s">
         <v>242</v>
       </c>
@@ -10975,7 +10988,7 @@
       <c r="K60" s="339"/>
       <c r="L60" s="243"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="294" t="s">
         <v>242</v>
@@ -11001,7 +11014,7 @@
       <c r="K61" s="340"/>
       <c r="L61" s="243"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="297" t="s">
         <v>242</v>
@@ -11027,7 +11040,7 @@
       <c r="K62" s="351"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" s="8" customFormat="true">
+    <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="308" t="s">
         <v>243</v>
       </c>
@@ -11054,7 +11067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="308" t="s">
         <v>243</v>
@@ -11080,7 +11093,7 @@
       <c r="K64" s="314"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="308" t="s">
         <v>243</v>
@@ -11106,7 +11119,7 @@
       <c r="K65" s="314"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" s="8" customFormat="true">
+    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="308" t="s">
         <v>243</v>
       </c>
@@ -11130,7 +11143,7 @@
       </c>
       <c r="K66" s="314"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="292" t="s">
         <v>273</v>
@@ -11156,7 +11169,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="297" t="s">
         <v>274</v>
@@ -11182,7 +11195,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="362" t="s">
         <v>226</v>
@@ -11220,7 +11233,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="true">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="369" t="s">
         <v>275</v>
@@ -11240,7 +11253,7 @@
       <c r="K70" s="419"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" ht="15" customHeight="true">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="372" t="s">
         <v>275</v>
@@ -11260,7 +11273,7 @@
       <c r="K71" s="419"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" ht="15" customHeight="true">
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="372" t="s">
         <v>275</v>
@@ -11280,7 +11293,7 @@
       <c r="K72" s="419"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="372" t="s">
         <v>275</v>
@@ -11300,7 +11313,7 @@
       <c r="K73" s="419"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="372" t="s">
         <v>275</v>
@@ -11314,31 +11327,31 @@
       <c r="E74" s="374"/>
       <c r="F74" s="419">
         <f>ProdSerRet!C26</f>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="G74" s="419">
         <f>F74</f>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="H74" s="419">
         <f t="shared" ref="H74:K74" si="2">G74</f>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="I74" s="419">
         <f t="shared" si="2"/>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="J74" s="419">
         <f t="shared" si="2"/>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="K74" s="419">
         <f t="shared" si="2"/>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" s="8" customFormat="true">
+    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="372" t="s">
         <v>275</v>
       </c>
@@ -11357,7 +11370,7 @@
       <c r="K75" s="419"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="375" t="s">
         <v>275</v>
@@ -11371,31 +11384,31 @@
       <c r="E76" s="377"/>
       <c r="F76" s="419">
         <f>ProdSerRet!D26</f>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="G76" s="419">
         <f>F76</f>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="H76" s="419">
         <f t="shared" ref="H76:K76" si="3">G76</f>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="I76" s="419">
         <f t="shared" si="3"/>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="J76" s="419">
         <f t="shared" si="3"/>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="K76" s="419">
         <f t="shared" si="3"/>
-        <v>0.16703006530556255</v>
+        <v>0.12438409118499338</v>
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="362" t="s">
         <v>242</v>
@@ -11433,7 +11446,7 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="364" t="s">
         <v>242</v>
@@ -11453,7 +11466,7 @@
       <c r="K78" s="421"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" s="8" customFormat="true">
+    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="364" t="s">
         <v>242</v>
       </c>
@@ -11490,7 +11503,7 @@
       </c>
       <c r="L79" s="242"/>
     </row>
-    <row r="80" s="8" customFormat="true">
+    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="366" t="s">
         <v>242</v>
       </c>
@@ -11509,7 +11522,7 @@
       <c r="K80" s="423"/>
       <c r="L80" s="242"/>
     </row>
-    <row r="81" s="8" customFormat="true">
+    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="372" t="s">
         <v>243</v>
       </c>
@@ -11546,7 +11559,7 @@
       </c>
       <c r="L81" s="242"/>
     </row>
-    <row r="82" s="8" customFormat="true">
+    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="372" t="s">
         <v>243</v>
       </c>
@@ -11565,7 +11578,7 @@
       <c r="K82" s="419"/>
       <c r="L82" s="242"/>
     </row>
-    <row r="83" s="8" customFormat="true">
+    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="372" t="s">
         <v>243</v>
       </c>
@@ -11584,7 +11597,7 @@
       <c r="K83" s="419"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" s="8" customFormat="true">
+    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="372" t="s">
         <v>243</v>
       </c>
@@ -11603,7 +11616,7 @@
       <c r="K84" s="419"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" s="8" customFormat="true">
+    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="362" t="s">
         <v>273</v>
       </c>
@@ -11620,7 +11633,7 @@
       <c r="K85" s="426"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" s="8" customFormat="true">
+    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="366" t="s">
         <v>274</v>
       </c>
@@ -11637,7 +11650,7 @@
       <c r="K86" s="427"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" s="8" customFormat="true">
+    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="387" t="s">
         <v>226</v>
       </c>
@@ -11674,7 +11687,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" s="8" customFormat="true">
+    <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="378" t="s">
         <v>275</v>
       </c>
@@ -11693,7 +11706,7 @@
       <c r="K88" s="429"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" s="8" customFormat="true">
+    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="381" t="s">
         <v>275</v>
       </c>
@@ -11712,7 +11725,7 @@
       <c r="K89" s="429"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" s="8" customFormat="true">
+    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="381" t="s">
         <v>275</v>
       </c>
@@ -11731,7 +11744,7 @@
       <c r="K90" s="429"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" s="8" customFormat="true">
+    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="381" t="s">
         <v>275</v>
       </c>
@@ -11750,7 +11763,7 @@
       <c r="K91" s="429"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" s="8" customFormat="true">
+    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="381" t="s">
         <v>275</v>
       </c>
@@ -11763,31 +11776,31 @@
       <c r="E92" s="383"/>
       <c r="F92" s="429">
         <f>ProdSerRet!C27</f>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="G92" s="429">
         <f>F92</f>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="H92" s="429">
         <f t="shared" ref="H92:K92" si="10">G92</f>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="I92" s="429">
         <f t="shared" si="10"/>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="J92" s="429">
         <f t="shared" si="10"/>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="K92" s="429">
         <f t="shared" si="10"/>
-        <v>0.25083635683412664</v>
+        <v>0.22132619720658231</v>
       </c>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" s="8" customFormat="true">
+    <row r="93" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="381" t="s">
         <v>275</v>
       </c>
@@ -11806,7 +11819,7 @@
       <c r="K93" s="429"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="384" t="s">
         <v>275</v>
@@ -11820,31 +11833,31 @@
       <c r="E94" s="386"/>
       <c r="F94" s="429">
         <f>ProdSerRet!D27</f>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="G94" s="429">
         <f>F94</f>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="H94" s="429">
         <f t="shared" ref="H94:K94" si="11">G94</f>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="I94" s="429">
         <f t="shared" si="11"/>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="J94" s="429">
         <f t="shared" si="11"/>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="K94" s="429">
         <f t="shared" si="11"/>
-        <v>0.15456692781533504</v>
+        <v>0.1363825833664721</v>
       </c>
       <c r="L94" s="9"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="387" t="s">
         <v>242</v>
@@ -11882,7 +11895,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="390" t="s">
         <v>242</v>
@@ -11902,7 +11915,7 @@
       <c r="K96" s="432"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" s="8" customFormat="true">
+    <row r="97" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="390" t="s">
         <v>242</v>
       </c>
@@ -11939,7 +11952,7 @@
       </c>
       <c r="L97" s="9"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="392" t="s">
         <v>242</v>
@@ -11959,7 +11972,7 @@
       <c r="K98" s="434"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="381" t="s">
         <v>243</v>
@@ -11997,7 +12010,7 @@
       </c>
       <c r="L99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="381" t="s">
         <v>243</v>
@@ -12017,7 +12030,7 @@
       <c r="K100" s="429"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="381" t="s">
         <v>243</v>
@@ -12037,7 +12050,7 @@
       <c r="K101" s="429"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="381" t="s">
         <v>243</v>
@@ -12057,7 +12070,7 @@
       <c r="K102" s="429"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="387" t="s">
         <v>273</v>
@@ -12075,7 +12088,7 @@
       <c r="K103" s="394"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" ht="15" customHeight="true">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="392" t="s">
         <v>274</v>
@@ -12093,7 +12106,7 @@
       <c r="K104" s="396"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="398" t="s">
         <v>226</v>
@@ -12131,7 +12144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="409" t="s">
         <v>275</v>
@@ -12151,7 +12164,7 @@
       <c r="K106" s="437"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="412" t="s">
         <v>275</v>
@@ -12171,7 +12184,7 @@
       <c r="K107" s="437"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="412" t="s">
         <v>275</v>
@@ -12191,7 +12204,7 @@
       <c r="K108" s="437"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="412" t="s">
         <v>275</v>
@@ -12211,7 +12224,7 @@
       <c r="K109" s="437"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" ht="15" customHeight="true">
+    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="412" t="s">
         <v>275</v>
@@ -12225,31 +12238,31 @@
       <c r="E110" s="414"/>
       <c r="F110" s="437">
         <f>ProdSerRet!C28</f>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="G110" s="437">
         <f>F110</f>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="H110" s="437">
         <f t="shared" ref="H110:K112" si="15">G110</f>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="I110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="J110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="K110" s="437">
         <f t="shared" si="15"/>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="412" t="s">
         <v>275</v>
@@ -12269,7 +12282,7 @@
       <c r="K111" s="437"/>
       <c r="L111" s="244"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="415" t="s">
         <v>275</v>
@@ -12283,31 +12296,31 @@
       <c r="E112" s="417"/>
       <c r="F112" s="437">
         <f>ProdSerRet!D28</f>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="G112" s="437">
         <f>F112</f>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="H112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="I112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="J112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="K112" s="437">
         <f t="shared" si="15"/>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="398" t="s">
         <v>242</v>
@@ -12321,31 +12334,31 @@
       </c>
       <c r="F113" s="438">
         <f>ProdSerRet!I10</f>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="G113" s="438">
         <f>F113</f>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="H113" s="439">
         <f t="shared" ref="H113:K113" si="16">G113</f>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="I113" s="438">
         <f t="shared" si="16"/>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="J113" s="439">
         <f t="shared" si="16"/>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="K113" s="438">
         <f t="shared" si="16"/>
-        <v>0.41457017440794203</v>
+        <v>0.41457017440794192</v>
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="401" t="s">
         <v>242</v>
@@ -12365,7 +12378,7 @@
       <c r="K114" s="440"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="401" t="s">
         <v>242</v>
@@ -12403,7 +12416,7 @@
       </c>
       <c r="L115" s="9"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="403" t="s">
         <v>242</v>
@@ -12423,7 +12436,7 @@
       <c r="K116" s="442"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B117" s="412" t="s">
         <v>243</v>
       </c>
@@ -12436,31 +12449,31 @@
       </c>
       <c r="F117" s="437">
         <f>ProdSerRet!J10</f>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="G117" s="437">
         <f>F117</f>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="H117" s="437">
         <f t="shared" ref="H117:K117" si="18">G117</f>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="I117" s="437">
         <f t="shared" si="18"/>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="J117" s="437">
         <f t="shared" si="18"/>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="K117" s="437">
         <f t="shared" si="18"/>
-        <v>0.20939799735988696</v>
+        <v>0.20939799735988693</v>
       </c>
       <c r="L117" s="445"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118" s="412" t="s">
         <v>243</v>
       </c>
@@ -12479,7 +12492,7 @@
       <c r="K118" s="437"/>
       <c r="L118" s="445"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119" s="412" t="s">
         <v>243</v>
       </c>
@@ -12498,7 +12511,7 @@
       <c r="K119" s="437"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B120" s="412" t="s">
         <v>243</v>
       </c>
@@ -12517,7 +12530,7 @@
       <c r="K120" s="437"/>
       <c r="L120" s="255"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121" s="398" t="s">
         <v>273</v>
       </c>
@@ -12534,7 +12547,7 @@
       <c r="K121" s="405"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" s="403" t="s">
         <v>274</v>
       </c>
@@ -12551,7 +12564,7 @@
       <c r="K122" s="407"/>
       <c r="L122" s="255"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
         <v>34</v>
       </c>
@@ -12562,7 +12575,7 @@
       <c r="E123" s="8"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
         <v>34</v>
       </c>
@@ -12573,7 +12586,7 @@
       <c r="E124" s="8"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>34</v>
       </c>
@@ -12583,7 +12596,7 @@
       </c>
       <c r="E125" s="8"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" s="24" t="s">
         <v>281</v>
       </c>
@@ -12612,7 +12625,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>37</v>
       </c>
@@ -12622,7 +12635,7 @@
       </c>
       <c r="E127" s="8"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
         <v>38</v>
       </c>
@@ -12632,7 +12645,7 @@
       </c>
       <c r="E128" s="8"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
         <v>39</v>
       </c>
@@ -12642,7 +12655,7 @@
       </c>
       <c r="E129" s="8"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
         <v>46</v>
       </c>
@@ -12650,7 +12663,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
         <v>47</v>
       </c>
@@ -12658,7 +12671,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>48</v>
       </c>
@@ -12666,7 +12679,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>49</v>
       </c>
@@ -12674,7 +12687,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>50</v>
       </c>
@@ -12682,7 +12695,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
         <v>161</v>
       </c>
@@ -12690,7 +12703,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" ht="14.25" customHeight="true">
+    <row r="136" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="90" t="s">
         <v>88</v>
       </c>
@@ -12698,7 +12711,7 @@
       <c r="D136" s="90"/>
       <c r="E136" s="90"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="90" t="s">
         <v>89</v>
       </c>
@@ -12706,7 +12719,7 @@
       <c r="D137" s="90"/>
       <c r="E137" s="90"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="90" t="s">
         <v>90</v>
       </c>
@@ -12738,7 +12751,7 @@
         <v>4882.7445115986047</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="100" t="s">
         <v>91</v>
       </c>
@@ -12748,7 +12761,7 @@
       <c r="D139" s="90"/>
       <c r="E139" s="90"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" s="100" t="s">
         <v>92</v>
       </c>
@@ -12758,7 +12771,7 @@
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" s="100" t="s">
         <v>91</v>
       </c>
@@ -12768,7 +12781,7 @@
       <c r="D141" s="90"/>
       <c r="E141" s="90"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" s="100" t="s">
         <v>92</v>
       </c>
@@ -12778,7 +12791,7 @@
       <c r="D142" s="90"/>
       <c r="E142" s="90"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>148</v>
       </c>
@@ -12788,7 +12801,7 @@
       <c r="D143" s="90"/>
       <c r="E143" s="90"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>149</v>
       </c>
@@ -12798,7 +12811,7 @@
       <c r="D144" s="90"/>
       <c r="E144" s="90"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="101" t="s">
         <v>93</v>
       </c>
@@ -12810,7 +12823,7 @@
       </c>
       <c r="E145" s="90"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="101" t="s">
         <v>93</v>
       </c>
@@ -12822,7 +12835,7 @@
       </c>
       <c r="E146" s="90"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="101" t="s">
         <v>93</v>
       </c>
@@ -12834,7 +12847,7 @@
       </c>
       <c r="E147" s="90"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="101" t="s">
         <v>93</v>
       </c>
@@ -12846,7 +12859,7 @@
       </c>
       <c r="E148" s="90"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="101" t="s">
         <v>93</v>
       </c>
@@ -12858,7 +12871,7 @@
       </c>
       <c r="E149" s="90"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="101" t="s">
         <v>93</v>
       </c>
@@ -12870,7 +12883,7 @@
       </c>
       <c r="E150" s="8"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="101" t="s">
         <v>93</v>
       </c>
@@ -12882,7 +12895,7 @@
       </c>
       <c r="E151" s="8"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="101" t="s">
         <v>93</v>
       </c>
@@ -12908,26 +12921,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.5703125" bestFit="true" customWidth="true"/>
-    <col min="10" max="11" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -12958,7 +12971,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="true">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -12988,7 +13001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" ht="15.75" thickBot="true">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -13019,7 +13032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="true">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>Input_old!A4</f>
         <v>Land</v>
@@ -13068,7 +13081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>Input_old!A5</f>
         <v>Labor</v>
@@ -13117,7 +13130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>Input_old!A6</f>
         <v>Capital</v>
@@ -13166,7 +13179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" thickBot="true">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>Input_old!A7</f>
         <v>Input</v>
@@ -13215,7 +13228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>Input_old!A8</f>
         <v>crop</v>
@@ -13264,7 +13277,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>Input_old!A9</f>
         <v>live</v>
@@ -13313,7 +13326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>Input_old!A10</f>
         <v>ret</v>
@@ -13362,7 +13375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>Input_old!A11</f>
         <v>other</v>
@@ -13411,7 +13424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>Input_old!A12</f>
         <v>OUTSIDE</v>
@@ -13460,7 +13473,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>Input_old!A13</f>
         <v>A1</v>
@@ -13509,7 +13522,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>Input_old!A14</f>
         <v>A2</v>
@@ -13558,7 +13571,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>Input_old!A15</f>
         <v>A3</v>
@@ -13607,7 +13620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>Input_old!A16</f>
         <v>B1</v>
@@ -13653,7 +13666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickBot="true">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>Input_old!A17</f>
         <v>B2</v>
@@ -13693,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>Input_old!A18</f>
         <v>B3</v>
@@ -13733,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.75" thickBot="true">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>Input_old!A19</f>
         <v>empty</v>
@@ -13773,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.75" thickBot="true">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="str">
         <f>Input_old!B20</f>
@@ -13810,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="str">
         <f>Input_old!B21</f>
@@ -13858,7 +13871,7 @@
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="str">
         <f>Input_old!B22</f>
@@ -13906,7 +13919,7 @@
       <c r="Q22" s="162"/>
       <c r="R22" s="162"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="str">
         <f>Input_old!B23</f>
@@ -13946,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" thickBot="true">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="str">
         <f>Input_old!B24</f>
@@ -13986,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="true">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="str">
         <f>Input_old!B25</f>
@@ -14026,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="str">
         <f>Input_old!B26</f>
@@ -14066,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" thickBot="true">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="str">
         <f>Input_old!B27</f>
@@ -14106,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="str">
         <f>Input_old!B28</f>
@@ -14146,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="str">
         <f>Input_old!B29</f>
@@ -14186,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="str">
         <f>Input_old!B30</f>
@@ -14226,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="str">
         <f>Input_old!B31</f>
@@ -14266,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="str">
         <f>Input_old!B32</f>
@@ -14306,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="str">
         <f>Input_old!B33</f>
@@ -14346,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="str">
         <f>Input_old!B34</f>
@@ -14383,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="str">
         <f>Input_old!B35</f>
@@ -14420,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="str">
         <f>Input_old!B36</f>
@@ -14457,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" thickBot="true">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="str">
         <f>Input_old!B37</f>
@@ -14494,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" thickBot="true">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="str">
         <f>Input_old!B38</f>
@@ -14531,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="str">
         <f>Input_old!B39</f>
@@ -14571,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="str">
         <f>Input_old!B40</f>
@@ -14611,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="str">
         <f>Input_old!B41</f>
@@ -14651,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" thickBot="true">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="str">
         <f>Input_old!B42</f>
@@ -14691,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="true">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="str">
         <f>Input_old!B43</f>
@@ -14731,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="str">
         <f>Input_old!B44</f>
@@ -14771,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15.75" thickBot="true">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="str">
         <f>Input_old!B45</f>
@@ -14811,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="str">
         <f>Input_old!B46</f>
@@ -14851,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="str">
         <f>Input_old!B47</f>
@@ -14891,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="str">
         <f>Input_old!B48</f>
@@ -14931,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="str">
         <f>Input_old!B49</f>
@@ -14971,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="str">
         <f>Input_old!B50</f>
@@ -15011,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>Input_old!B51</f>
@@ -15051,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>Input_old!B52</f>
@@ -15088,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" thickBot="true">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>Input_old!B53</f>
@@ -15125,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>Input_old!B54</f>
@@ -15162,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="true" thickBot="true">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>Input_old!B55</f>
@@ -15199,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" thickBot="true">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>Input_old!B56</f>
@@ -15236,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="true">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>Input_old!B57</f>
@@ -15276,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>Input_old!B58</f>
@@ -15316,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>Input_old!B59</f>
@@ -15356,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" thickBot="true">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>Input_old!B60</f>
@@ -15396,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" thickBot="true">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>Input_old!B61</f>
@@ -15436,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>Input_old!B62</f>
@@ -15476,7 +15489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>Input_old!B63</f>
@@ -15516,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>Input_old!B64</f>
@@ -15556,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>Input_old!B65</f>
@@ -15596,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>Input_old!B66</f>
@@ -15636,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>Input_old!B67</f>
@@ -15676,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>Input_old!B68</f>
@@ -15716,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>Input_old!B69</f>
@@ -15753,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" thickBot="true">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>Input_old!B70</f>
@@ -15790,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>Input_old!B71</f>
@@ -15827,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" thickBot="true">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>Input_old!B72</f>
@@ -15864,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>Input_old!B73</f>
@@ -15901,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>Input_old!B74</f>
@@ -15938,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>Input_old!B75</f>
@@ -15972,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="str">
         <f>Input_old!B76</f>
@@ -16006,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="str">
         <f>Input_old!B77</f>
@@ -16040,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="str">
         <f>Input_old!B78</f>
@@ -16074,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="str">
         <f>Input_old!B79</f>
@@ -16108,7 +16121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="str">
         <f>Input_old!B80</f>
@@ -16142,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="true">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="str">
         <f>Input_old!B81</f>
@@ -16176,7 +16189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="str">
         <f>Input_old!B82</f>
@@ -16210,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="str">
         <f>Input_old!B83</f>
@@ -16244,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="str">
         <f>Input_old!B84</f>
@@ -16278,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="str">
         <f>Input_old!B85</f>
@@ -16312,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="str">
         <f>Input_old!B86</f>
@@ -16346,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="str">
         <f>Input_old!B87</f>
@@ -16380,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="str">
         <f>Input_old!B88</f>
@@ -16414,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="str">
         <f>Input_old!B89</f>
@@ -16448,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="str">
         <f>Input_old!B90</f>
@@ -16482,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="str">
         <f>Input_old!B91</f>
@@ -16516,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="str">
         <f>Input_old!B92</f>
@@ -16550,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="str">
         <f>Input_old!B93</f>
@@ -16584,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="str">
         <f>Input_old!B94</f>
@@ -16618,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="str">
         <f>Input_old!B95</f>
@@ -16652,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="str">
         <f>Input_old!B96</f>
@@ -16686,7 +16699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="true">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="str">
         <f>Input_old!B97</f>
@@ -16723,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="str">
         <f>Input_old!B98</f>
@@ -16760,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="str">
         <f>Input_old!B99</f>
@@ -16797,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="str">
         <f>Input_old!B100</f>
@@ -16834,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="str">
         <f>Input_old!B101</f>
@@ -16871,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" thickBot="true">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="str">
         <f>Input_old!B102</f>
@@ -16908,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="str">
         <f>Input_old!B103</f>
@@ -16948,7 +16961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="str">
         <f>Input_old!B104</f>
@@ -16988,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="str">
         <f>Input_old!B105</f>
@@ -17028,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="str">
         <f>Input_old!B106</f>
@@ -17068,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="str">
         <f>Input_old!B107</f>
@@ -17108,7 +17121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="str">
         <f>Input_old!B108</f>
@@ -17148,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="str">
         <f>Input_old!B109</f>
@@ -17188,7 +17201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" thickBot="true">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="str">
         <f>Input_old!B110</f>
@@ -17228,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="str">
         <f>Input_old!B111</f>
@@ -17241,7 +17254,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="str">
         <f>Input_old!B112</f>
@@ -17254,7 +17267,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="str">
         <f>Input_old!B113</f>
@@ -17281,19 +17294,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="8" width="13.28515625" customWidth="true"/>
+    <col min="3" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" s="237" t="s">
         <v>208</v>
       </c>
@@ -17301,7 +17314,7 @@
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>192</v>
       </c>
@@ -17309,7 +17322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>209</v>
       </c>
@@ -17320,7 +17333,7 @@
         <v>61609.917491912842</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="237" t="s">
         <v>207</v>
       </c>
@@ -17328,7 +17341,7 @@
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>192</v>
       </c>
@@ -17348,7 +17361,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -17368,7 +17381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>195</v>
       </c>
@@ -17391,7 +17404,7 @@
         <v>0.24722428494276569</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>196</v>
       </c>
@@ -17414,7 +17427,7 @@
         <v>3.1030321743447061E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>197</v>
       </c>
@@ -17437,7 +17450,7 @@
         <v>0.45547144346382262</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>206</v>
       </c>
@@ -17460,7 +17473,7 @@
         <v>4.4136867910546176E-7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -17483,7 +17496,7 @@
         <v>1.6101608486732868E-14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>191</v>
       </c>
@@ -17512,43 +17525,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="true"/>
-    <col min="2" max="2" width="10" style="11" customWidth="true"/>
-    <col min="3" max="3" width="16" style="11" customWidth="true"/>
-    <col min="4" max="4" width="15.28515625" style="11" customWidth="true"/>
-    <col min="5" max="5" width="14.5703125" style="11" customWidth="true"/>
-    <col min="6" max="6" width="14.85546875" style="11" customWidth="true"/>
-    <col min="7" max="7" width="14.28515625" style="11" customWidth="true"/>
-    <col min="8" max="8" width="9.140625" style="11" customWidth="true"/>
-    <col min="9" max="9" width="10" style="11" customWidth="true"/>
-    <col min="10" max="10" width="7.85546875" style="11" customWidth="true"/>
-    <col min="11" max="11" width="11.5703125" style="11" customWidth="true"/>
-    <col min="12" max="12" width="6.85546875" style="11" customWidth="true"/>
-    <col min="13" max="13" width="10.7109375" style="11" customWidth="true"/>
-    <col min="14" max="14" width="10" style="11" customWidth="true"/>
-    <col min="15" max="15" width="7.85546875" style="11" customWidth="true"/>
-    <col min="16" max="16" width="12.5703125" style="11" customWidth="true"/>
-    <col min="17" max="17" width="9.140625" style="11" customWidth="true"/>
-    <col min="18" max="18" width="11" style="11" customWidth="true"/>
-    <col min="19" max="19" width="9.42578125" style="11" customWidth="true"/>
-    <col min="20" max="20" width="10" style="11" customWidth="true"/>
-    <col min="21" max="21" width="12.5703125" style="11" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" style="11" customWidth="true"/>
+    <col min="1" max="1" width="20" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="11" customWidth="1"/>
     <col min="23" max="25" width="9.140625" style="11"/>
-    <col min="26" max="26" width="15.28515625" style="11" customWidth="true"/>
+    <col min="26" max="26" width="15.28515625" style="11" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="237" t="s">
         <v>208</v>
       </c>
@@ -17557,7 +17570,7 @@
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>192</v>
       </c>
@@ -17577,7 +17590,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>210</v>
       </c>
@@ -17600,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="237" t="s">
         <v>207</v>
       </c>
@@ -17609,7 +17622,7 @@
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" t="s">
         <v>211</v>
@@ -17631,7 +17644,7 @@
       </c>
       <c r="K8" s="240"/>
     </row>
-    <row r="9">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -17653,7 +17666,7 @@
       </c>
       <c r="K9" s="240"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>195</v>
       </c>
@@ -17679,7 +17692,7 @@
       <c r="L10"/>
       <c r="M10" s="224"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>196</v>
       </c>
@@ -17705,7 +17718,7 @@
       <c r="L11"/>
       <c r="M11" s="224"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>197</v>
       </c>
@@ -17731,7 +17744,7 @@
       <c r="L12"/>
       <c r="M12" s="224"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>198</v>
       </c>
@@ -17757,7 +17770,7 @@
       <c r="L13"/>
       <c r="M13" s="224"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>191</v>
       </c>
@@ -17782,11 +17795,11 @@
       <c r="K14" s="214"/>
       <c r="L14"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K15" s="240"/>
     </row>
-    <row r="19" ht="17.25" customHeight="true"/>
-    <row r="20" ht="18.75" customHeight="true" thickBot="true">
+    <row r="19" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -17816,7 +17829,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="463" t="s">
         <v>114</v>
@@ -17861,7 +17874,7 @@
       <c r="AD21" s="464"/>
       <c r="AE21" s="465"/>
     </row>
-    <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
+    <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
@@ -17956,7 +17969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="23" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -17991,14 +18004,14 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="40"/>
     </row>
-    <row r="24" ht="18.75" customHeight="true"/>
-    <row r="25" ht="18.75" customHeight="true"/>
-    <row r="26" ht="18.75" customHeight="true"/>
-    <row r="27" ht="18.75" customHeight="true"/>
-    <row r="28" ht="18.75" customHeight="true"/>
-    <row r="29" ht="18.75" customHeight="true"/>
-    <row r="30" ht="18.75" customHeight="true"/>
-    <row r="31" ht="18.75" customHeight="true"/>
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AA21:AE21"/>
@@ -18013,22 +18026,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="true"/>
-    <col min="2" max="2" width="15.85546875" customWidth="true"/>
-    <col min="3" max="3" width="19.28515625" customWidth="true"/>
-    <col min="4" max="4" width="16.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>213</v>
       </c>
@@ -18048,12 +18061,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>252</v>
       </c>
       <c r="C3" s="241">
-        <v>426.89999389648437</v>
+        <v>426.89999389648438</v>
       </c>
       <c r="D3" s="241">
         <v>6</v>
@@ -18071,7 +18084,7 @@
         <v>285.79000854492188</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>203</v>
       </c>
@@ -18094,7 +18107,7 @@
         <v>278.489990234375</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>253</v>
       </c>
@@ -18117,7 +18130,7 @@
         <v>1858.489990234375</v>
       </c>
     </row>
-    <row r="8" ht="30">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -18149,7 +18162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>202</v>
       </c>
@@ -18178,7 +18191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -18210,10 +18223,10 @@
         <v>0.20939799735988693</v>
       </c>
       <c r="K10" s="231">
-        <v>0.06637572111282744</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6.637572111282744E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>191</v>
       </c>
@@ -18224,7 +18237,7 @@
         <v>0.81933700390892095</v>
       </c>
       <c r="E11" s="234">
-        <v>0.062801789420989101</v>
+        <v>6.2801789420989101E-2</v>
       </c>
       <c r="F11" s="235">
         <v>3.5289531599374384</v>
@@ -18233,7 +18246,7 @@
         <v>0.72779529261145504</v>
       </c>
       <c r="H11" s="234">
-        <v>0.016740167648320745</v>
+        <v>1.6740167648320745E-2</v>
       </c>
       <c r="I11" s="214">
         <v>3.5346311552490763</v>
@@ -18242,10 +18255,10 @@
         <v>0.35872622652278674</v>
       </c>
       <c r="K11" s="234">
-        <v>6.0673880015572905e-008</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6.0673880015572905E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -18271,7 +18284,7 @@
       <c r="J12" s="214"/>
       <c r="K12" s="231"/>
     </row>
-    <row r="20" ht="30">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="35" t="s">
         <v>259</v>
       </c>
@@ -18279,7 +18292,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>201</v>
       </c>
@@ -18290,7 +18303,7 @@
         <v>0.51713244742479325</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>203</v>
       </c>
@@ -18301,7 +18314,7 @@
         <v>0.38126708309476026</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>204</v>
       </c>
@@ -18312,7 +18325,7 @@
         <v>0.55383863325815852</v>
       </c>
     </row>
-    <row r="25" ht="45">
+    <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="42" t="s">
         <v>255</v>
       </c>
@@ -18320,43 +18333,43 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>201</v>
       </c>
       <c r="C26" s="157">
         <f>C21*(1-D21)</f>
-        <v>0.15596275043697269</v>
+        <v>0.11614247372966052</v>
       </c>
       <c r="D26">
         <f>C21*D21</f>
-        <v>0.16703006530556255</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.12438409118499338</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="157">
-        <f t="shared" ref="C27:C28" si="0">C22*(1-D22)</f>
-        <v>0.25083635683412664</v>
+        <f t="shared" ref="C27" si="0">C22*(1-D22)</f>
+        <v>0.22132619720658231</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:D28" si="1">C22*D22</f>
-        <v>0.15456692781533504</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.1363825833664721</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="157">
         <f>C23*(1-D23)</f>
-        <v>0.46614772249200193</v>
+        <v>0.30252753785658371</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>0.57864852666805811</v>
+        <v>0.37553999646588632</v>
       </c>
     </row>
   </sheetData>
@@ -18365,21 +18378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="true"/>
-    <col min="3" max="5" width="10.5703125" customWidth="true"/>
-    <col min="6" max="8" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="157" t="s">
         <v>218</v>
       </c>
@@ -18390,7 +18403,7 @@
       <c r="G1" s="157"/>
       <c r="H1" s="157"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>213</v>
       </c>
@@ -18410,7 +18423,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -18436,7 +18449,7 @@
         <v>1245.9361386955716</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>227</v>
       </c>
@@ -18462,7 +18475,7 @@
         <v>489.4317891150713</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -18488,7 +18501,7 @@
         <v>304.19843676080927</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -18514,7 +18527,7 @@
         <v>13.224999964237213</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -18540,7 +18553,7 @@
         <v>1673.4969271477312</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -18566,7 +18579,7 @@
         <v>544.7937532288488</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -18592,7 +18605,7 @@
         <v>611.66246668633539</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="245">
         <f>SUM(C3:C9)</f>
         <v>10856.43761441065</v>
@@ -18618,12 +18631,12 @@
         <v>4882.7445115986047</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="157" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>213</v>
       </c>
@@ -18643,7 +18656,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -18675,7 +18688,7 @@
         <v>0.25517127421595392</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -18707,7 +18720,7 @@
         <v>0.10023702611358462</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -18739,7 +18752,7 @@
         <v>6.2300707325195492E-2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -18771,7 +18784,7 @@
         <v>2.7085177061429667E-3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -18803,7 +18816,7 @@
         <v>0.34273694295748236</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -18835,7 +18848,7 @@
         <v>0.11157531423868909</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -18873,30 +18886,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
-    <col min="3" max="3" width="9.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="7.42578125" customWidth="true"/>
-    <col min="8" max="8" width="12.42578125" customWidth="true"/>
-    <col min="9" max="9" width="12.140625" customWidth="true"/>
-    <col min="10" max="10" width="9.140625" customWidth="true"/>
-    <col min="11" max="11" width="7.140625" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" s="11" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -18926,7 +18939,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="463" t="s">
         <v>114</v>
@@ -18971,7 +18984,7 @@
       <c r="AD9" s="464"/>
       <c r="AE9" s="465"/>
     </row>
-    <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
+    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -19066,7 +19079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="true" ht="30" customHeight="true" thickBot="true">
+    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>120</v>
       </c>
@@ -19115,16 +19128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="466" t="s">
         <v>143</v>
       </c>
@@ -19138,7 +19151,7 @@
       <c r="J2" s="466"/>
       <c r="K2" s="466"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="466">
         <v>1</v>
       </c>
@@ -19155,7 +19168,7 @@
       <c r="J3" s="124"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="466"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
@@ -19170,7 +19183,7 @@
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="466">
         <v>2</v>
       </c>
@@ -19187,7 +19200,7 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="466"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
@@ -19202,7 +19215,7 @@
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="466">
         <v>1</v>
       </c>
@@ -19219,7 +19232,7 @@
       <c r="J9" s="468"/>
       <c r="K9" s="468"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="466"/>
       <c r="B10" s="468"/>
       <c r="C10" s="468"/>
@@ -19232,7 +19245,7 @@
       <c r="J10" s="468"/>
       <c r="K10" s="468"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="466"/>
       <c r="B11" s="468"/>
       <c r="C11" s="468"/>
@@ -19245,7 +19258,7 @@
       <c r="J11" s="468"/>
       <c r="K11" s="468"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="466"/>
       <c r="B12" s="468"/>
       <c r="C12" s="468"/>
@@ -19258,7 +19271,7 @@
       <c r="J12" s="468"/>
       <c r="K12" s="468"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="466"/>
       <c r="B13" s="468"/>
       <c r="C13" s="468"/>
@@ -19271,7 +19284,7 @@
       <c r="J13" s="468"/>
       <c r="K13" s="468"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="466"/>
       <c r="B14" s="468"/>
       <c r="C14" s="468"/>
@@ -19284,7 +19297,7 @@
       <c r="J14" s="468"/>
       <c r="K14" s="468"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="466">
         <v>2</v>
       </c>
@@ -19301,7 +19314,7 @@
       <c r="J15" s="468"/>
       <c r="K15" s="468"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="466"/>
       <c r="B16" s="468"/>
       <c r="C16" s="468"/>
@@ -19314,7 +19327,7 @@
       <c r="J16" s="468"/>
       <c r="K16" s="468"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="466"/>
       <c r="B17" s="468"/>
       <c r="C17" s="468"/>
@@ -19327,7 +19340,7 @@
       <c r="J17" s="468"/>
       <c r="K17" s="468"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="466"/>
       <c r="B18" s="468"/>
       <c r="C18" s="468"/>
@@ -19340,7 +19353,7 @@
       <c r="J18" s="468"/>
       <c r="K18" s="468"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="466"/>
       <c r="B19" s="468"/>
       <c r="C19" s="468"/>
@@ -19353,7 +19366,7 @@
       <c r="J19" s="468"/>
       <c r="K19" s="468"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="466"/>
       <c r="B20" s="468"/>
       <c r="C20" s="468"/>
